--- a/docs/WBS.xlsx
+++ b/docs/WBS.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ocs_2018069\Treatiseresearch\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\184034\Documents\Treatiseresearch\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A733B2A9-13C2-4BE1-ACB6-30764F5F486C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="研究" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
     <sheet name="状態遷移図" sheetId="6" r:id="rId7"/>
     <sheet name="スケジュール表" sheetId="10" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="192">
   <si>
     <t>ターゲット</t>
     <phoneticPr fontId="1"/>
@@ -744,16 +743,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>実績スケジュール表</t>
-    <rPh sb="0" eb="2">
-      <t>ジッセキ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>リール</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1335,6 +1324,118 @@
     </rPh>
     <rPh sb="9" eb="11">
       <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>試遊</t>
+    <rPh sb="0" eb="2">
+      <t>シユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予定スケジュール表（当初）</t>
+    <rPh sb="0" eb="2">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>トウショ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>野津</t>
+    <rPh sb="0" eb="2">
+      <t>ノツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問題出題機能</t>
+    <rPh sb="0" eb="2">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュツダイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レベルデザイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設計</t>
+    <rPh sb="0" eb="2">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テストケース</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水井</t>
+    <rPh sb="0" eb="2">
+      <t>ミズイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>野口</t>
+    <rPh sb="0" eb="2">
+      <t>ノグチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パーティクル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>演出系</t>
+    <rPh sb="0" eb="2">
+      <t>エンシュツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>長谷</t>
+    <rPh sb="0" eb="2">
+      <t>ハセ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>補助</t>
+    <rPh sb="0" eb="2">
+      <t>ホジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他</t>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1342,7 +1443,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -1366,7 +1467,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1385,6 +1486,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="36">
     <border>
@@ -1819,7 +1926,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -1876,12 +1983,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
@@ -1916,6 +2017,39 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1981,24 +2115,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -3356,7 +3472,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DB24"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
@@ -3379,18 +3495,18 @@
     <row r="5" spans="7:104" ht="20.100000000000001" customHeight="1">
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="BB5" s="58" t="s">
+      <c r="BB5" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="BC5" s="59"/>
-      <c r="BD5" s="59"/>
-      <c r="BE5" s="60"/>
+      <c r="BC5" s="80"/>
+      <c r="BD5" s="80"/>
+      <c r="BE5" s="81"/>
     </row>
     <row r="6" spans="7:104" ht="20.100000000000001" customHeight="1">
-      <c r="BB6" s="61"/>
-      <c r="BC6" s="62"/>
-      <c r="BD6" s="62"/>
-      <c r="BE6" s="63"/>
+      <c r="BB6" s="82"/>
+      <c r="BC6" s="83"/>
+      <c r="BD6" s="83"/>
+      <c r="BE6" s="84"/>
     </row>
     <row r="7" spans="7:104" ht="20.100000000000001" customHeight="1">
       <c r="BC7" s="1"/>
@@ -3496,52 +3612,52 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
-      <c r="M10" s="58" t="s">
+      <c r="M10" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="N10" s="59"/>
-      <c r="O10" s="59"/>
-      <c r="P10" s="60"/>
-      <c r="BD10" s="58" t="s">
+      <c r="N10" s="80"/>
+      <c r="O10" s="80"/>
+      <c r="P10" s="81"/>
+      <c r="BD10" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="BE10" s="59"/>
-      <c r="BF10" s="59"/>
-      <c r="BG10" s="60"/>
-      <c r="BT10" s="58" t="s">
+      <c r="BE10" s="80"/>
+      <c r="BF10" s="80"/>
+      <c r="BG10" s="81"/>
+      <c r="BT10" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="BU10" s="59"/>
-      <c r="BV10" s="59"/>
-      <c r="BW10" s="60"/>
-      <c r="CN10" s="58" t="s">
+      <c r="BU10" s="80"/>
+      <c r="BV10" s="80"/>
+      <c r="BW10" s="81"/>
+      <c r="CN10" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="CO10" s="59"/>
-      <c r="CP10" s="59"/>
-      <c r="CQ10" s="60"/>
+      <c r="CO10" s="80"/>
+      <c r="CP10" s="80"/>
+      <c r="CQ10" s="81"/>
     </row>
     <row r="11" spans="7:104" ht="20.100000000000001" customHeight="1">
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
-      <c r="M11" s="61"/>
-      <c r="N11" s="62"/>
-      <c r="O11" s="62"/>
-      <c r="P11" s="63"/>
+      <c r="M11" s="82"/>
+      <c r="N11" s="83"/>
+      <c r="O11" s="83"/>
+      <c r="P11" s="84"/>
       <c r="AK11" s="4"/>
-      <c r="BD11" s="61"/>
-      <c r="BE11" s="62"/>
-      <c r="BF11" s="62"/>
-      <c r="BG11" s="63"/>
-      <c r="BT11" s="61"/>
-      <c r="BU11" s="62"/>
-      <c r="BV11" s="62"/>
-      <c r="BW11" s="63"/>
-      <c r="CN11" s="61"/>
-      <c r="CO11" s="62"/>
-      <c r="CP11" s="62"/>
-      <c r="CQ11" s="63"/>
+      <c r="BD11" s="82"/>
+      <c r="BE11" s="83"/>
+      <c r="BF11" s="83"/>
+      <c r="BG11" s="84"/>
+      <c r="BT11" s="82"/>
+      <c r="BU11" s="83"/>
+      <c r="BV11" s="83"/>
+      <c r="BW11" s="84"/>
+      <c r="CN11" s="82"/>
+      <c r="CO11" s="83"/>
+      <c r="CP11" s="83"/>
+      <c r="CQ11" s="84"/>
     </row>
     <row r="12" spans="7:104" ht="20.100000000000001" customHeight="1">
       <c r="I12" s="4"/>
@@ -3612,110 +3728,110 @@
       <c r="CX13" s="5"/>
     </row>
     <row r="14" spans="7:104" ht="20.100000000000001" customHeight="1">
-      <c r="I14" s="52" t="s">
+      <c r="I14" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="54"/>
+      <c r="J14" s="74"/>
+      <c r="K14" s="74"/>
+      <c r="L14" s="75"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
-      <c r="Z14" s="58" t="s">
+      <c r="Z14" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="AA14" s="59"/>
-      <c r="AB14" s="59"/>
-      <c r="AC14" s="60"/>
-      <c r="AZ14" s="58" t="s">
+      <c r="AA14" s="80"/>
+      <c r="AB14" s="80"/>
+      <c r="AC14" s="81"/>
+      <c r="AZ14" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="BA14" s="59"/>
-      <c r="BB14" s="59"/>
-      <c r="BC14" s="60"/>
-      <c r="BH14" s="58" t="s">
+      <c r="BA14" s="80"/>
+      <c r="BB14" s="80"/>
+      <c r="BC14" s="81"/>
+      <c r="BH14" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="BI14" s="59"/>
-      <c r="BJ14" s="59"/>
-      <c r="BK14" s="60"/>
-      <c r="BQ14" s="58" t="s">
+      <c r="BI14" s="80"/>
+      <c r="BJ14" s="80"/>
+      <c r="BK14" s="81"/>
+      <c r="BQ14" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="BR14" s="59"/>
-      <c r="BS14" s="59"/>
-      <c r="BT14" s="60"/>
-      <c r="BW14" s="58" t="s">
+      <c r="BR14" s="80"/>
+      <c r="BS14" s="80"/>
+      <c r="BT14" s="81"/>
+      <c r="BW14" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="BX14" s="59"/>
-      <c r="BY14" s="59"/>
-      <c r="BZ14" s="60"/>
-      <c r="CE14" s="58" t="s">
+      <c r="BX14" s="80"/>
+      <c r="BY14" s="80"/>
+      <c r="BZ14" s="81"/>
+      <c r="CE14" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="CF14" s="59"/>
-      <c r="CG14" s="59"/>
-      <c r="CH14" s="60"/>
-      <c r="CK14" s="58" t="s">
+      <c r="CF14" s="80"/>
+      <c r="CG14" s="80"/>
+      <c r="CH14" s="81"/>
+      <c r="CK14" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="CL14" s="59"/>
-      <c r="CM14" s="59"/>
-      <c r="CN14" s="60"/>
-      <c r="CQ14" s="58" t="s">
+      <c r="CL14" s="80"/>
+      <c r="CM14" s="80"/>
+      <c r="CN14" s="81"/>
+      <c r="CQ14" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="CR14" s="59"/>
-      <c r="CS14" s="59"/>
-      <c r="CT14" s="60"/>
-      <c r="CW14" s="58" t="s">
+      <c r="CR14" s="80"/>
+      <c r="CS14" s="80"/>
+      <c r="CT14" s="81"/>
+      <c r="CW14" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="CX14" s="59"/>
-      <c r="CY14" s="59"/>
-      <c r="CZ14" s="60"/>
+      <c r="CX14" s="80"/>
+      <c r="CY14" s="80"/>
+      <c r="CZ14" s="81"/>
     </row>
     <row r="15" spans="7:104" ht="20.100000000000001" customHeight="1">
-      <c r="I15" s="55"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="57"/>
-      <c r="Z15" s="61"/>
-      <c r="AA15" s="62"/>
-      <c r="AB15" s="62"/>
-      <c r="AC15" s="63"/>
-      <c r="AZ15" s="61"/>
-      <c r="BA15" s="62"/>
-      <c r="BB15" s="62"/>
-      <c r="BC15" s="63"/>
-      <c r="BH15" s="61"/>
-      <c r="BI15" s="62"/>
-      <c r="BJ15" s="62"/>
-      <c r="BK15" s="63"/>
-      <c r="BQ15" s="61"/>
-      <c r="BR15" s="62"/>
-      <c r="BS15" s="62"/>
-      <c r="BT15" s="63"/>
-      <c r="BW15" s="61"/>
-      <c r="BX15" s="62"/>
-      <c r="BY15" s="62"/>
-      <c r="BZ15" s="63"/>
-      <c r="CE15" s="61"/>
-      <c r="CF15" s="62"/>
-      <c r="CG15" s="62"/>
-      <c r="CH15" s="63"/>
-      <c r="CK15" s="61"/>
-      <c r="CL15" s="62"/>
-      <c r="CM15" s="62"/>
-      <c r="CN15" s="63"/>
-      <c r="CQ15" s="61"/>
-      <c r="CR15" s="62"/>
-      <c r="CS15" s="62"/>
-      <c r="CT15" s="63"/>
-      <c r="CW15" s="61"/>
-      <c r="CX15" s="62"/>
-      <c r="CY15" s="62"/>
-      <c r="CZ15" s="63"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="77"/>
+      <c r="K15" s="77"/>
+      <c r="L15" s="78"/>
+      <c r="Z15" s="82"/>
+      <c r="AA15" s="83"/>
+      <c r="AB15" s="83"/>
+      <c r="AC15" s="84"/>
+      <c r="AZ15" s="82"/>
+      <c r="BA15" s="83"/>
+      <c r="BB15" s="83"/>
+      <c r="BC15" s="84"/>
+      <c r="BH15" s="82"/>
+      <c r="BI15" s="83"/>
+      <c r="BJ15" s="83"/>
+      <c r="BK15" s="84"/>
+      <c r="BQ15" s="82"/>
+      <c r="BR15" s="83"/>
+      <c r="BS15" s="83"/>
+      <c r="BT15" s="84"/>
+      <c r="BW15" s="82"/>
+      <c r="BX15" s="83"/>
+      <c r="BY15" s="83"/>
+      <c r="BZ15" s="84"/>
+      <c r="CE15" s="82"/>
+      <c r="CF15" s="83"/>
+      <c r="CG15" s="83"/>
+      <c r="CH15" s="84"/>
+      <c r="CK15" s="82"/>
+      <c r="CL15" s="83"/>
+      <c r="CM15" s="83"/>
+      <c r="CN15" s="84"/>
+      <c r="CQ15" s="82"/>
+      <c r="CR15" s="83"/>
+      <c r="CS15" s="83"/>
+      <c r="CT15" s="84"/>
+      <c r="CW15" s="82"/>
+      <c r="CX15" s="83"/>
+      <c r="CY15" s="83"/>
+      <c r="CZ15" s="84"/>
     </row>
     <row r="16" spans="7:104" ht="20.100000000000001" customHeight="1">
       <c r="J16" s="1"/>
@@ -3778,148 +3894,148 @@
       <c r="CR17" s="2"/>
     </row>
     <row r="18" spans="1:106" ht="20.100000000000001" customHeight="1">
-      <c r="I18" s="52" t="s">
+      <c r="I18" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="J18" s="53"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="54"/>
-      <c r="Q18" s="52" t="s">
+      <c r="J18" s="74"/>
+      <c r="K18" s="74"/>
+      <c r="L18" s="75"/>
+      <c r="Q18" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="R18" s="53"/>
-      <c r="S18" s="53"/>
-      <c r="T18" s="54"/>
-      <c r="W18" s="52" t="s">
+      <c r="R18" s="74"/>
+      <c r="S18" s="74"/>
+      <c r="T18" s="75"/>
+      <c r="W18" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="X18" s="53"/>
-      <c r="Y18" s="53"/>
-      <c r="Z18" s="54"/>
-      <c r="AC18" s="52" t="s">
+      <c r="X18" s="74"/>
+      <c r="Y18" s="74"/>
+      <c r="Z18" s="75"/>
+      <c r="AC18" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="AD18" s="53"/>
-      <c r="AE18" s="53"/>
-      <c r="AF18" s="54"/>
-      <c r="AI18" s="52" t="s">
+      <c r="AD18" s="74"/>
+      <c r="AE18" s="74"/>
+      <c r="AF18" s="75"/>
+      <c r="AI18" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="AJ18" s="53"/>
-      <c r="AK18" s="53"/>
-      <c r="AL18" s="54"/>
-      <c r="AQ18" s="58" t="s">
+      <c r="AJ18" s="74"/>
+      <c r="AK18" s="74"/>
+      <c r="AL18" s="75"/>
+      <c r="AQ18" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="AR18" s="59"/>
-      <c r="AS18" s="59"/>
-      <c r="AT18" s="60"/>
-      <c r="AW18" s="58" t="s">
+      <c r="AR18" s="80"/>
+      <c r="AS18" s="80"/>
+      <c r="AT18" s="81"/>
+      <c r="AW18" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="AX18" s="59"/>
-      <c r="AY18" s="59"/>
-      <c r="AZ18" s="60"/>
-      <c r="BC18" s="58" t="s">
+      <c r="AX18" s="80"/>
+      <c r="AY18" s="80"/>
+      <c r="AZ18" s="81"/>
+      <c r="BC18" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="BD18" s="59"/>
-      <c r="BE18" s="59"/>
-      <c r="BF18" s="60"/>
-      <c r="BI18" s="58" t="s">
+      <c r="BD18" s="80"/>
+      <c r="BE18" s="80"/>
+      <c r="BF18" s="81"/>
+      <c r="BI18" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="BJ18" s="59"/>
-      <c r="BK18" s="59"/>
-      <c r="BL18" s="60"/>
-      <c r="BQ18" s="58" t="s">
+      <c r="BJ18" s="80"/>
+      <c r="BK18" s="80"/>
+      <c r="BL18" s="81"/>
+      <c r="BQ18" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="BR18" s="59"/>
-      <c r="BS18" s="59"/>
-      <c r="BT18" s="60"/>
-      <c r="BW18" s="58" t="s">
+      <c r="BR18" s="80"/>
+      <c r="BS18" s="80"/>
+      <c r="BT18" s="81"/>
+      <c r="BW18" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="BX18" s="59"/>
-      <c r="BY18" s="59"/>
-      <c r="BZ18" s="60"/>
-      <c r="CE18" s="58" t="s">
+      <c r="BX18" s="80"/>
+      <c r="BY18" s="80"/>
+      <c r="BZ18" s="81"/>
+      <c r="CE18" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="CF18" s="59"/>
-      <c r="CG18" s="59"/>
-      <c r="CH18" s="60"/>
-      <c r="CK18" s="58" t="s">
+      <c r="CF18" s="80"/>
+      <c r="CG18" s="80"/>
+      <c r="CH18" s="81"/>
+      <c r="CK18" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="CL18" s="59"/>
-      <c r="CM18" s="59"/>
-      <c r="CN18" s="60"/>
-      <c r="CQ18" s="52" t="s">
+      <c r="CL18" s="80"/>
+      <c r="CM18" s="80"/>
+      <c r="CN18" s="81"/>
+      <c r="CQ18" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="CR18" s="53"/>
-      <c r="CS18" s="53"/>
-      <c r="CT18" s="54"/>
+      <c r="CR18" s="74"/>
+      <c r="CS18" s="74"/>
+      <c r="CT18" s="75"/>
     </row>
     <row r="19" spans="1:106" ht="20.100000000000001" customHeight="1">
-      <c r="I19" s="55"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="57"/>
-      <c r="Q19" s="55"/>
-      <c r="R19" s="56"/>
-      <c r="S19" s="56"/>
-      <c r="T19" s="57"/>
-      <c r="W19" s="55"/>
-      <c r="X19" s="56"/>
-      <c r="Y19" s="56"/>
-      <c r="Z19" s="57"/>
-      <c r="AC19" s="55"/>
-      <c r="AD19" s="56"/>
-      <c r="AE19" s="56"/>
-      <c r="AF19" s="57"/>
-      <c r="AI19" s="55"/>
-      <c r="AJ19" s="56"/>
-      <c r="AK19" s="56"/>
-      <c r="AL19" s="57"/>
-      <c r="AQ19" s="61"/>
-      <c r="AR19" s="62"/>
-      <c r="AS19" s="62"/>
-      <c r="AT19" s="63"/>
-      <c r="AW19" s="61"/>
-      <c r="AX19" s="62"/>
-      <c r="AY19" s="62"/>
-      <c r="AZ19" s="63"/>
-      <c r="BC19" s="61"/>
-      <c r="BD19" s="62"/>
-      <c r="BE19" s="62"/>
-      <c r="BF19" s="63"/>
-      <c r="BI19" s="61"/>
-      <c r="BJ19" s="62"/>
-      <c r="BK19" s="62"/>
-      <c r="BL19" s="63"/>
-      <c r="BQ19" s="61"/>
-      <c r="BR19" s="62"/>
-      <c r="BS19" s="62"/>
-      <c r="BT19" s="63"/>
-      <c r="BW19" s="61"/>
-      <c r="BX19" s="62"/>
-      <c r="BY19" s="62"/>
-      <c r="BZ19" s="63"/>
-      <c r="CE19" s="61"/>
-      <c r="CF19" s="62"/>
-      <c r="CG19" s="62"/>
-      <c r="CH19" s="63"/>
-      <c r="CK19" s="61"/>
-      <c r="CL19" s="62"/>
-      <c r="CM19" s="62"/>
-      <c r="CN19" s="63"/>
-      <c r="CQ19" s="55"/>
-      <c r="CR19" s="56"/>
-      <c r="CS19" s="56"/>
-      <c r="CT19" s="57"/>
+      <c r="I19" s="76"/>
+      <c r="J19" s="77"/>
+      <c r="K19" s="77"/>
+      <c r="L19" s="78"/>
+      <c r="Q19" s="76"/>
+      <c r="R19" s="77"/>
+      <c r="S19" s="77"/>
+      <c r="T19" s="78"/>
+      <c r="W19" s="76"/>
+      <c r="X19" s="77"/>
+      <c r="Y19" s="77"/>
+      <c r="Z19" s="78"/>
+      <c r="AC19" s="76"/>
+      <c r="AD19" s="77"/>
+      <c r="AE19" s="77"/>
+      <c r="AF19" s="78"/>
+      <c r="AI19" s="76"/>
+      <c r="AJ19" s="77"/>
+      <c r="AK19" s="77"/>
+      <c r="AL19" s="78"/>
+      <c r="AQ19" s="82"/>
+      <c r="AR19" s="83"/>
+      <c r="AS19" s="83"/>
+      <c r="AT19" s="84"/>
+      <c r="AW19" s="82"/>
+      <c r="AX19" s="83"/>
+      <c r="AY19" s="83"/>
+      <c r="AZ19" s="84"/>
+      <c r="BC19" s="82"/>
+      <c r="BD19" s="83"/>
+      <c r="BE19" s="83"/>
+      <c r="BF19" s="84"/>
+      <c r="BI19" s="82"/>
+      <c r="BJ19" s="83"/>
+      <c r="BK19" s="83"/>
+      <c r="BL19" s="84"/>
+      <c r="BQ19" s="82"/>
+      <c r="BR19" s="83"/>
+      <c r="BS19" s="83"/>
+      <c r="BT19" s="84"/>
+      <c r="BW19" s="82"/>
+      <c r="BX19" s="83"/>
+      <c r="BY19" s="83"/>
+      <c r="BZ19" s="84"/>
+      <c r="CE19" s="82"/>
+      <c r="CF19" s="83"/>
+      <c r="CG19" s="83"/>
+      <c r="CH19" s="84"/>
+      <c r="CK19" s="82"/>
+      <c r="CL19" s="83"/>
+      <c r="CM19" s="83"/>
+      <c r="CN19" s="84"/>
+      <c r="CQ19" s="76"/>
+      <c r="CR19" s="77"/>
+      <c r="CS19" s="77"/>
+      <c r="CT19" s="78"/>
     </row>
     <row r="21" spans="1:106" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="8"/>
@@ -4030,38 +4146,38 @@
       <c r="DB21" s="8"/>
     </row>
     <row r="23" spans="1:106" ht="20.100000000000001" customHeight="1">
-      <c r="BO23" s="58" t="s">
+      <c r="BO23" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="BP23" s="59"/>
-      <c r="BQ23" s="59"/>
-      <c r="BR23" s="60"/>
-      <c r="BT23" s="58" t="s">
+      <c r="BP23" s="80"/>
+      <c r="BQ23" s="80"/>
+      <c r="BR23" s="81"/>
+      <c r="BT23" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="BU23" s="59"/>
-      <c r="BV23" s="59"/>
-      <c r="BW23" s="60"/>
-      <c r="BZ23" s="58" t="s">
+      <c r="BU23" s="80"/>
+      <c r="BV23" s="80"/>
+      <c r="BW23" s="81"/>
+      <c r="BZ23" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="CA23" s="59"/>
-      <c r="CB23" s="59"/>
-      <c r="CC23" s="60"/>
+      <c r="CA23" s="80"/>
+      <c r="CB23" s="80"/>
+      <c r="CC23" s="81"/>
     </row>
     <row r="24" spans="1:106" ht="20.100000000000001" customHeight="1">
-      <c r="BO24" s="61"/>
-      <c r="BP24" s="62"/>
-      <c r="BQ24" s="62"/>
-      <c r="BR24" s="63"/>
-      <c r="BT24" s="61"/>
-      <c r="BU24" s="62"/>
-      <c r="BV24" s="62"/>
-      <c r="BW24" s="63"/>
-      <c r="BZ24" s="61"/>
-      <c r="CA24" s="62"/>
-      <c r="CB24" s="62"/>
-      <c r="CC24" s="63"/>
+      <c r="BO24" s="82"/>
+      <c r="BP24" s="83"/>
+      <c r="BQ24" s="83"/>
+      <c r="BR24" s="84"/>
+      <c r="BT24" s="82"/>
+      <c r="BU24" s="83"/>
+      <c r="BV24" s="83"/>
+      <c r="BW24" s="84"/>
+      <c r="BZ24" s="82"/>
+      <c r="CA24" s="83"/>
+      <c r="CB24" s="83"/>
+      <c r="CC24" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="32">
@@ -4105,7 +4221,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B611C23-622C-42B5-A459-3D830E47DDC0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:CF25"/>
   <sheetViews>
     <sheetView topLeftCell="Q1" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
@@ -4115,20 +4231,20 @@
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <sheetData>
     <row r="4" spans="4:84" ht="20.100000000000001" customHeight="1">
-      <c r="S4" s="58" t="s">
+      <c r="S4" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="T4" s="59"/>
-      <c r="U4" s="59"/>
-      <c r="V4" s="60"/>
+      <c r="T4" s="80"/>
+      <c r="U4" s="80"/>
+      <c r="V4" s="81"/>
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
     </row>
     <row r="5" spans="4:84" ht="20.100000000000001" customHeight="1">
-      <c r="S5" s="61"/>
-      <c r="T5" s="62"/>
-      <c r="U5" s="62"/>
-      <c r="V5" s="63"/>
+      <c r="S5" s="82"/>
+      <c r="T5" s="83"/>
+      <c r="U5" s="83"/>
+      <c r="V5" s="84"/>
       <c r="W5" s="4"/>
       <c r="X5" s="4"/>
     </row>
@@ -4189,69 +4305,69 @@
       <c r="AZ7" s="5"/>
     </row>
     <row r="8" spans="4:84" ht="20.100000000000001" customHeight="1">
-      <c r="D8" s="58" t="s">
+      <c r="D8" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="60"/>
-      <c r="J8" s="58" t="s">
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="81"/>
+      <c r="J8" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="K8" s="59"/>
-      <c r="L8" s="59"/>
-      <c r="M8" s="60"/>
-      <c r="P8" s="58" t="s">
+      <c r="K8" s="80"/>
+      <c r="L8" s="80"/>
+      <c r="M8" s="81"/>
+      <c r="P8" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="Q8" s="59"/>
-      <c r="R8" s="59"/>
-      <c r="S8" s="60"/>
-      <c r="AD8" s="52" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE8" s="53"/>
-      <c r="AF8" s="53"/>
-      <c r="AG8" s="54"/>
-      <c r="AY8" s="58" t="s">
+      <c r="Q8" s="80"/>
+      <c r="R8" s="80"/>
+      <c r="S8" s="81"/>
+      <c r="AD8" s="73" t="s">
+        <v>129</v>
+      </c>
+      <c r="AE8" s="74"/>
+      <c r="AF8" s="74"/>
+      <c r="AG8" s="75"/>
+      <c r="AY8" s="79" t="s">
         <v>75</v>
       </c>
-      <c r="AZ8" s="59"/>
-      <c r="BA8" s="59"/>
-      <c r="BB8" s="60"/>
-      <c r="BW8" s="58" t="s">
+      <c r="AZ8" s="80"/>
+      <c r="BA8" s="80"/>
+      <c r="BB8" s="81"/>
+      <c r="BW8" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="BX8" s="59"/>
-      <c r="BY8" s="59"/>
-      <c r="BZ8" s="60"/>
+      <c r="BX8" s="80"/>
+      <c r="BY8" s="80"/>
+      <c r="BZ8" s="81"/>
     </row>
     <row r="9" spans="4:84" ht="20.100000000000001" customHeight="1">
-      <c r="D9" s="61"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="63"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="62"/>
-      <c r="M9" s="63"/>
-      <c r="P9" s="61"/>
-      <c r="Q9" s="62"/>
-      <c r="R9" s="62"/>
-      <c r="S9" s="63"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="84"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="83"/>
+      <c r="L9" s="83"/>
+      <c r="M9" s="84"/>
+      <c r="P9" s="82"/>
+      <c r="Q9" s="83"/>
+      <c r="R9" s="83"/>
+      <c r="S9" s="84"/>
       <c r="AC9" s="9"/>
-      <c r="AD9" s="55"/>
-      <c r="AE9" s="56"/>
-      <c r="AF9" s="56"/>
-      <c r="AG9" s="57"/>
-      <c r="AY9" s="61"/>
-      <c r="AZ9" s="62"/>
-      <c r="BA9" s="62"/>
-      <c r="BB9" s="63"/>
-      <c r="BW9" s="61"/>
-      <c r="BX9" s="62"/>
-      <c r="BY9" s="62"/>
-      <c r="BZ9" s="63"/>
+      <c r="AD9" s="76"/>
+      <c r="AE9" s="77"/>
+      <c r="AF9" s="77"/>
+      <c r="AG9" s="78"/>
+      <c r="AY9" s="82"/>
+      <c r="AZ9" s="83"/>
+      <c r="BA9" s="83"/>
+      <c r="BB9" s="84"/>
+      <c r="BW9" s="82"/>
+      <c r="BX9" s="83"/>
+      <c r="BY9" s="83"/>
+      <c r="BZ9" s="84"/>
     </row>
     <row r="10" spans="4:84" ht="20.100000000000001" customHeight="1">
       <c r="E10" s="1"/>
@@ -4281,88 +4397,88 @@
       <c r="AZ11" s="2"/>
     </row>
     <row r="12" spans="4:84" ht="20.100000000000001" customHeight="1">
-      <c r="D12" s="58" t="s">
+      <c r="D12" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="60"/>
-      <c r="J12" s="58" t="s">
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="81"/>
+      <c r="J12" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="K12" s="59"/>
-      <c r="L12" s="59"/>
-      <c r="M12" s="60"/>
-      <c r="P12" s="58" t="s">
+      <c r="K12" s="80"/>
+      <c r="L12" s="80"/>
+      <c r="M12" s="81"/>
+      <c r="P12" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="Q12" s="59"/>
-      <c r="R12" s="59"/>
-      <c r="S12" s="60"/>
-      <c r="Y12" s="52" t="s">
+      <c r="Q12" s="80"/>
+      <c r="R12" s="80"/>
+      <c r="S12" s="81"/>
+      <c r="Y12" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="Z12" s="53"/>
-      <c r="AA12" s="53"/>
-      <c r="AB12" s="54"/>
-      <c r="AI12" s="52" t="s">
+      <c r="Z12" s="74"/>
+      <c r="AA12" s="74"/>
+      <c r="AB12" s="75"/>
+      <c r="AI12" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="AJ12" s="53"/>
-      <c r="AK12" s="53"/>
-      <c r="AL12" s="54"/>
-      <c r="AY12" s="58" t="s">
+      <c r="AJ12" s="74"/>
+      <c r="AK12" s="74"/>
+      <c r="AL12" s="75"/>
+      <c r="AY12" s="79" t="s">
         <v>76</v>
       </c>
-      <c r="AZ12" s="59"/>
-      <c r="BA12" s="59"/>
-      <c r="BB12" s="60"/>
-      <c r="BR12" s="52" t="s">
+      <c r="AZ12" s="80"/>
+      <c r="BA12" s="80"/>
+      <c r="BB12" s="81"/>
+      <c r="BR12" s="73" t="s">
+        <v>130</v>
+      </c>
+      <c r="BS12" s="74"/>
+      <c r="BT12" s="74"/>
+      <c r="BU12" s="75"/>
+      <c r="CC12" s="73" t="s">
         <v>131</v>
       </c>
-      <c r="BS12" s="53"/>
-      <c r="BT12" s="53"/>
-      <c r="BU12" s="54"/>
-      <c r="CC12" s="52" t="s">
-        <v>132</v>
-      </c>
-      <c r="CD12" s="53"/>
-      <c r="CE12" s="53"/>
-      <c r="CF12" s="54"/>
+      <c r="CD12" s="74"/>
+      <c r="CE12" s="74"/>
+      <c r="CF12" s="75"/>
     </row>
     <row r="13" spans="4:84" ht="20.100000000000001" customHeight="1">
-      <c r="D13" s="61"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="63"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="62"/>
-      <c r="M13" s="63"/>
-      <c r="P13" s="61"/>
-      <c r="Q13" s="62"/>
-      <c r="R13" s="62"/>
-      <c r="S13" s="63"/>
-      <c r="Y13" s="55"/>
-      <c r="Z13" s="56"/>
-      <c r="AA13" s="56"/>
-      <c r="AB13" s="57"/>
-      <c r="AI13" s="55"/>
-      <c r="AJ13" s="56"/>
-      <c r="AK13" s="56"/>
-      <c r="AL13" s="57"/>
-      <c r="AY13" s="61"/>
-      <c r="AZ13" s="62"/>
-      <c r="BA13" s="62"/>
-      <c r="BB13" s="63"/>
-      <c r="BR13" s="55"/>
-      <c r="BS13" s="56"/>
-      <c r="BT13" s="56"/>
-      <c r="BU13" s="57"/>
-      <c r="CC13" s="55"/>
-      <c r="CD13" s="56"/>
-      <c r="CE13" s="56"/>
-      <c r="CF13" s="57"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="84"/>
+      <c r="J13" s="82"/>
+      <c r="K13" s="83"/>
+      <c r="L13" s="83"/>
+      <c r="M13" s="84"/>
+      <c r="P13" s="82"/>
+      <c r="Q13" s="83"/>
+      <c r="R13" s="83"/>
+      <c r="S13" s="84"/>
+      <c r="Y13" s="76"/>
+      <c r="Z13" s="77"/>
+      <c r="AA13" s="77"/>
+      <c r="AB13" s="78"/>
+      <c r="AI13" s="76"/>
+      <c r="AJ13" s="77"/>
+      <c r="AK13" s="77"/>
+      <c r="AL13" s="78"/>
+      <c r="AY13" s="82"/>
+      <c r="AZ13" s="83"/>
+      <c r="BA13" s="83"/>
+      <c r="BB13" s="84"/>
+      <c r="BR13" s="76"/>
+      <c r="BS13" s="77"/>
+      <c r="BT13" s="77"/>
+      <c r="BU13" s="78"/>
+      <c r="CC13" s="76"/>
+      <c r="CD13" s="77"/>
+      <c r="CE13" s="77"/>
+      <c r="CF13" s="78"/>
     </row>
     <row r="14" spans="4:84" ht="20.100000000000001" customHeight="1">
       <c r="E14" s="1"/>
@@ -4401,128 +4517,128 @@
       <c r="BE15" s="5"/>
     </row>
     <row r="16" spans="4:84" ht="20.100000000000001" customHeight="1">
-      <c r="D16" s="58" t="s">
+      <c r="D16" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="60"/>
-      <c r="J16" s="58" t="s">
+      <c r="E16" s="80"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="81"/>
+      <c r="J16" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="K16" s="59"/>
-      <c r="L16" s="59"/>
-      <c r="M16" s="60"/>
-      <c r="P16" s="52" t="s">
+      <c r="K16" s="80"/>
+      <c r="L16" s="80"/>
+      <c r="M16" s="81"/>
+      <c r="P16" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="Q16" s="53"/>
-      <c r="R16" s="53"/>
-      <c r="S16" s="54"/>
-      <c r="V16" s="52" t="s">
+      <c r="Q16" s="74"/>
+      <c r="R16" s="74"/>
+      <c r="S16" s="75"/>
+      <c r="V16" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="W16" s="53"/>
-      <c r="X16" s="53"/>
-      <c r="Y16" s="54"/>
-      <c r="AA16" s="52" t="s">
+      <c r="W16" s="74"/>
+      <c r="X16" s="74"/>
+      <c r="Y16" s="75"/>
+      <c r="AA16" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="AB16" s="53"/>
-      <c r="AC16" s="53"/>
-      <c r="AD16" s="54"/>
-      <c r="AG16" s="52" t="s">
+      <c r="AB16" s="74"/>
+      <c r="AC16" s="74"/>
+      <c r="AD16" s="75"/>
+      <c r="AG16" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="AH16" s="53"/>
-      <c r="AI16" s="53"/>
-      <c r="AJ16" s="54"/>
-      <c r="AL16" s="58" t="s">
+      <c r="AH16" s="74"/>
+      <c r="AI16" s="74"/>
+      <c r="AJ16" s="75"/>
+      <c r="AL16" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="AM16" s="59"/>
-      <c r="AN16" s="59"/>
-      <c r="AO16" s="60"/>
-      <c r="AU16" s="58" t="s">
+      <c r="AM16" s="80"/>
+      <c r="AN16" s="80"/>
+      <c r="AO16" s="81"/>
+      <c r="AU16" s="79" t="s">
         <v>79</v>
       </c>
-      <c r="AV16" s="59"/>
-      <c r="AW16" s="59"/>
-      <c r="AX16" s="60"/>
-      <c r="BD16" s="58" t="s">
+      <c r="AV16" s="80"/>
+      <c r="AW16" s="80"/>
+      <c r="AX16" s="81"/>
+      <c r="BD16" s="79" t="s">
         <v>80</v>
       </c>
-      <c r="BE16" s="59"/>
-      <c r="BF16" s="59"/>
-      <c r="BG16" s="60"/>
-      <c r="BM16" s="52" t="s">
+      <c r="BE16" s="80"/>
+      <c r="BF16" s="80"/>
+      <c r="BG16" s="81"/>
+      <c r="BM16" s="73" t="s">
+        <v>132</v>
+      </c>
+      <c r="BN16" s="74"/>
+      <c r="BO16" s="74"/>
+      <c r="BP16" s="75"/>
+      <c r="BR16" s="73" t="s">
         <v>133</v>
       </c>
-      <c r="BN16" s="53"/>
-      <c r="BO16" s="53"/>
-      <c r="BP16" s="54"/>
-      <c r="BR16" s="52" t="s">
+      <c r="BS16" s="74"/>
+      <c r="BT16" s="74"/>
+      <c r="BU16" s="75"/>
+      <c r="BW16" s="73" t="s">
         <v>134</v>
       </c>
-      <c r="BS16" s="53"/>
-      <c r="BT16" s="53"/>
-      <c r="BU16" s="54"/>
-      <c r="BW16" s="52" t="s">
-        <v>135</v>
-      </c>
-      <c r="BX16" s="53"/>
-      <c r="BY16" s="53"/>
-      <c r="BZ16" s="54"/>
+      <c r="BX16" s="74"/>
+      <c r="BY16" s="74"/>
+      <c r="BZ16" s="75"/>
     </row>
     <row r="17" spans="1:78" ht="20.100000000000001" customHeight="1">
-      <c r="D17" s="61"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="63"/>
-      <c r="J17" s="61"/>
-      <c r="K17" s="62"/>
-      <c r="L17" s="62"/>
-      <c r="M17" s="63"/>
-      <c r="P17" s="55"/>
-      <c r="Q17" s="56"/>
-      <c r="R17" s="56"/>
-      <c r="S17" s="57"/>
-      <c r="V17" s="55"/>
-      <c r="W17" s="56"/>
-      <c r="X17" s="56"/>
-      <c r="Y17" s="57"/>
-      <c r="AA17" s="55"/>
-      <c r="AB17" s="56"/>
-      <c r="AC17" s="56"/>
-      <c r="AD17" s="57"/>
-      <c r="AG17" s="55"/>
-      <c r="AH17" s="56"/>
-      <c r="AI17" s="56"/>
-      <c r="AJ17" s="57"/>
-      <c r="AL17" s="61"/>
-      <c r="AM17" s="62"/>
-      <c r="AN17" s="62"/>
-      <c r="AO17" s="63"/>
-      <c r="AU17" s="61"/>
-      <c r="AV17" s="62"/>
-      <c r="AW17" s="62"/>
-      <c r="AX17" s="63"/>
-      <c r="BD17" s="61"/>
-      <c r="BE17" s="62"/>
-      <c r="BF17" s="62"/>
-      <c r="BG17" s="63"/>
-      <c r="BM17" s="55"/>
-      <c r="BN17" s="56"/>
-      <c r="BO17" s="56"/>
-      <c r="BP17" s="57"/>
-      <c r="BR17" s="55"/>
-      <c r="BS17" s="56"/>
-      <c r="BT17" s="56"/>
-      <c r="BU17" s="57"/>
-      <c r="BW17" s="55"/>
-      <c r="BX17" s="56"/>
-      <c r="BY17" s="56"/>
-      <c r="BZ17" s="57"/>
+      <c r="D17" s="82"/>
+      <c r="E17" s="83"/>
+      <c r="F17" s="83"/>
+      <c r="G17" s="84"/>
+      <c r="J17" s="82"/>
+      <c r="K17" s="83"/>
+      <c r="L17" s="83"/>
+      <c r="M17" s="84"/>
+      <c r="P17" s="76"/>
+      <c r="Q17" s="77"/>
+      <c r="R17" s="77"/>
+      <c r="S17" s="78"/>
+      <c r="V17" s="76"/>
+      <c r="W17" s="77"/>
+      <c r="X17" s="77"/>
+      <c r="Y17" s="78"/>
+      <c r="AA17" s="76"/>
+      <c r="AB17" s="77"/>
+      <c r="AC17" s="77"/>
+      <c r="AD17" s="78"/>
+      <c r="AG17" s="76"/>
+      <c r="AH17" s="77"/>
+      <c r="AI17" s="77"/>
+      <c r="AJ17" s="78"/>
+      <c r="AL17" s="82"/>
+      <c r="AM17" s="83"/>
+      <c r="AN17" s="83"/>
+      <c r="AO17" s="84"/>
+      <c r="AU17" s="82"/>
+      <c r="AV17" s="83"/>
+      <c r="AW17" s="83"/>
+      <c r="AX17" s="84"/>
+      <c r="BD17" s="82"/>
+      <c r="BE17" s="83"/>
+      <c r="BF17" s="83"/>
+      <c r="BG17" s="84"/>
+      <c r="BM17" s="76"/>
+      <c r="BN17" s="77"/>
+      <c r="BO17" s="77"/>
+      <c r="BP17" s="78"/>
+      <c r="BR17" s="76"/>
+      <c r="BS17" s="77"/>
+      <c r="BT17" s="77"/>
+      <c r="BU17" s="78"/>
+      <c r="BW17" s="76"/>
+      <c r="BX17" s="77"/>
+      <c r="BY17" s="77"/>
+      <c r="BZ17" s="78"/>
     </row>
     <row r="18" spans="1:78" ht="20.100000000000001" customHeight="1">
       <c r="I18" s="3"/>
@@ -4548,88 +4664,88 @@
       <c r="BE19" s="2"/>
     </row>
     <row r="20" spans="1:78" ht="20.100000000000001" customHeight="1">
-      <c r="G20" s="58" t="s">
+      <c r="G20" s="79" t="s">
         <v>57</v>
       </c>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="60"/>
-      <c r="M20" s="58" t="s">
+      <c r="H20" s="80"/>
+      <c r="I20" s="80"/>
+      <c r="J20" s="81"/>
+      <c r="M20" s="79" t="s">
         <v>81</v>
       </c>
-      <c r="N20" s="59"/>
-      <c r="O20" s="59"/>
-      <c r="P20" s="60"/>
-      <c r="AR20" s="52" t="s">
+      <c r="N20" s="80"/>
+      <c r="O20" s="80"/>
+      <c r="P20" s="81"/>
+      <c r="AR20" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="AS20" s="53"/>
-      <c r="AT20" s="53"/>
-      <c r="AU20" s="54"/>
-      <c r="AX20" s="52" t="s">
+      <c r="AS20" s="74"/>
+      <c r="AT20" s="74"/>
+      <c r="AU20" s="75"/>
+      <c r="AX20" s="73" t="s">
         <v>78</v>
       </c>
-      <c r="AY20" s="53"/>
-      <c r="AZ20" s="53"/>
-      <c r="BA20" s="54"/>
-      <c r="BD20" s="52" t="s">
+      <c r="AY20" s="74"/>
+      <c r="AZ20" s="74"/>
+      <c r="BA20" s="75"/>
+      <c r="BD20" s="73" t="s">
         <v>82</v>
       </c>
-      <c r="BE20" s="53"/>
-      <c r="BF20" s="53"/>
-      <c r="BG20" s="54"/>
-      <c r="BM20" s="52" t="s">
-        <v>138</v>
-      </c>
-      <c r="BN20" s="53"/>
-      <c r="BO20" s="53"/>
-      <c r="BP20" s="54"/>
-      <c r="BR20" s="52" t="s">
-        <v>136</v>
-      </c>
-      <c r="BS20" s="53"/>
-      <c r="BT20" s="53"/>
-      <c r="BU20" s="54"/>
-      <c r="BW20" s="52" t="s">
-        <v>138</v>
-      </c>
-      <c r="BX20" s="53"/>
-      <c r="BY20" s="53"/>
-      <c r="BZ20" s="54"/>
+      <c r="BE20" s="74"/>
+      <c r="BF20" s="74"/>
+      <c r="BG20" s="75"/>
+      <c r="BM20" s="73" t="s">
+        <v>137</v>
+      </c>
+      <c r="BN20" s="74"/>
+      <c r="BO20" s="74"/>
+      <c r="BP20" s="75"/>
+      <c r="BR20" s="73" t="s">
+        <v>135</v>
+      </c>
+      <c r="BS20" s="74"/>
+      <c r="BT20" s="74"/>
+      <c r="BU20" s="75"/>
+      <c r="BW20" s="73" t="s">
+        <v>137</v>
+      </c>
+      <c r="BX20" s="74"/>
+      <c r="BY20" s="74"/>
+      <c r="BZ20" s="75"/>
     </row>
     <row r="21" spans="1:78" ht="20.100000000000001" customHeight="1">
-      <c r="G21" s="61"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="62"/>
-      <c r="J21" s="63"/>
-      <c r="M21" s="61"/>
-      <c r="N21" s="62"/>
-      <c r="O21" s="62"/>
-      <c r="P21" s="63"/>
-      <c r="AR21" s="55"/>
-      <c r="AS21" s="56"/>
-      <c r="AT21" s="56"/>
-      <c r="AU21" s="57"/>
-      <c r="AX21" s="55"/>
-      <c r="AY21" s="56"/>
-      <c r="AZ21" s="56"/>
-      <c r="BA21" s="57"/>
-      <c r="BD21" s="55"/>
-      <c r="BE21" s="56"/>
-      <c r="BF21" s="56"/>
-      <c r="BG21" s="57"/>
-      <c r="BM21" s="55"/>
-      <c r="BN21" s="56"/>
-      <c r="BO21" s="56"/>
-      <c r="BP21" s="57"/>
-      <c r="BR21" s="55"/>
-      <c r="BS21" s="56"/>
-      <c r="BT21" s="56"/>
-      <c r="BU21" s="57"/>
-      <c r="BW21" s="55"/>
-      <c r="BX21" s="56"/>
-      <c r="BY21" s="56"/>
-      <c r="BZ21" s="57"/>
+      <c r="G21" s="82"/>
+      <c r="H21" s="83"/>
+      <c r="I21" s="83"/>
+      <c r="J21" s="84"/>
+      <c r="M21" s="82"/>
+      <c r="N21" s="83"/>
+      <c r="O21" s="83"/>
+      <c r="P21" s="84"/>
+      <c r="AR21" s="76"/>
+      <c r="AS21" s="77"/>
+      <c r="AT21" s="77"/>
+      <c r="AU21" s="78"/>
+      <c r="AX21" s="76"/>
+      <c r="AY21" s="77"/>
+      <c r="AZ21" s="77"/>
+      <c r="BA21" s="78"/>
+      <c r="BD21" s="76"/>
+      <c r="BE21" s="77"/>
+      <c r="BF21" s="77"/>
+      <c r="BG21" s="78"/>
+      <c r="BM21" s="76"/>
+      <c r="BN21" s="77"/>
+      <c r="BO21" s="77"/>
+      <c r="BP21" s="78"/>
+      <c r="BR21" s="76"/>
+      <c r="BS21" s="77"/>
+      <c r="BT21" s="77"/>
+      <c r="BU21" s="78"/>
+      <c r="BW21" s="76"/>
+      <c r="BX21" s="77"/>
+      <c r="BY21" s="77"/>
+      <c r="BZ21" s="78"/>
     </row>
     <row r="22" spans="1:78" ht="20.100000000000001" customHeight="1">
       <c r="AS22" s="1"/>
@@ -4640,38 +4756,38 @@
       <c r="AY23" s="2"/>
     </row>
     <row r="24" spans="1:78" ht="20.100000000000001" customHeight="1">
-      <c r="AR24" s="58" t="s">
+      <c r="AR24" s="79" t="s">
         <v>84</v>
       </c>
-      <c r="AS24" s="59"/>
-      <c r="AT24" s="59"/>
-      <c r="AU24" s="60"/>
-      <c r="AX24" s="52" t="s">
+      <c r="AS24" s="80"/>
+      <c r="AT24" s="80"/>
+      <c r="AU24" s="81"/>
+      <c r="AX24" s="73" t="s">
         <v>83</v>
       </c>
-      <c r="AY24" s="53"/>
-      <c r="AZ24" s="53"/>
-      <c r="BA24" s="54"/>
-      <c r="BR24" s="52" t="s">
-        <v>137</v>
-      </c>
-      <c r="BS24" s="53"/>
-      <c r="BT24" s="53"/>
-      <c r="BU24" s="54"/>
+      <c r="AY24" s="74"/>
+      <c r="AZ24" s="74"/>
+      <c r="BA24" s="75"/>
+      <c r="BR24" s="73" t="s">
+        <v>136</v>
+      </c>
+      <c r="BS24" s="74"/>
+      <c r="BT24" s="74"/>
+      <c r="BU24" s="75"/>
     </row>
     <row r="25" spans="1:78" ht="20.100000000000001" customHeight="1">
-      <c r="AR25" s="61"/>
-      <c r="AS25" s="62"/>
-      <c r="AT25" s="62"/>
-      <c r="AU25" s="63"/>
-      <c r="AX25" s="55"/>
-      <c r="AY25" s="56"/>
-      <c r="AZ25" s="56"/>
-      <c r="BA25" s="57"/>
-      <c r="BR25" s="55"/>
-      <c r="BS25" s="56"/>
-      <c r="BT25" s="56"/>
-      <c r="BU25" s="57"/>
+      <c r="AR25" s="82"/>
+      <c r="AS25" s="83"/>
+      <c r="AT25" s="83"/>
+      <c r="AU25" s="84"/>
+      <c r="AX25" s="76"/>
+      <c r="AY25" s="77"/>
+      <c r="AZ25" s="77"/>
+      <c r="BA25" s="78"/>
+      <c r="BR25" s="76"/>
+      <c r="BS25" s="77"/>
+      <c r="BT25" s="77"/>
+      <c r="BU25" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="38">
@@ -4721,7 +4837,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F59A2586-6ECE-4B56-BB06-F46D832F53C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:BF54"/>
   <sheetViews>
     <sheetView topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -4742,12 +4858,12 @@
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
       <c r="U4" s="4"/>
-      <c r="V4" s="58" t="s">
+      <c r="V4" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="W4" s="59"/>
-      <c r="X4" s="59"/>
-      <c r="Y4" s="60"/>
+      <c r="W4" s="80"/>
+      <c r="X4" s="80"/>
+      <c r="Y4" s="81"/>
       <c r="Z4" s="4"/>
       <c r="AA4" s="4"/>
       <c r="AB4" s="4"/>
@@ -4780,10 +4896,10 @@
       <c r="S5" s="4"/>
       <c r="T5" s="4"/>
       <c r="U5" s="4"/>
-      <c r="V5" s="61"/>
-      <c r="W5" s="62"/>
-      <c r="X5" s="62"/>
-      <c r="Y5" s="63"/>
+      <c r="V5" s="82"/>
+      <c r="W5" s="83"/>
+      <c r="X5" s="83"/>
+      <c r="Y5" s="84"/>
       <c r="Z5" s="4"/>
       <c r="AA5" s="4"/>
       <c r="AB5" s="4"/>
@@ -4887,12 +5003,12 @@
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
-      <c r="L8" s="58" t="s">
+      <c r="L8" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="M8" s="59"/>
-      <c r="N8" s="59"/>
-      <c r="O8" s="60"/>
+      <c r="M8" s="80"/>
+      <c r="N8" s="80"/>
+      <c r="O8" s="81"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
@@ -4901,29 +5017,29 @@
       <c r="Y8" s="4"/>
       <c r="Z8" s="4"/>
       <c r="AE8" s="4"/>
-      <c r="AF8" s="58" t="s">
+      <c r="AF8" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="AG8" s="59"/>
-      <c r="AH8" s="59"/>
-      <c r="AI8" s="60"/>
+      <c r="AG8" s="80"/>
+      <c r="AH8" s="80"/>
+      <c r="AI8" s="81"/>
       <c r="AJ8" s="4"/>
       <c r="AK8" s="4"/>
       <c r="AL8" s="4"/>
       <c r="AM8" s="4"/>
       <c r="AN8" s="4"/>
-      <c r="AQ8" s="58" t="s">
+      <c r="AQ8" s="79" t="s">
         <v>70</v>
       </c>
-      <c r="AR8" s="59"/>
-      <c r="AS8" s="59"/>
-      <c r="AT8" s="60"/>
-      <c r="AW8" s="58" t="s">
+      <c r="AR8" s="80"/>
+      <c r="AS8" s="80"/>
+      <c r="AT8" s="81"/>
+      <c r="AW8" s="79" t="s">
         <v>72</v>
       </c>
-      <c r="AX8" s="59"/>
-      <c r="AY8" s="59"/>
-      <c r="AZ8" s="60"/>
+      <c r="AX8" s="80"/>
+      <c r="AY8" s="80"/>
+      <c r="AZ8" s="81"/>
     </row>
     <row r="9" spans="2:52" ht="20.100000000000001" customHeight="1">
       <c r="C9" s="4"/>
@@ -4935,10 +5051,10 @@
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
-      <c r="L9" s="61"/>
-      <c r="M9" s="62"/>
-      <c r="N9" s="62"/>
-      <c r="O9" s="63"/>
+      <c r="L9" s="82"/>
+      <c r="M9" s="83"/>
+      <c r="N9" s="83"/>
+      <c r="O9" s="84"/>
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
@@ -4952,23 +5068,23 @@
       <c r="AC9" s="4"/>
       <c r="AD9" s="4"/>
       <c r="AE9" s="4"/>
-      <c r="AF9" s="61"/>
-      <c r="AG9" s="62"/>
-      <c r="AH9" s="62"/>
-      <c r="AI9" s="63"/>
+      <c r="AF9" s="82"/>
+      <c r="AG9" s="83"/>
+      <c r="AH9" s="83"/>
+      <c r="AI9" s="84"/>
       <c r="AJ9" s="4"/>
       <c r="AK9" s="4"/>
       <c r="AL9" s="4"/>
       <c r="AM9" s="4"/>
       <c r="AN9" s="4"/>
-      <c r="AQ9" s="61"/>
-      <c r="AR9" s="62"/>
-      <c r="AS9" s="62"/>
-      <c r="AT9" s="63"/>
-      <c r="AW9" s="61"/>
-      <c r="AX9" s="62"/>
-      <c r="AY9" s="62"/>
-      <c r="AZ9" s="63"/>
+      <c r="AQ9" s="82"/>
+      <c r="AR9" s="83"/>
+      <c r="AS9" s="83"/>
+      <c r="AT9" s="84"/>
+      <c r="AW9" s="82"/>
+      <c r="AX9" s="83"/>
+      <c r="AY9" s="83"/>
+      <c r="AZ9" s="84"/>
     </row>
     <row r="10" spans="2:52" ht="20.100000000000001" customHeight="1">
       <c r="C10" s="4"/>
@@ -5053,119 +5169,119 @@
       <c r="AR11" s="2"/>
     </row>
     <row r="12" spans="2:52" ht="20.100000000000001" customHeight="1">
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="60"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="81"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="52" t="s">
+      <c r="G12" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="54"/>
-      <c r="L12" s="52" t="s">
+      <c r="H12" s="74"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="75"/>
+      <c r="L12" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="M12" s="53"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="54"/>
+      <c r="M12" s="74"/>
+      <c r="N12" s="74"/>
+      <c r="O12" s="75"/>
       <c r="P12" s="4"/>
-      <c r="Q12" s="52" t="s">
+      <c r="Q12" s="73" t="s">
         <v>57</v>
       </c>
-      <c r="R12" s="53"/>
-      <c r="S12" s="53"/>
-      <c r="T12" s="54"/>
+      <c r="R12" s="74"/>
+      <c r="S12" s="74"/>
+      <c r="T12" s="75"/>
       <c r="U12" s="4"/>
-      <c r="V12" s="52" t="s">
+      <c r="V12" s="73" t="s">
         <v>58</v>
       </c>
-      <c r="W12" s="53"/>
-      <c r="X12" s="53"/>
-      <c r="Y12" s="54"/>
+      <c r="W12" s="74"/>
+      <c r="X12" s="74"/>
+      <c r="Y12" s="75"/>
       <c r="Z12" s="4"/>
-      <c r="AA12" s="58" t="s">
+      <c r="AA12" s="79" t="s">
         <v>59</v>
       </c>
-      <c r="AB12" s="59"/>
-      <c r="AC12" s="59"/>
-      <c r="AD12" s="60"/>
+      <c r="AB12" s="80"/>
+      <c r="AC12" s="80"/>
+      <c r="AD12" s="81"/>
       <c r="AE12" s="4"/>
-      <c r="AF12" s="58" t="s">
+      <c r="AF12" s="79" t="s">
         <v>60</v>
       </c>
-      <c r="AG12" s="59"/>
-      <c r="AH12" s="59"/>
-      <c r="AI12" s="60"/>
+      <c r="AG12" s="80"/>
+      <c r="AH12" s="80"/>
+      <c r="AI12" s="81"/>
       <c r="AJ12" s="4"/>
-      <c r="AK12" s="58" t="s">
+      <c r="AK12" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="AL12" s="59"/>
-      <c r="AM12" s="59"/>
-      <c r="AN12" s="60"/>
-      <c r="AQ12" s="58" t="s">
+      <c r="AL12" s="80"/>
+      <c r="AM12" s="80"/>
+      <c r="AN12" s="81"/>
+      <c r="AQ12" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="AR12" s="59"/>
-      <c r="AS12" s="59"/>
-      <c r="AT12" s="60"/>
-      <c r="AW12" s="58" t="s">
+      <c r="AR12" s="80"/>
+      <c r="AS12" s="80"/>
+      <c r="AT12" s="81"/>
+      <c r="AW12" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="AX12" s="59"/>
-      <c r="AY12" s="59"/>
-      <c r="AZ12" s="60"/>
+      <c r="AX12" s="80"/>
+      <c r="AY12" s="80"/>
+      <c r="AZ12" s="81"/>
     </row>
     <row r="13" spans="2:52" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="61"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="63"/>
+      <c r="B13" s="82"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="84"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="57"/>
-      <c r="L13" s="55"/>
-      <c r="M13" s="56"/>
-      <c r="N13" s="56"/>
-      <c r="O13" s="57"/>
-      <c r="Q13" s="55"/>
-      <c r="R13" s="56"/>
-      <c r="S13" s="56"/>
-      <c r="T13" s="57"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="77"/>
+      <c r="I13" s="77"/>
+      <c r="J13" s="78"/>
+      <c r="L13" s="76"/>
+      <c r="M13" s="77"/>
+      <c r="N13" s="77"/>
+      <c r="O13" s="78"/>
+      <c r="Q13" s="76"/>
+      <c r="R13" s="77"/>
+      <c r="S13" s="77"/>
+      <c r="T13" s="78"/>
       <c r="U13" s="4"/>
-      <c r="V13" s="55"/>
-      <c r="W13" s="56"/>
-      <c r="X13" s="56"/>
-      <c r="Y13" s="57"/>
+      <c r="V13" s="76"/>
+      <c r="W13" s="77"/>
+      <c r="X13" s="77"/>
+      <c r="Y13" s="78"/>
       <c r="Z13" s="4"/>
-      <c r="AA13" s="61"/>
-      <c r="AB13" s="62"/>
-      <c r="AC13" s="62"/>
-      <c r="AD13" s="63"/>
+      <c r="AA13" s="82"/>
+      <c r="AB13" s="83"/>
+      <c r="AC13" s="83"/>
+      <c r="AD13" s="84"/>
       <c r="AE13" s="4"/>
-      <c r="AF13" s="61"/>
-      <c r="AG13" s="62"/>
-      <c r="AH13" s="62"/>
-      <c r="AI13" s="63"/>
+      <c r="AF13" s="82"/>
+      <c r="AG13" s="83"/>
+      <c r="AH13" s="83"/>
+      <c r="AI13" s="84"/>
       <c r="AJ13" s="4"/>
-      <c r="AK13" s="61"/>
-      <c r="AL13" s="62"/>
-      <c r="AM13" s="62"/>
-      <c r="AN13" s="63"/>
-      <c r="AQ13" s="61"/>
-      <c r="AR13" s="62"/>
-      <c r="AS13" s="62"/>
-      <c r="AT13" s="63"/>
-      <c r="AW13" s="61"/>
-      <c r="AX13" s="62"/>
-      <c r="AY13" s="62"/>
-      <c r="AZ13" s="63"/>
+      <c r="AK13" s="82"/>
+      <c r="AL13" s="83"/>
+      <c r="AM13" s="83"/>
+      <c r="AN13" s="84"/>
+      <c r="AQ13" s="82"/>
+      <c r="AR13" s="83"/>
+      <c r="AS13" s="83"/>
+      <c r="AT13" s="84"/>
+      <c r="AW13" s="82"/>
+      <c r="AX13" s="83"/>
+      <c r="AY13" s="83"/>
+      <c r="AZ13" s="84"/>
     </row>
     <row r="14" spans="2:52" ht="20.100000000000001" customHeight="1">
       <c r="C14" s="1"/>
@@ -5231,25 +5347,25 @@
       <c r="AN15" s="4"/>
     </row>
     <row r="16" spans="2:52" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="52" t="s">
+      <c r="B16" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="54"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="75"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="52" t="s">
+      <c r="G16" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="H16" s="53"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="54"/>
-      <c r="L16" s="52" t="s">
+      <c r="H16" s="74"/>
+      <c r="I16" s="74"/>
+      <c r="J16" s="75"/>
+      <c r="L16" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="M16" s="53"/>
-      <c r="N16" s="53"/>
-      <c r="O16" s="54"/>
+      <c r="M16" s="74"/>
+      <c r="N16" s="74"/>
+      <c r="O16" s="75"/>
       <c r="P16" s="10"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="13"/>
@@ -5258,58 +5374,58 @@
       <c r="U16" s="3"/>
       <c r="V16" s="2"/>
       <c r="W16" s="12"/>
-      <c r="AA16" s="58" t="s">
+      <c r="AA16" s="79" t="s">
         <v>66</v>
       </c>
-      <c r="AB16" s="59"/>
-      <c r="AC16" s="59"/>
-      <c r="AD16" s="60"/>
+      <c r="AB16" s="80"/>
+      <c r="AC16" s="80"/>
+      <c r="AD16" s="81"/>
       <c r="AE16" s="4"/>
       <c r="AJ16" s="4"/>
-      <c r="AK16" s="58" t="s">
+      <c r="AK16" s="79" t="s">
         <v>67</v>
       </c>
-      <c r="AL16" s="59"/>
-      <c r="AM16" s="59"/>
-      <c r="AN16" s="60"/>
-      <c r="AW16" s="52" t="s">
+      <c r="AL16" s="80"/>
+      <c r="AM16" s="80"/>
+      <c r="AN16" s="81"/>
+      <c r="AW16" s="73" t="s">
         <v>74</v>
       </c>
-      <c r="AX16" s="53"/>
-      <c r="AY16" s="53"/>
-      <c r="AZ16" s="54"/>
+      <c r="AX16" s="74"/>
+      <c r="AY16" s="74"/>
+      <c r="AZ16" s="75"/>
     </row>
     <row r="17" spans="2:58" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="55"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="57"/>
+      <c r="B17" s="76"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="78"/>
       <c r="F17" s="4"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="57"/>
-      <c r="L17" s="55"/>
-      <c r="M17" s="56"/>
-      <c r="N17" s="56"/>
-      <c r="O17" s="57"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="77"/>
+      <c r="J17" s="78"/>
+      <c r="L17" s="76"/>
+      <c r="M17" s="77"/>
+      <c r="N17" s="77"/>
+      <c r="O17" s="78"/>
       <c r="R17" s="12"/>
       <c r="U17" s="4"/>
       <c r="W17" s="12"/>
-      <c r="AA17" s="61"/>
-      <c r="AB17" s="62"/>
-      <c r="AC17" s="62"/>
-      <c r="AD17" s="63"/>
+      <c r="AA17" s="82"/>
+      <c r="AB17" s="83"/>
+      <c r="AC17" s="83"/>
+      <c r="AD17" s="84"/>
       <c r="AE17" s="4"/>
       <c r="AJ17" s="4"/>
-      <c r="AK17" s="61"/>
-      <c r="AL17" s="62"/>
-      <c r="AM17" s="62"/>
-      <c r="AN17" s="63"/>
-      <c r="AW17" s="55"/>
-      <c r="AX17" s="56"/>
-      <c r="AY17" s="56"/>
-      <c r="AZ17" s="57"/>
+      <c r="AK17" s="82"/>
+      <c r="AL17" s="83"/>
+      <c r="AM17" s="83"/>
+      <c r="AN17" s="84"/>
+      <c r="AW17" s="76"/>
+      <c r="AX17" s="77"/>
+      <c r="AY17" s="77"/>
+      <c r="AZ17" s="78"/>
       <c r="BF17" s="4"/>
     </row>
     <row r="18" spans="2:58" ht="20.100000000000001" customHeight="1">
@@ -5672,7 +5788,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CBBF2EE-1C51-4D77-820C-77AE5C62248A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AE95"/>
   <sheetViews>
     <sheetView topLeftCell="A38" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -5690,18 +5806,18 @@
       <c r="AA2" s="4"/>
     </row>
     <row r="4" spans="2:31" ht="20.100000000000001" customHeight="1">
-      <c r="O4" s="58" t="s">
+      <c r="O4" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="60"/>
+      <c r="P4" s="80"/>
+      <c r="Q4" s="80"/>
+      <c r="R4" s="81"/>
     </row>
     <row r="5" spans="2:31" ht="20.100000000000001" customHeight="1">
-      <c r="O5" s="61"/>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="63"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="83"/>
+      <c r="R5" s="84"/>
     </row>
     <row r="6" spans="2:31" ht="20.100000000000001" customHeight="1">
       <c r="D6" s="3"/>
@@ -5740,82 +5856,82 @@
       <c r="AC7" s="5"/>
     </row>
     <row r="8" spans="2:31" ht="20.100000000000001" customHeight="1">
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="81"/>
+      <c r="G8" s="79" t="s">
         <v>105</v>
       </c>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="60"/>
-      <c r="G8" s="58" t="s">
+      <c r="H8" s="80"/>
+      <c r="I8" s="80"/>
+      <c r="J8" s="81"/>
+      <c r="L8" s="79" t="s">
+        <v>128</v>
+      </c>
+      <c r="M8" s="80"/>
+      <c r="N8" s="80"/>
+      <c r="O8" s="81"/>
+      <c r="R8" s="79" t="s">
         <v>106</v>
       </c>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="60"/>
-      <c r="L8" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="M8" s="59"/>
-      <c r="N8" s="59"/>
-      <c r="O8" s="60"/>
-      <c r="R8" s="58" t="s">
-        <v>107</v>
-      </c>
-      <c r="S8" s="59"/>
-      <c r="T8" s="59"/>
-      <c r="U8" s="60"/>
-      <c r="W8" s="58" t="s">
+      <c r="S8" s="80"/>
+      <c r="T8" s="80"/>
+      <c r="U8" s="81"/>
+      <c r="W8" s="79" t="s">
+        <v>124</v>
+      </c>
+      <c r="X8" s="80"/>
+      <c r="Y8" s="80"/>
+      <c r="Z8" s="81"/>
+      <c r="AB8" s="79" t="s">
         <v>125</v>
       </c>
-      <c r="X8" s="59"/>
-      <c r="Y8" s="59"/>
-      <c r="Z8" s="60"/>
-      <c r="AB8" s="58" t="s">
-        <v>126</v>
-      </c>
-      <c r="AC8" s="59"/>
-      <c r="AD8" s="59"/>
-      <c r="AE8" s="60"/>
+      <c r="AC8" s="80"/>
+      <c r="AD8" s="80"/>
+      <c r="AE8" s="81"/>
     </row>
     <row r="9" spans="2:31" ht="20.100000000000001" customHeight="1">
-      <c r="B9" s="61"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="63"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="63"/>
-      <c r="L9" s="61"/>
-      <c r="M9" s="62"/>
-      <c r="N9" s="62"/>
-      <c r="O9" s="63"/>
-      <c r="R9" s="61"/>
-      <c r="S9" s="62"/>
-      <c r="T9" s="62"/>
-      <c r="U9" s="63"/>
-      <c r="W9" s="61"/>
-      <c r="X9" s="62"/>
-      <c r="Y9" s="62"/>
-      <c r="Z9" s="63"/>
-      <c r="AB9" s="61"/>
-      <c r="AC9" s="62"/>
-      <c r="AD9" s="62"/>
-      <c r="AE9" s="63"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="84"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="84"/>
+      <c r="L9" s="82"/>
+      <c r="M9" s="83"/>
+      <c r="N9" s="83"/>
+      <c r="O9" s="84"/>
+      <c r="R9" s="82"/>
+      <c r="S9" s="83"/>
+      <c r="T9" s="83"/>
+      <c r="U9" s="84"/>
+      <c r="W9" s="82"/>
+      <c r="X9" s="83"/>
+      <c r="Y9" s="83"/>
+      <c r="Z9" s="84"/>
+      <c r="AB9" s="82"/>
+      <c r="AC9" s="83"/>
+      <c r="AD9" s="83"/>
+      <c r="AE9" s="84"/>
     </row>
     <row r="13" spans="2:31" ht="20.100000000000001" customHeight="1">
-      <c r="J13" s="58" t="s">
-        <v>105</v>
-      </c>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="60"/>
+      <c r="J13" s="79" t="s">
+        <v>104</v>
+      </c>
+      <c r="K13" s="80"/>
+      <c r="L13" s="80"/>
+      <c r="M13" s="81"/>
     </row>
     <row r="14" spans="2:31" ht="20.100000000000001" customHeight="1">
-      <c r="J14" s="61"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="62"/>
-      <c r="M14" s="63"/>
+      <c r="J14" s="82"/>
+      <c r="K14" s="83"/>
+      <c r="L14" s="83"/>
+      <c r="M14" s="84"/>
     </row>
     <row r="15" spans="2:31" ht="20.100000000000001" customHeight="1">
       <c r="D15" s="3"/>
@@ -5841,38 +5957,38 @@
       <c r="T16" s="10"/>
     </row>
     <row r="17" spans="2:24" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="54"/>
-      <c r="J17" s="52" t="s">
+      <c r="B17" s="73" t="s">
         <v>110</v>
       </c>
-      <c r="K17" s="53"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="54"/>
-      <c r="R17" s="52" t="s">
-        <v>113</v>
-      </c>
-      <c r="S17" s="53"/>
-      <c r="T17" s="53"/>
-      <c r="U17" s="54"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="75"/>
+      <c r="J17" s="73" t="s">
+        <v>109</v>
+      </c>
+      <c r="K17" s="74"/>
+      <c r="L17" s="74"/>
+      <c r="M17" s="75"/>
+      <c r="R17" s="73" t="s">
+        <v>112</v>
+      </c>
+      <c r="S17" s="74"/>
+      <c r="T17" s="74"/>
+      <c r="U17" s="75"/>
     </row>
     <row r="18" spans="2:24" ht="20.100000000000001" customHeight="1">
-      <c r="B18" s="55"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="57"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="57"/>
-      <c r="R18" s="55"/>
-      <c r="S18" s="56"/>
-      <c r="T18" s="56"/>
-      <c r="U18" s="57"/>
+      <c r="B18" s="76"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="78"/>
+      <c r="J18" s="76"/>
+      <c r="K18" s="77"/>
+      <c r="L18" s="77"/>
+      <c r="M18" s="78"/>
+      <c r="R18" s="76"/>
+      <c r="S18" s="77"/>
+      <c r="T18" s="77"/>
+      <c r="U18" s="78"/>
     </row>
     <row r="19" spans="2:24" ht="20.100000000000001" customHeight="1">
       <c r="C19" s="1"/>
@@ -5891,62 +6007,62 @@
       <c r="S20" s="2"/>
     </row>
     <row r="21" spans="2:24" ht="20.100000000000001" customHeight="1">
-      <c r="B21" s="52" t="s">
+      <c r="B21" s="73" t="s">
+        <v>122</v>
+      </c>
+      <c r="C21" s="74"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="75"/>
+      <c r="G21" s="73" t="s">
+        <v>126</v>
+      </c>
+      <c r="H21" s="74"/>
+      <c r="I21" s="74"/>
+      <c r="J21" s="75"/>
+      <c r="M21" s="73" t="s">
+        <v>127</v>
+      </c>
+      <c r="N21" s="74"/>
+      <c r="O21" s="74"/>
+      <c r="P21" s="75"/>
+      <c r="R21" s="73" t="s">
         <v>123</v>
       </c>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="54"/>
-      <c r="G21" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="H21" s="53"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="54"/>
-      <c r="M21" s="52" t="s">
-        <v>128</v>
-      </c>
-      <c r="N21" s="53"/>
-      <c r="O21" s="53"/>
-      <c r="P21" s="54"/>
-      <c r="R21" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="S21" s="53"/>
-      <c r="T21" s="53"/>
-      <c r="U21" s="54"/>
+      <c r="S21" s="74"/>
+      <c r="T21" s="74"/>
+      <c r="U21" s="75"/>
     </row>
     <row r="22" spans="2:24" ht="20.100000000000001" customHeight="1">
-      <c r="B22" s="55"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="57"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="57"/>
-      <c r="M22" s="55"/>
-      <c r="N22" s="56"/>
-      <c r="O22" s="56"/>
-      <c r="P22" s="57"/>
-      <c r="R22" s="55"/>
-      <c r="S22" s="56"/>
-      <c r="T22" s="56"/>
-      <c r="U22" s="57"/>
+      <c r="B22" s="76"/>
+      <c r="C22" s="77"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="78"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="77"/>
+      <c r="I22" s="77"/>
+      <c r="J22" s="78"/>
+      <c r="M22" s="76"/>
+      <c r="N22" s="77"/>
+      <c r="O22" s="77"/>
+      <c r="P22" s="78"/>
+      <c r="R22" s="76"/>
+      <c r="S22" s="77"/>
+      <c r="T22" s="77"/>
+      <c r="U22" s="78"/>
     </row>
     <row r="27" spans="2:24" ht="20.100000000000001" customHeight="1">
-      <c r="L27" s="58" t="s">
-        <v>106</v>
-      </c>
-      <c r="M27" s="59"/>
-      <c r="N27" s="59"/>
-      <c r="O27" s="60"/>
+      <c r="L27" s="79" t="s">
+        <v>105</v>
+      </c>
+      <c r="M27" s="80"/>
+      <c r="N27" s="80"/>
+      <c r="O27" s="81"/>
     </row>
     <row r="28" spans="2:24" ht="20.100000000000001" customHeight="1">
-      <c r="L28" s="61"/>
-      <c r="M28" s="62"/>
-      <c r="N28" s="62"/>
-      <c r="O28" s="63"/>
+      <c r="L28" s="82"/>
+      <c r="M28" s="83"/>
+      <c r="N28" s="83"/>
+      <c r="O28" s="84"/>
     </row>
     <row r="29" spans="2:24" ht="20.100000000000001" customHeight="1">
       <c r="D29" s="3"/>
@@ -5975,38 +6091,38 @@
       <c r="V30" s="2"/>
     </row>
     <row r="31" spans="2:24" ht="20.100000000000001" customHeight="1">
-      <c r="B31" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="54"/>
-      <c r="J31" s="52" t="s">
+      <c r="B31" s="73" t="s">
         <v>110</v>
       </c>
-      <c r="K31" s="53"/>
-      <c r="L31" s="53"/>
-      <c r="M31" s="54"/>
-      <c r="U31" s="52" t="s">
-        <v>113</v>
-      </c>
-      <c r="V31" s="53"/>
-      <c r="W31" s="53"/>
-      <c r="X31" s="54"/>
+      <c r="C31" s="74"/>
+      <c r="D31" s="74"/>
+      <c r="E31" s="75"/>
+      <c r="J31" s="73" t="s">
+        <v>109</v>
+      </c>
+      <c r="K31" s="74"/>
+      <c r="L31" s="74"/>
+      <c r="M31" s="75"/>
+      <c r="U31" s="73" t="s">
+        <v>112</v>
+      </c>
+      <c r="V31" s="74"/>
+      <c r="W31" s="74"/>
+      <c r="X31" s="75"/>
     </row>
     <row r="32" spans="2:24" ht="20.100000000000001" customHeight="1">
-      <c r="B32" s="55"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="57"/>
-      <c r="J32" s="55"/>
-      <c r="K32" s="56"/>
-      <c r="L32" s="56"/>
-      <c r="M32" s="57"/>
-      <c r="U32" s="55"/>
-      <c r="V32" s="56"/>
-      <c r="W32" s="56"/>
-      <c r="X32" s="57"/>
+      <c r="B32" s="76"/>
+      <c r="C32" s="77"/>
+      <c r="D32" s="77"/>
+      <c r="E32" s="78"/>
+      <c r="J32" s="76"/>
+      <c r="K32" s="77"/>
+      <c r="L32" s="77"/>
+      <c r="M32" s="78"/>
+      <c r="U32" s="76"/>
+      <c r="V32" s="77"/>
+      <c r="W32" s="77"/>
+      <c r="X32" s="78"/>
     </row>
     <row r="33" spans="2:28" ht="20.100000000000001" customHeight="1">
       <c r="C33" s="1"/>
@@ -6031,66 +6147,66 @@
       <c r="Y34" s="5"/>
     </row>
     <row r="35" spans="2:28" ht="20.100000000000001" customHeight="1">
-      <c r="B35" s="58" t="s">
+      <c r="B35" s="79" t="s">
+        <v>119</v>
+      </c>
+      <c r="C35" s="80"/>
+      <c r="D35" s="80"/>
+      <c r="E35" s="81"/>
+      <c r="G35" s="79" t="s">
+        <v>117</v>
+      </c>
+      <c r="H35" s="80"/>
+      <c r="I35" s="80"/>
+      <c r="J35" s="81"/>
+      <c r="M35" s="79" t="s">
+        <v>118</v>
+      </c>
+      <c r="N35" s="80"/>
+      <c r="O35" s="80"/>
+      <c r="P35" s="81"/>
+      <c r="R35" s="79" t="s">
         <v>120</v>
       </c>
-      <c r="C35" s="59"/>
-      <c r="D35" s="59"/>
-      <c r="E35" s="60"/>
-      <c r="G35" s="58" t="s">
-        <v>118</v>
-      </c>
-      <c r="H35" s="59"/>
-      <c r="I35" s="59"/>
-      <c r="J35" s="60"/>
-      <c r="M35" s="58" t="s">
-        <v>119</v>
-      </c>
-      <c r="N35" s="59"/>
-      <c r="O35" s="59"/>
-      <c r="P35" s="60"/>
-      <c r="R35" s="58" t="s">
+      <c r="S35" s="80"/>
+      <c r="T35" s="80"/>
+      <c r="U35" s="81"/>
+      <c r="X35" s="73" t="s">
         <v>121</v>
       </c>
-      <c r="S35" s="59"/>
-      <c r="T35" s="59"/>
-      <c r="U35" s="60"/>
-      <c r="X35" s="52" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y35" s="53"/>
-      <c r="Z35" s="53"/>
-      <c r="AA35" s="54"/>
+      <c r="Y35" s="74"/>
+      <c r="Z35" s="74"/>
+      <c r="AA35" s="75"/>
     </row>
     <row r="36" spans="2:28" ht="20.100000000000001" customHeight="1">
-      <c r="B36" s="61"/>
-      <c r="C36" s="62"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="63"/>
-      <c r="G36" s="61"/>
-      <c r="H36" s="62"/>
-      <c r="I36" s="62"/>
-      <c r="J36" s="63"/>
-      <c r="M36" s="61"/>
-      <c r="N36" s="62"/>
-      <c r="O36" s="62"/>
-      <c r="P36" s="63"/>
-      <c r="R36" s="61"/>
-      <c r="S36" s="62"/>
-      <c r="T36" s="62"/>
-      <c r="U36" s="63"/>
-      <c r="X36" s="55"/>
-      <c r="Y36" s="56"/>
-      <c r="Z36" s="56"/>
-      <c r="AA36" s="57"/>
+      <c r="B36" s="82"/>
+      <c r="C36" s="83"/>
+      <c r="D36" s="83"/>
+      <c r="E36" s="84"/>
+      <c r="G36" s="82"/>
+      <c r="H36" s="83"/>
+      <c r="I36" s="83"/>
+      <c r="J36" s="84"/>
+      <c r="M36" s="82"/>
+      <c r="N36" s="83"/>
+      <c r="O36" s="83"/>
+      <c r="P36" s="84"/>
+      <c r="R36" s="82"/>
+      <c r="S36" s="83"/>
+      <c r="T36" s="83"/>
+      <c r="U36" s="84"/>
+      <c r="X36" s="76"/>
+      <c r="Y36" s="77"/>
+      <c r="Z36" s="77"/>
+      <c r="AA36" s="78"/>
     </row>
     <row r="41" spans="2:28" ht="20.100000000000001" customHeight="1">
-      <c r="G41" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="H41" s="59"/>
-      <c r="I41" s="59"/>
-      <c r="J41" s="60"/>
+      <c r="G41" s="79" t="s">
+        <v>128</v>
+      </c>
+      <c r="H41" s="80"/>
+      <c r="I41" s="80"/>
+      <c r="J41" s="81"/>
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
       <c r="S41" s="4"/>
@@ -6103,10 +6219,10 @@
       <c r="Z41" s="4"/>
     </row>
     <row r="42" spans="2:28" ht="20.100000000000001" customHeight="1">
-      <c r="G42" s="61"/>
-      <c r="H42" s="62"/>
-      <c r="I42" s="62"/>
-      <c r="J42" s="63"/>
+      <c r="G42" s="82"/>
+      <c r="H42" s="83"/>
+      <c r="I42" s="83"/>
+      <c r="J42" s="84"/>
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
       <c r="S42" s="4"/>
@@ -6136,38 +6252,38 @@
       <c r="M44" s="5"/>
     </row>
     <row r="45" spans="2:28" ht="20.100000000000001" customHeight="1">
-      <c r="B45" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="C45" s="53"/>
-      <c r="D45" s="53"/>
-      <c r="E45" s="54"/>
-      <c r="G45" s="52" t="s">
+      <c r="B45" s="73" t="s">
         <v>110</v>
       </c>
-      <c r="H45" s="53"/>
-      <c r="I45" s="53"/>
-      <c r="J45" s="54"/>
-      <c r="L45" s="52" t="s">
-        <v>113</v>
-      </c>
-      <c r="M45" s="53"/>
-      <c r="N45" s="53"/>
-      <c r="O45" s="54"/>
+      <c r="C45" s="74"/>
+      <c r="D45" s="74"/>
+      <c r="E45" s="75"/>
+      <c r="G45" s="73" t="s">
+        <v>109</v>
+      </c>
+      <c r="H45" s="74"/>
+      <c r="I45" s="74"/>
+      <c r="J45" s="75"/>
+      <c r="L45" s="73" t="s">
+        <v>112</v>
+      </c>
+      <c r="M45" s="74"/>
+      <c r="N45" s="74"/>
+      <c r="O45" s="75"/>
     </row>
     <row r="46" spans="2:28" ht="20.100000000000001" customHeight="1">
-      <c r="B46" s="55"/>
-      <c r="C46" s="56"/>
-      <c r="D46" s="56"/>
-      <c r="E46" s="57"/>
-      <c r="G46" s="55"/>
-      <c r="H46" s="56"/>
-      <c r="I46" s="56"/>
-      <c r="J46" s="57"/>
-      <c r="L46" s="55"/>
-      <c r="M46" s="56"/>
-      <c r="N46" s="56"/>
-      <c r="O46" s="57"/>
+      <c r="B46" s="76"/>
+      <c r="C46" s="77"/>
+      <c r="D46" s="77"/>
+      <c r="E46" s="78"/>
+      <c r="G46" s="76"/>
+      <c r="H46" s="77"/>
+      <c r="I46" s="77"/>
+      <c r="J46" s="78"/>
+      <c r="L46" s="76"/>
+      <c r="M46" s="77"/>
+      <c r="N46" s="77"/>
+      <c r="O46" s="78"/>
       <c r="AB46" s="4"/>
     </row>
     <row r="47" spans="2:28" ht="20.100000000000001" customHeight="1">
@@ -6190,54 +6306,54 @@
       <c r="AB48" s="4"/>
     </row>
     <row r="49" spans="2:23" ht="20.100000000000001" customHeight="1">
-      <c r="B49" s="52" t="s">
+      <c r="B49" s="73" t="s">
+        <v>115</v>
+      </c>
+      <c r="C49" s="74"/>
+      <c r="D49" s="74"/>
+      <c r="E49" s="75"/>
+      <c r="G49" s="73" t="s">
+        <v>114</v>
+      </c>
+      <c r="H49" s="74"/>
+      <c r="I49" s="74"/>
+      <c r="J49" s="75"/>
+      <c r="L49" s="73" t="s">
         <v>116</v>
       </c>
-      <c r="C49" s="53"/>
-      <c r="D49" s="53"/>
-      <c r="E49" s="54"/>
-      <c r="G49" s="52" t="s">
-        <v>115</v>
-      </c>
-      <c r="H49" s="53"/>
-      <c r="I49" s="53"/>
-      <c r="J49" s="54"/>
-      <c r="L49" s="52" t="s">
-        <v>117</v>
-      </c>
-      <c r="M49" s="53"/>
-      <c r="N49" s="53"/>
-      <c r="O49" s="54"/>
+      <c r="M49" s="74"/>
+      <c r="N49" s="74"/>
+      <c r="O49" s="75"/>
     </row>
     <row r="50" spans="2:23" ht="20.100000000000001" customHeight="1">
-      <c r="B50" s="55"/>
-      <c r="C50" s="56"/>
-      <c r="D50" s="56"/>
-      <c r="E50" s="57"/>
-      <c r="G50" s="55"/>
-      <c r="H50" s="56"/>
-      <c r="I50" s="56"/>
-      <c r="J50" s="57"/>
-      <c r="L50" s="55"/>
-      <c r="M50" s="56"/>
-      <c r="N50" s="56"/>
-      <c r="O50" s="57"/>
+      <c r="B50" s="76"/>
+      <c r="C50" s="77"/>
+      <c r="D50" s="77"/>
+      <c r="E50" s="78"/>
+      <c r="G50" s="76"/>
+      <c r="H50" s="77"/>
+      <c r="I50" s="77"/>
+      <c r="J50" s="78"/>
+      <c r="L50" s="76"/>
+      <c r="M50" s="77"/>
+      <c r="N50" s="77"/>
+      <c r="O50" s="78"/>
     </row>
     <row r="55" spans="2:23" ht="20.100000000000001" customHeight="1">
-      <c r="J55" s="58" t="s">
-        <v>107</v>
-      </c>
-      <c r="K55" s="59"/>
-      <c r="L55" s="59"/>
-      <c r="M55" s="60"/>
+      <c r="J55" s="79" t="s">
+        <v>106</v>
+      </c>
+      <c r="K55" s="80"/>
+      <c r="L55" s="80"/>
+      <c r="M55" s="81"/>
       <c r="T55" s="4"/>
       <c r="U55" s="4"/>
     </row>
     <row r="56" spans="2:23" ht="20.100000000000001" customHeight="1">
-      <c r="J56" s="61"/>
-      <c r="K56" s="62"/>
-      <c r="L56" s="62"/>
-      <c r="M56" s="63"/>
+      <c r="J56" s="82"/>
+      <c r="K56" s="83"/>
+      <c r="L56" s="83"/>
+      <c r="M56" s="84"/>
       <c r="T56" s="4"/>
     </row>
     <row r="57" spans="2:23" ht="20.100000000000001" customHeight="1">
@@ -6267,42 +6383,42 @@
       <c r="T58" s="4"/>
     </row>
     <row r="59" spans="2:23" ht="20.100000000000001" customHeight="1">
-      <c r="B59" s="58" t="s">
-        <v>113</v>
-      </c>
-      <c r="C59" s="59"/>
-      <c r="D59" s="59"/>
-      <c r="E59" s="60"/>
+      <c r="B59" s="79" t="s">
+        <v>112</v>
+      </c>
+      <c r="C59" s="80"/>
+      <c r="D59" s="80"/>
+      <c r="E59" s="81"/>
       <c r="I59" s="4"/>
-      <c r="J59" s="58" t="s">
+      <c r="J59" s="79" t="s">
+        <v>109</v>
+      </c>
+      <c r="K59" s="80"/>
+      <c r="L59" s="80"/>
+      <c r="M59" s="81"/>
+      <c r="R59" s="79" t="s">
         <v>110</v>
       </c>
-      <c r="K59" s="59"/>
-      <c r="L59" s="59"/>
-      <c r="M59" s="60"/>
-      <c r="R59" s="58" t="s">
-        <v>111</v>
-      </c>
-      <c r="S59" s="59"/>
-      <c r="T59" s="59"/>
-      <c r="U59" s="60"/>
+      <c r="S59" s="80"/>
+      <c r="T59" s="80"/>
+      <c r="U59" s="81"/>
     </row>
     <row r="60" spans="2:23" ht="20.100000000000001" customHeight="1">
-      <c r="B60" s="61"/>
-      <c r="C60" s="62"/>
-      <c r="D60" s="62"/>
-      <c r="E60" s="63"/>
+      <c r="B60" s="82"/>
+      <c r="C60" s="83"/>
+      <c r="D60" s="83"/>
+      <c r="E60" s="84"/>
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
-      <c r="J60" s="61"/>
-      <c r="K60" s="62"/>
-      <c r="L60" s="62"/>
-      <c r="M60" s="63"/>
-      <c r="R60" s="61"/>
-      <c r="S60" s="62"/>
-      <c r="T60" s="62"/>
-      <c r="U60" s="63"/>
+      <c r="J60" s="82"/>
+      <c r="K60" s="83"/>
+      <c r="L60" s="83"/>
+      <c r="M60" s="84"/>
+      <c r="R60" s="82"/>
+      <c r="S60" s="83"/>
+      <c r="T60" s="83"/>
+      <c r="U60" s="84"/>
     </row>
     <row r="61" spans="2:23" ht="20.100000000000001" customHeight="1">
       <c r="C61" s="1"/>
@@ -6321,64 +6437,64 @@
       <c r="S62" s="2"/>
     </row>
     <row r="63" spans="2:23" ht="20.100000000000001" customHeight="1">
-      <c r="B63" s="58" t="s">
-        <v>114</v>
-      </c>
-      <c r="C63" s="59"/>
-      <c r="D63" s="59"/>
-      <c r="E63" s="60"/>
+      <c r="B63" s="79" t="s">
+        <v>113</v>
+      </c>
+      <c r="C63" s="80"/>
+      <c r="D63" s="80"/>
+      <c r="E63" s="81"/>
       <c r="F63" s="4"/>
-      <c r="G63" s="52" t="s">
+      <c r="G63" s="73" t="s">
+        <v>107</v>
+      </c>
+      <c r="H63" s="74"/>
+      <c r="I63" s="74"/>
+      <c r="J63" s="75"/>
+      <c r="M63" s="73" t="s">
         <v>108</v>
       </c>
-      <c r="H63" s="53"/>
-      <c r="I63" s="53"/>
-      <c r="J63" s="54"/>
-      <c r="M63" s="52" t="s">
-        <v>109</v>
-      </c>
-      <c r="N63" s="53"/>
-      <c r="O63" s="53"/>
-      <c r="P63" s="54"/>
-      <c r="R63" s="58" t="s">
-        <v>112</v>
-      </c>
-      <c r="S63" s="59"/>
-      <c r="T63" s="59"/>
-      <c r="U63" s="60"/>
+      <c r="N63" s="74"/>
+      <c r="O63" s="74"/>
+      <c r="P63" s="75"/>
+      <c r="R63" s="79" t="s">
+        <v>111</v>
+      </c>
+      <c r="S63" s="80"/>
+      <c r="T63" s="80"/>
+      <c r="U63" s="81"/>
     </row>
     <row r="64" spans="2:23" ht="20.100000000000001" customHeight="1">
-      <c r="B64" s="61"/>
-      <c r="C64" s="62"/>
-      <c r="D64" s="62"/>
-      <c r="E64" s="63"/>
-      <c r="G64" s="55"/>
-      <c r="H64" s="56"/>
-      <c r="I64" s="56"/>
-      <c r="J64" s="57"/>
-      <c r="M64" s="55"/>
-      <c r="N64" s="56"/>
-      <c r="O64" s="56"/>
-      <c r="P64" s="57"/>
-      <c r="R64" s="61"/>
-      <c r="S64" s="62"/>
-      <c r="T64" s="62"/>
-      <c r="U64" s="63"/>
+      <c r="B64" s="82"/>
+      <c r="C64" s="83"/>
+      <c r="D64" s="83"/>
+      <c r="E64" s="84"/>
+      <c r="G64" s="76"/>
+      <c r="H64" s="77"/>
+      <c r="I64" s="77"/>
+      <c r="J64" s="78"/>
+      <c r="M64" s="76"/>
+      <c r="N64" s="77"/>
+      <c r="O64" s="77"/>
+      <c r="P64" s="78"/>
+      <c r="R64" s="82"/>
+      <c r="S64" s="83"/>
+      <c r="T64" s="83"/>
+      <c r="U64" s="84"/>
       <c r="W64" s="4"/>
     </row>
     <row r="68" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="G68" s="58" t="s">
-        <v>125</v>
-      </c>
-      <c r="H68" s="59"/>
-      <c r="I68" s="59"/>
-      <c r="J68" s="60"/>
+      <c r="G68" s="79" t="s">
+        <v>124</v>
+      </c>
+      <c r="H68" s="80"/>
+      <c r="I68" s="80"/>
+      <c r="J68" s="81"/>
     </row>
     <row r="69" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="G69" s="61"/>
-      <c r="H69" s="62"/>
-      <c r="I69" s="62"/>
-      <c r="J69" s="63"/>
+      <c r="G69" s="82"/>
+      <c r="H69" s="83"/>
+      <c r="I69" s="83"/>
+      <c r="J69" s="84"/>
     </row>
     <row r="70" spans="2:15" ht="20.100000000000001" customHeight="1">
       <c r="D70" s="3"/>
@@ -6398,40 +6514,40 @@
       <c r="M71" s="5"/>
     </row>
     <row r="72" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B72" s="58" t="s">
-        <v>113</v>
-      </c>
-      <c r="C72" s="59"/>
-      <c r="D72" s="59"/>
-      <c r="E72" s="60"/>
-      <c r="G72" s="58" t="s">
+      <c r="B72" s="79" t="s">
+        <v>112</v>
+      </c>
+      <c r="C72" s="80"/>
+      <c r="D72" s="80"/>
+      <c r="E72" s="81"/>
+      <c r="G72" s="79" t="s">
+        <v>109</v>
+      </c>
+      <c r="H72" s="80"/>
+      <c r="I72" s="80"/>
+      <c r="J72" s="81"/>
+      <c r="K72" s="4"/>
+      <c r="L72" s="79" t="s">
         <v>110</v>
       </c>
-      <c r="H72" s="59"/>
-      <c r="I72" s="59"/>
-      <c r="J72" s="60"/>
-      <c r="K72" s="4"/>
-      <c r="L72" s="58" t="s">
-        <v>111</v>
-      </c>
-      <c r="M72" s="59"/>
-      <c r="N72" s="59"/>
-      <c r="O72" s="60"/>
+      <c r="M72" s="80"/>
+      <c r="N72" s="80"/>
+      <c r="O72" s="81"/>
     </row>
     <row r="73" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B73" s="61"/>
-      <c r="C73" s="62"/>
-      <c r="D73" s="62"/>
-      <c r="E73" s="63"/>
-      <c r="G73" s="61"/>
-      <c r="H73" s="62"/>
-      <c r="I73" s="62"/>
-      <c r="J73" s="63"/>
+      <c r="B73" s="82"/>
+      <c r="C73" s="83"/>
+      <c r="D73" s="83"/>
+      <c r="E73" s="84"/>
+      <c r="G73" s="82"/>
+      <c r="H73" s="83"/>
+      <c r="I73" s="83"/>
+      <c r="J73" s="84"/>
       <c r="K73" s="4"/>
-      <c r="L73" s="61"/>
-      <c r="M73" s="62"/>
-      <c r="N73" s="62"/>
-      <c r="O73" s="63"/>
+      <c r="L73" s="82"/>
+      <c r="M73" s="83"/>
+      <c r="N73" s="83"/>
+      <c r="O73" s="84"/>
     </row>
     <row r="74" spans="2:15" ht="20.100000000000001" customHeight="1">
       <c r="C74" s="1"/>
@@ -6444,52 +6560,52 @@
       <c r="M75" s="2"/>
     </row>
     <row r="76" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B76" s="58" t="s">
-        <v>141</v>
-      </c>
-      <c r="C76" s="59"/>
-      <c r="D76" s="59"/>
-      <c r="E76" s="60"/>
-      <c r="G76" s="52" t="s">
+      <c r="B76" s="79" t="s">
         <v>140</v>
       </c>
-      <c r="H76" s="53"/>
-      <c r="I76" s="53"/>
-      <c r="J76" s="54"/>
-      <c r="L76" s="58" t="s">
+      <c r="C76" s="80"/>
+      <c r="D76" s="80"/>
+      <c r="E76" s="81"/>
+      <c r="G76" s="73" t="s">
         <v>139</v>
       </c>
-      <c r="M76" s="59"/>
-      <c r="N76" s="59"/>
-      <c r="O76" s="60"/>
+      <c r="H76" s="74"/>
+      <c r="I76" s="74"/>
+      <c r="J76" s="75"/>
+      <c r="L76" s="79" t="s">
+        <v>138</v>
+      </c>
+      <c r="M76" s="80"/>
+      <c r="N76" s="80"/>
+      <c r="O76" s="81"/>
     </row>
     <row r="77" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B77" s="61"/>
-      <c r="C77" s="62"/>
-      <c r="D77" s="62"/>
-      <c r="E77" s="63"/>
-      <c r="G77" s="55"/>
-      <c r="H77" s="56"/>
-      <c r="I77" s="56"/>
-      <c r="J77" s="57"/>
-      <c r="L77" s="61"/>
-      <c r="M77" s="62"/>
-      <c r="N77" s="62"/>
-      <c r="O77" s="63"/>
+      <c r="B77" s="82"/>
+      <c r="C77" s="83"/>
+      <c r="D77" s="83"/>
+      <c r="E77" s="84"/>
+      <c r="G77" s="76"/>
+      <c r="H77" s="77"/>
+      <c r="I77" s="77"/>
+      <c r="J77" s="78"/>
+      <c r="L77" s="82"/>
+      <c r="M77" s="83"/>
+      <c r="N77" s="83"/>
+      <c r="O77" s="84"/>
     </row>
     <row r="82" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B82" s="58" t="s">
-        <v>126</v>
-      </c>
-      <c r="C82" s="59"/>
-      <c r="D82" s="59"/>
-      <c r="E82" s="60"/>
+      <c r="B82" s="79" t="s">
+        <v>125</v>
+      </c>
+      <c r="C82" s="80"/>
+      <c r="D82" s="80"/>
+      <c r="E82" s="81"/>
     </row>
     <row r="83" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B83" s="61"/>
-      <c r="C83" s="62"/>
-      <c r="D83" s="62"/>
-      <c r="E83" s="63"/>
+      <c r="B83" s="82"/>
+      <c r="C83" s="83"/>
+      <c r="D83" s="83"/>
+      <c r="E83" s="84"/>
     </row>
     <row r="84" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="C84" s="1"/>
@@ -6498,18 +6614,18 @@
       <c r="C85" s="2"/>
     </row>
     <row r="86" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B86" s="58" t="s">
-        <v>111</v>
-      </c>
-      <c r="C86" s="59"/>
-      <c r="D86" s="59"/>
-      <c r="E86" s="60"/>
+      <c r="B86" s="79" t="s">
+        <v>110</v>
+      </c>
+      <c r="C86" s="80"/>
+      <c r="D86" s="80"/>
+      <c r="E86" s="81"/>
     </row>
     <row r="87" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B87" s="61"/>
-      <c r="C87" s="62"/>
-      <c r="D87" s="62"/>
-      <c r="E87" s="63"/>
+      <c r="B87" s="82"/>
+      <c r="C87" s="83"/>
+      <c r="D87" s="83"/>
+      <c r="E87" s="84"/>
     </row>
     <row r="88" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="C88" s="1"/>
@@ -6518,18 +6634,18 @@
       <c r="C89" s="2"/>
     </row>
     <row r="90" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B90" s="58" t="s">
-        <v>142</v>
-      </c>
-      <c r="C90" s="59"/>
-      <c r="D90" s="59"/>
-      <c r="E90" s="60"/>
+      <c r="B90" s="79" t="s">
+        <v>141</v>
+      </c>
+      <c r="C90" s="80"/>
+      <c r="D90" s="80"/>
+      <c r="E90" s="81"/>
     </row>
     <row r="91" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B91" s="61"/>
-      <c r="C91" s="62"/>
-      <c r="D91" s="62"/>
-      <c r="E91" s="63"/>
+      <c r="B91" s="82"/>
+      <c r="C91" s="83"/>
+      <c r="D91" s="83"/>
+      <c r="E91" s="84"/>
     </row>
     <row r="94" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="K94" s="4"/>
@@ -6539,6 +6655,8 @@
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="G8:J9"/>
+    <mergeCell ref="L8:O9"/>
     <mergeCell ref="R63:U64"/>
     <mergeCell ref="W8:Z9"/>
     <mergeCell ref="O4:R5"/>
@@ -6554,13 +6672,11 @@
     <mergeCell ref="R17:U18"/>
     <mergeCell ref="M21:P22"/>
     <mergeCell ref="G21:J22"/>
-    <mergeCell ref="G8:J9"/>
+    <mergeCell ref="B35:E36"/>
     <mergeCell ref="B31:E32"/>
     <mergeCell ref="J31:M32"/>
     <mergeCell ref="B21:E22"/>
     <mergeCell ref="R21:U22"/>
-    <mergeCell ref="L8:O9"/>
-    <mergeCell ref="M35:P36"/>
     <mergeCell ref="L72:O73"/>
     <mergeCell ref="B59:E60"/>
     <mergeCell ref="B63:E64"/>
@@ -6572,7 +6688,6 @@
     <mergeCell ref="G63:J64"/>
     <mergeCell ref="M63:P64"/>
     <mergeCell ref="J59:M60"/>
-    <mergeCell ref="B35:E36"/>
     <mergeCell ref="R59:U60"/>
     <mergeCell ref="R8:U9"/>
     <mergeCell ref="AB8:AE9"/>
@@ -6588,6 +6703,7 @@
     <mergeCell ref="G72:J73"/>
     <mergeCell ref="B17:E18"/>
     <mergeCell ref="J17:M18"/>
+    <mergeCell ref="M35:P36"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6596,7 +6712,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{532FD807-9722-4B30-A8A5-56D1A1A6921D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6606,18 +6722,18 @@
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="2:15">
-      <c r="G1" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="60"/>
+      <c r="G1" s="79" t="s">
+        <v>128</v>
+      </c>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="81"/>
     </row>
     <row r="2" spans="2:15">
-      <c r="G2" s="61"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="63"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="84"/>
     </row>
     <row r="3" spans="2:15">
       <c r="D3" s="3"/>
@@ -6637,38 +6753,38 @@
       <c r="M4" s="5"/>
     </row>
     <row r="5" spans="2:15">
-      <c r="B5" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="54"/>
-      <c r="G5" s="52" t="s">
+      <c r="B5" s="73" t="s">
         <v>110</v>
       </c>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="54"/>
-      <c r="L5" s="52" t="s">
-        <v>113</v>
-      </c>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="54"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="75"/>
+      <c r="G5" s="73" t="s">
+        <v>109</v>
+      </c>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="75"/>
+      <c r="L5" s="73" t="s">
+        <v>112</v>
+      </c>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="75"/>
     </row>
     <row r="6" spans="2:15">
-      <c r="B6" s="55"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="57"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="57"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="57"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="78"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="78"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="77"/>
+      <c r="N6" s="77"/>
+      <c r="O6" s="78"/>
     </row>
     <row r="7" spans="2:15">
       <c r="C7" s="1"/>
@@ -6688,62 +6804,62 @@
       <c r="M8" s="2"/>
     </row>
     <row r="9" spans="2:15">
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="73" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="75"/>
+      <c r="G9" s="73" t="s">
+        <v>114</v>
+      </c>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="75"/>
+      <c r="L9" s="73" t="s">
         <v>116</v>
       </c>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="54"/>
-      <c r="G9" s="52" t="s">
-        <v>115</v>
-      </c>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="54"/>
-      <c r="L9" s="52" t="s">
-        <v>117</v>
-      </c>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="54"/>
+      <c r="M9" s="74"/>
+      <c r="N9" s="74"/>
+      <c r="O9" s="75"/>
     </row>
     <row r="10" spans="2:15">
-      <c r="B10" s="55"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="57"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="57"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="56"/>
-      <c r="N10" s="56"/>
-      <c r="O10" s="57"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="78"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="78"/>
+      <c r="L10" s="76"/>
+      <c r="M10" s="77"/>
+      <c r="N10" s="77"/>
+      <c r="O10" s="78"/>
     </row>
     <row r="13" spans="2:15" ht="18.75" customHeight="1">
-      <c r="G13" s="52" t="s">
+      <c r="G13" s="73" t="s">
+        <v>148</v>
+      </c>
+      <c r="H13" s="74"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="75"/>
+      <c r="L13" s="73" t="s">
         <v>149</v>
       </c>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="54"/>
-      <c r="L13" s="52" t="s">
-        <v>150</v>
-      </c>
-      <c r="M13" s="53"/>
-      <c r="N13" s="53"/>
-      <c r="O13" s="54"/>
+      <c r="M13" s="74"/>
+      <c r="N13" s="74"/>
+      <c r="O13" s="75"/>
     </row>
     <row r="14" spans="2:15">
-      <c r="G14" s="55"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="57"/>
-      <c r="L14" s="55"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="56"/>
-      <c r="O14" s="57"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="78"/>
+      <c r="L14" s="76"/>
+      <c r="M14" s="77"/>
+      <c r="N14" s="77"/>
+      <c r="O14" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -6763,7 +6879,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9711E4DC-EA95-4B99-982C-B0439260B713}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:U22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6773,18 +6889,18 @@
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="2:21">
-      <c r="J1" s="58" t="s">
-        <v>105</v>
-      </c>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="60"/>
+      <c r="J1" s="79" t="s">
+        <v>104</v>
+      </c>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="81"/>
     </row>
     <row r="2" spans="2:21">
-      <c r="J2" s="61"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="63"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="84"/>
     </row>
     <row r="3" spans="2:21">
       <c r="D3" s="3"/>
@@ -6810,38 +6926,38 @@
       <c r="T4" s="10"/>
     </row>
     <row r="5" spans="2:21">
-      <c r="B5" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="54"/>
-      <c r="J5" s="52" t="s">
+      <c r="B5" s="73" t="s">
         <v>110</v>
       </c>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="54"/>
-      <c r="R5" s="52" t="s">
-        <v>113</v>
-      </c>
-      <c r="S5" s="53"/>
-      <c r="T5" s="53"/>
-      <c r="U5" s="54"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="75"/>
+      <c r="J5" s="73" t="s">
+        <v>109</v>
+      </c>
+      <c r="K5" s="74"/>
+      <c r="L5" s="74"/>
+      <c r="M5" s="75"/>
+      <c r="R5" s="73" t="s">
+        <v>112</v>
+      </c>
+      <c r="S5" s="74"/>
+      <c r="T5" s="74"/>
+      <c r="U5" s="75"/>
     </row>
     <row r="6" spans="2:21">
-      <c r="B6" s="55"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="57"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="57"/>
-      <c r="R6" s="55"/>
-      <c r="S6" s="56"/>
-      <c r="T6" s="56"/>
-      <c r="U6" s="57"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="78"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="77"/>
+      <c r="L6" s="77"/>
+      <c r="M6" s="78"/>
+      <c r="R6" s="76"/>
+      <c r="S6" s="77"/>
+      <c r="T6" s="77"/>
+      <c r="U6" s="78"/>
     </row>
     <row r="7" spans="2:21">
       <c r="C7" s="1"/>
@@ -6860,120 +6976,120 @@
       <c r="S8" s="2"/>
     </row>
     <row r="9" spans="2:21">
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="73" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="75"/>
+      <c r="G9" s="73" t="s">
+        <v>126</v>
+      </c>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="75"/>
+      <c r="M9" s="73" t="s">
+        <v>127</v>
+      </c>
+      <c r="N9" s="74"/>
+      <c r="O9" s="74"/>
+      <c r="P9" s="75"/>
+      <c r="R9" s="73" t="s">
         <v>123</v>
       </c>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="54"/>
-      <c r="G9" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="54"/>
-      <c r="M9" s="52" t="s">
-        <v>128</v>
-      </c>
-      <c r="N9" s="53"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="54"/>
-      <c r="R9" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="S9" s="53"/>
-      <c r="T9" s="53"/>
-      <c r="U9" s="54"/>
+      <c r="S9" s="74"/>
+      <c r="T9" s="74"/>
+      <c r="U9" s="75"/>
     </row>
     <row r="10" spans="2:21">
-      <c r="B10" s="55"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="57"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="57"/>
-      <c r="M10" s="55"/>
-      <c r="N10" s="56"/>
-      <c r="O10" s="56"/>
-      <c r="P10" s="57"/>
-      <c r="R10" s="55"/>
-      <c r="S10" s="56"/>
-      <c r="T10" s="56"/>
-      <c r="U10" s="57"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="78"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="78"/>
+      <c r="M10" s="76"/>
+      <c r="N10" s="77"/>
+      <c r="O10" s="77"/>
+      <c r="P10" s="78"/>
+      <c r="R10" s="76"/>
+      <c r="S10" s="77"/>
+      <c r="T10" s="77"/>
+      <c r="U10" s="78"/>
     </row>
     <row r="13" spans="2:21" ht="18.75" customHeight="1">
-      <c r="B13" s="52" t="s">
+      <c r="B13" s="73" t="s">
+        <v>143</v>
+      </c>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="75"/>
+      <c r="M13" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="N13" s="74"/>
+      <c r="O13" s="74"/>
+      <c r="P13" s="75"/>
+      <c r="R13" s="73" t="s">
+        <v>145</v>
+      </c>
+      <c r="S13" s="74"/>
+      <c r="T13" s="74"/>
+      <c r="U13" s="75"/>
+    </row>
+    <row r="14" spans="2:21">
+      <c r="B14" s="76"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="78"/>
+      <c r="M14" s="76"/>
+      <c r="N14" s="77"/>
+      <c r="O14" s="77"/>
+      <c r="P14" s="78"/>
+      <c r="R14" s="76"/>
+      <c r="S14" s="77"/>
+      <c r="T14" s="77"/>
+      <c r="U14" s="78"/>
+    </row>
+    <row r="17" spans="2:21" ht="18.75" customHeight="1">
+      <c r="B17" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="54"/>
-      <c r="M13" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="N13" s="53"/>
-      <c r="O13" s="53"/>
-      <c r="P13" s="54"/>
-      <c r="R13" s="52" t="s">
+      <c r="C17" s="74"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="75"/>
+      <c r="R17" s="73" t="s">
         <v>146</v>
       </c>
-      <c r="S13" s="53"/>
-      <c r="T13" s="53"/>
-      <c r="U13" s="54"/>
-    </row>
-    <row r="14" spans="2:21">
-      <c r="B14" s="55"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="57"/>
-      <c r="M14" s="55"/>
-      <c r="N14" s="56"/>
-      <c r="O14" s="56"/>
-      <c r="P14" s="57"/>
-      <c r="R14" s="55"/>
-      <c r="S14" s="56"/>
-      <c r="T14" s="56"/>
-      <c r="U14" s="57"/>
-    </row>
-    <row r="17" spans="2:21" ht="18.75" customHeight="1">
-      <c r="B17" s="52" t="s">
-        <v>145</v>
-      </c>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="54"/>
-      <c r="R17" s="52" t="s">
+      <c r="S17" s="74"/>
+      <c r="T17" s="74"/>
+      <c r="U17" s="75"/>
+    </row>
+    <row r="18" spans="2:21">
+      <c r="B18" s="76"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="78"/>
+      <c r="R18" s="76"/>
+      <c r="S18" s="77"/>
+      <c r="T18" s="77"/>
+      <c r="U18" s="78"/>
+    </row>
+    <row r="21" spans="2:21">
+      <c r="R21" s="73" t="s">
         <v>147</v>
       </c>
-      <c r="S17" s="53"/>
-      <c r="T17" s="53"/>
-      <c r="U17" s="54"/>
-    </row>
-    <row r="18" spans="2:21">
-      <c r="B18" s="55"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="57"/>
-      <c r="R18" s="55"/>
-      <c r="S18" s="56"/>
-      <c r="T18" s="56"/>
-      <c r="U18" s="57"/>
-    </row>
-    <row r="21" spans="2:21">
-      <c r="R21" s="52" t="s">
-        <v>148</v>
-      </c>
-      <c r="S21" s="53"/>
-      <c r="T21" s="53"/>
-      <c r="U21" s="54"/>
+      <c r="S21" s="74"/>
+      <c r="T21" s="74"/>
+      <c r="U21" s="75"/>
     </row>
     <row r="22" spans="2:21">
-      <c r="R22" s="55"/>
-      <c r="S22" s="56"/>
-      <c r="T22" s="56"/>
-      <c r="U22" s="57"/>
+      <c r="R22" s="76"/>
+      <c r="S22" s="77"/>
+      <c r="T22" s="77"/>
+      <c r="U22" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -6999,7 +7115,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53534405-D08B-4BB8-9AD3-8EDB4694B704}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C7:AS13"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -7011,90 +7127,90 @@
     <row r="7" spans="3:45" ht="20.100000000000001" customHeight="1">
       <c r="D7" s="3"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="58" t="s">
+      <c r="F7" s="79" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="60"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="81"/>
       <c r="J7" s="10"/>
       <c r="K7" s="2"/>
-      <c r="L7" s="58" t="s">
+      <c r="L7" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="60"/>
+      <c r="M7" s="80"/>
+      <c r="N7" s="80"/>
+      <c r="O7" s="81"/>
       <c r="P7" s="10"/>
       <c r="Q7" s="2"/>
-      <c r="R7" s="58" t="s">
+      <c r="R7" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="S7" s="59"/>
-      <c r="T7" s="59"/>
-      <c r="U7" s="60"/>
+      <c r="S7" s="80"/>
+      <c r="T7" s="80"/>
+      <c r="U7" s="81"/>
       <c r="V7" s="10"/>
       <c r="W7" s="2"/>
-      <c r="X7" s="58" t="s">
+      <c r="X7" s="79" t="s">
         <v>52</v>
       </c>
-      <c r="Y7" s="59"/>
-      <c r="Z7" s="59"/>
-      <c r="AA7" s="60"/>
+      <c r="Y7" s="80"/>
+      <c r="Z7" s="80"/>
+      <c r="AA7" s="81"/>
       <c r="AB7" s="10"/>
       <c r="AC7" s="2"/>
-      <c r="AD7" s="58" t="s">
+      <c r="AD7" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="AE7" s="59"/>
-      <c r="AF7" s="59"/>
-      <c r="AG7" s="60"/>
+      <c r="AE7" s="80"/>
+      <c r="AF7" s="80"/>
+      <c r="AG7" s="81"/>
       <c r="AH7" s="10"/>
       <c r="AI7" s="2"/>
-      <c r="AJ7" s="58" t="s">
+      <c r="AJ7" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="AK7" s="59"/>
-      <c r="AL7" s="59"/>
-      <c r="AM7" s="60"/>
+      <c r="AK7" s="80"/>
+      <c r="AL7" s="80"/>
+      <c r="AM7" s="81"/>
       <c r="AN7" s="10"/>
       <c r="AO7" s="2"/>
-      <c r="AP7" s="58" t="s">
+      <c r="AP7" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="AQ7" s="59"/>
-      <c r="AR7" s="59"/>
-      <c r="AS7" s="60"/>
+      <c r="AQ7" s="80"/>
+      <c r="AR7" s="80"/>
+      <c r="AS7" s="81"/>
     </row>
     <row r="8" spans="3:45" ht="20.100000000000001" customHeight="1">
-      <c r="F8" s="61"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="63"/>
-      <c r="L8" s="61"/>
-      <c r="M8" s="62"/>
-      <c r="N8" s="62"/>
-      <c r="O8" s="63"/>
-      <c r="R8" s="61"/>
-      <c r="S8" s="62"/>
-      <c r="T8" s="62"/>
-      <c r="U8" s="63"/>
-      <c r="X8" s="61"/>
-      <c r="Y8" s="62"/>
-      <c r="Z8" s="62"/>
-      <c r="AA8" s="63"/>
-      <c r="AD8" s="61"/>
-      <c r="AE8" s="62"/>
-      <c r="AF8" s="62"/>
-      <c r="AG8" s="63"/>
-      <c r="AJ8" s="61"/>
-      <c r="AK8" s="62"/>
-      <c r="AL8" s="62"/>
-      <c r="AM8" s="63"/>
-      <c r="AP8" s="61"/>
-      <c r="AQ8" s="62"/>
-      <c r="AR8" s="62"/>
-      <c r="AS8" s="63"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="84"/>
+      <c r="L8" s="82"/>
+      <c r="M8" s="83"/>
+      <c r="N8" s="83"/>
+      <c r="O8" s="84"/>
+      <c r="R8" s="82"/>
+      <c r="S8" s="83"/>
+      <c r="T8" s="83"/>
+      <c r="U8" s="84"/>
+      <c r="X8" s="82"/>
+      <c r="Y8" s="83"/>
+      <c r="Z8" s="83"/>
+      <c r="AA8" s="84"/>
+      <c r="AD8" s="82"/>
+      <c r="AE8" s="83"/>
+      <c r="AF8" s="83"/>
+      <c r="AG8" s="84"/>
+      <c r="AJ8" s="82"/>
+      <c r="AK8" s="83"/>
+      <c r="AL8" s="83"/>
+      <c r="AM8" s="84"/>
+      <c r="AP8" s="82"/>
+      <c r="AQ8" s="83"/>
+      <c r="AR8" s="83"/>
+      <c r="AS8" s="84"/>
     </row>
     <row r="9" spans="3:45" ht="20.100000000000001" customHeight="1">
       <c r="K9" s="4"/>
@@ -7123,11 +7239,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0011DD6C-EF93-42EF-A09E-7FF90D366366}">
-  <dimension ref="A2:M42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:M62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60:B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -7138,7 +7254,7 @@
   <sheetData>
     <row r="2" spans="2:13">
       <c r="B2" s="17" t="s">
-        <v>85</v>
+        <v>177</v>
       </c>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
@@ -7330,7 +7446,7 @@
     </row>
     <row r="13" spans="2:13">
       <c r="B13" s="17" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
@@ -7384,8 +7500,8 @@
       <c r="B15" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="31"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="70"/>
       <c r="E15" s="24"/>
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
@@ -7401,10 +7517,10 @@
         <v>98</v>
       </c>
       <c r="C16" s="26"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="27"/>
       <c r="H16" s="28"/>
       <c r="I16" s="28"/>
       <c r="J16" s="28"/>
@@ -7418,8 +7534,8 @@
       </c>
       <c r="C17" s="26"/>
       <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
       <c r="G17" s="28"/>
       <c r="H17" s="28"/>
       <c r="I17" s="28"/>
@@ -7436,9 +7552,9 @@
       <c r="D18" s="28"/>
       <c r="E18" s="28"/>
       <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
       <c r="J18" s="28"/>
       <c r="K18" s="28"/>
       <c r="L18" s="28"/>
@@ -7452,16 +7568,16 @@
       <c r="D19" s="28"/>
       <c r="E19" s="28"/>
       <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
       <c r="J19" s="28"/>
       <c r="K19" s="28"/>
       <c r="L19" s="28"/>
       <c r="M19" s="28"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="B20" s="50" t="s">
+      <c r="B20" s="48" t="s">
         <v>102</v>
       </c>
       <c r="C20" s="26"/>
@@ -7470,8 +7586,8 @@
       <c r="F20" s="28"/>
       <c r="G20" s="28"/>
       <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="28"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
       <c r="K20" s="28"/>
       <c r="L20" s="29"/>
       <c r="M20" s="29"/>
@@ -7481,341 +7597,439 @@
       <c r="B21" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="C21" s="51"/>
+      <c r="C21" s="49"/>
       <c r="D21" s="28"/>
       <c r="E21" s="28"/>
       <c r="F21" s="28"/>
       <c r="G21" s="28"/>
       <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="28"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
       <c r="K21" s="28"/>
       <c r="L21" s="29"/>
       <c r="M21" s="29"/>
     </row>
     <row r="22" spans="1:13">
-      <c r="B22" s="4"/>
+      <c r="B22" s="68" t="s">
+        <v>176</v>
+      </c>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="58"/>
+      <c r="L22" s="58"/>
+      <c r="M22" s="58"/>
     </row>
     <row r="24" spans="1:13" ht="19.5" thickBot="1">
-      <c r="B24" s="45" t="s">
-        <v>176</v>
-      </c>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="45"/>
-      <c r="L24" s="45"/>
+      <c r="B24" s="43" t="s">
+        <v>175</v>
+      </c>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
     </row>
     <row r="25" spans="1:13" ht="19.5" thickTop="1">
-      <c r="A25" s="48"/>
-      <c r="B25" s="46" t="s">
+      <c r="A25" s="46"/>
+      <c r="B25" s="44" t="s">
+        <v>173</v>
+      </c>
+      <c r="C25" s="88" t="s">
+        <v>166</v>
+      </c>
+      <c r="D25" s="89"/>
+      <c r="E25" s="88" t="s">
+        <v>169</v>
+      </c>
+      <c r="F25" s="90"/>
+      <c r="G25" s="90"/>
+      <c r="H25" s="89"/>
+      <c r="I25" s="88" t="s">
+        <v>172</v>
+      </c>
+      <c r="J25" s="90"/>
+      <c r="K25" s="90"/>
+      <c r="L25" s="89"/>
+    </row>
+    <row r="26" spans="1:13" ht="19.5" thickBot="1">
+      <c r="A26" s="47"/>
+      <c r="B26" s="45" t="s">
         <v>174</v>
       </c>
-      <c r="C25" s="67" t="s">
+      <c r="C26" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="D25" s="68"/>
-      <c r="E25" s="67" t="s">
+      <c r="D26" s="35" t="s">
+        <v>168</v>
+      </c>
+      <c r="E26" s="33" t="s">
         <v>170</v>
       </c>
-      <c r="F25" s="69"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="67" t="s">
-        <v>173</v>
-      </c>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="68"/>
-    </row>
-    <row r="26" spans="1:13" ht="19.5" thickBot="1">
-      <c r="A26" s="49"/>
-      <c r="B26" s="47" t="s">
-        <v>175</v>
-      </c>
-      <c r="C26" s="35" t="s">
+      <c r="F26" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="G26" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="H26" s="35" t="s">
         <v>168</v>
       </c>
-      <c r="D26" s="37" t="s">
-        <v>169</v>
-      </c>
-      <c r="E26" s="35" t="s">
+      <c r="I26" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="J26" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="F26" s="34" t="s">
-        <v>172</v>
-      </c>
-      <c r="G26" s="34" t="s">
+      <c r="K26" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="L26" s="35" t="s">
         <v>168</v>
       </c>
-      <c r="H26" s="37" t="s">
-        <v>169</v>
-      </c>
-      <c r="I26" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="J26" s="34" t="s">
-        <v>172</v>
-      </c>
-      <c r="K26" s="34" t="s">
-        <v>168</v>
-      </c>
-      <c r="L26" s="37" t="s">
-        <v>169</v>
-      </c>
     </row>
     <row r="27" spans="1:13" ht="19.5" thickTop="1">
-      <c r="A27" s="70" t="s">
+      <c r="A27" s="91" t="s">
+        <v>150</v>
+      </c>
+      <c r="B27" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="B27" s="40" t="s">
+      <c r="C27" s="50"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="41"/>
+    </row>
+    <row r="28" spans="1:13" ht="19.5" thickBot="1">
+      <c r="A28" s="92"/>
+      <c r="B28" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="C27" s="73"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="43"/>
-    </row>
-    <row r="28" spans="1:13" ht="19.5" thickBot="1">
-      <c r="A28" s="71"/>
-      <c r="B28" s="41" t="s">
+      <c r="C28" s="33"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="35"/>
+    </row>
+    <row r="29" spans="1:13" ht="19.5" thickTop="1">
+      <c r="A29" s="91" t="s">
         <v>153</v>
       </c>
-      <c r="C28" s="35"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="34"/>
-      <c r="L28" s="37"/>
-    </row>
-    <row r="29" spans="1:13" ht="19.5" thickTop="1">
-      <c r="A29" s="70" t="s">
+      <c r="B29" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="56"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="93"/>
+      <c r="B30" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="62"/>
+      <c r="I30" s="66"/>
+      <c r="J30" s="61"/>
+      <c r="K30" s="61"/>
+      <c r="L30" s="62"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="93"/>
+      <c r="B31" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="B29" s="40" t="s">
-        <v>154</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="75"/>
-      <c r="E29" s="77"/>
-      <c r="F29" s="78"/>
-      <c r="G29" s="78"/>
-      <c r="H29" s="79"/>
-      <c r="I29" s="77"/>
-      <c r="J29" s="78"/>
-      <c r="K29" s="78"/>
-      <c r="L29" s="79"/>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="72"/>
-      <c r="B30" s="38" t="s">
+      <c r="C31" s="5"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="62"/>
+      <c r="I31" s="66"/>
+      <c r="J31" s="61"/>
+      <c r="K31" s="61"/>
+      <c r="L31" s="62"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="93"/>
+      <c r="B32" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="61"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="66"/>
+      <c r="J32" s="61"/>
+      <c r="K32" s="61"/>
+      <c r="L32" s="62"/>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="93"/>
+      <c r="B33" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="66"/>
+      <c r="J33" s="61"/>
+      <c r="K33" s="61"/>
+      <c r="L33" s="62"/>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="93"/>
+      <c r="B34" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="66"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="61"/>
+      <c r="H34" s="62"/>
+      <c r="I34" s="66"/>
+      <c r="J34" s="61"/>
+      <c r="K34" s="61"/>
+      <c r="L34" s="62"/>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="93"/>
+      <c r="B35" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="C35" s="5"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="66"/>
+      <c r="F35" s="61"/>
+      <c r="G35" s="58"/>
+      <c r="H35" s="62"/>
+      <c r="I35" s="66"/>
+      <c r="J35" s="61"/>
+      <c r="K35" s="61"/>
+      <c r="L35" s="62"/>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="93"/>
+      <c r="B36" s="36" t="s">
         <v>160</v>
       </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="82"/>
-      <c r="E30" s="89"/>
-      <c r="F30" s="90"/>
-      <c r="G30" s="84"/>
-      <c r="H30" s="85"/>
-      <c r="I30" s="89"/>
-      <c r="J30" s="84"/>
-      <c r="K30" s="84"/>
-      <c r="L30" s="85"/>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="72"/>
-      <c r="B31" s="38" t="s">
-        <v>155</v>
-      </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="80"/>
-      <c r="F31" s="84"/>
-      <c r="G31" s="84"/>
-      <c r="H31" s="85"/>
-      <c r="I31" s="89"/>
-      <c r="J31" s="84"/>
-      <c r="K31" s="84"/>
-      <c r="L31" s="85"/>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="72"/>
-      <c r="B32" s="38" t="s">
-        <v>157</v>
-      </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="80"/>
-      <c r="F32" s="84"/>
-      <c r="G32" s="84"/>
-      <c r="H32" s="85"/>
-      <c r="I32" s="89"/>
-      <c r="J32" s="84"/>
-      <c r="K32" s="84"/>
-      <c r="L32" s="85"/>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="72"/>
-      <c r="B33" s="38" t="s">
-        <v>158</v>
-      </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="80"/>
-      <c r="F33" s="84"/>
-      <c r="G33" s="84"/>
-      <c r="H33" s="85"/>
-      <c r="I33" s="89"/>
-      <c r="J33" s="84"/>
-      <c r="K33" s="84"/>
-      <c r="L33" s="85"/>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" s="72"/>
-      <c r="B34" s="38" t="s">
-        <v>156</v>
-      </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="89"/>
-      <c r="F34" s="81"/>
-      <c r="G34" s="84"/>
-      <c r="H34" s="85"/>
-      <c r="I34" s="89"/>
-      <c r="J34" s="84"/>
-      <c r="K34" s="84"/>
-      <c r="L34" s="85"/>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="72"/>
-      <c r="B35" s="38" t="s">
-        <v>159</v>
-      </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="89"/>
-      <c r="F35" s="84"/>
-      <c r="G35" s="81"/>
-      <c r="H35" s="85"/>
-      <c r="I35" s="89"/>
-      <c r="J35" s="84"/>
-      <c r="K35" s="84"/>
-      <c r="L35" s="85"/>
-    </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="72"/>
-      <c r="B36" s="38" t="s">
+      <c r="C36" s="5"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="61"/>
+      <c r="G36" s="58"/>
+      <c r="H36" s="62"/>
+      <c r="I36" s="66"/>
+      <c r="J36" s="61"/>
+      <c r="K36" s="61"/>
+      <c r="L36" s="62"/>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="93"/>
+      <c r="B37" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="C36" s="5"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="89"/>
-      <c r="F36" s="84"/>
-      <c r="G36" s="81"/>
-      <c r="H36" s="85"/>
-      <c r="I36" s="89"/>
-      <c r="J36" s="84"/>
-      <c r="K36" s="84"/>
-      <c r="L36" s="85"/>
-    </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="72"/>
-      <c r="B37" s="38" t="s">
+      <c r="C37" s="5"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="61"/>
+      <c r="G37" s="61"/>
+      <c r="H37" s="59"/>
+      <c r="I37" s="66"/>
+      <c r="J37" s="61"/>
+      <c r="K37" s="61"/>
+      <c r="L37" s="62"/>
+    </row>
+    <row r="38" spans="1:12" ht="19.5" thickBot="1">
+      <c r="A38" s="92"/>
+      <c r="B38" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="89"/>
-      <c r="F37" s="84"/>
-      <c r="G37" s="84"/>
-      <c r="H37" s="82"/>
-      <c r="I37" s="89"/>
-      <c r="J37" s="84"/>
-      <c r="K37" s="84"/>
-      <c r="L37" s="85"/>
-    </row>
-    <row r="38" spans="1:12" ht="19.5" thickBot="1">
-      <c r="A38" s="71"/>
-      <c r="B38" s="41" t="s">
+      <c r="C38" s="33"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="65"/>
+      <c r="F38" s="63"/>
+      <c r="G38" s="63"/>
+      <c r="H38" s="53"/>
+      <c r="I38" s="65"/>
+      <c r="J38" s="63"/>
+      <c r="K38" s="63"/>
+      <c r="L38" s="64"/>
+    </row>
+    <row r="39" spans="1:12" ht="19.5" thickTop="1">
+      <c r="A39" s="85" t="s">
         <v>163</v>
       </c>
-      <c r="C38" s="35"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="88"/>
-      <c r="F38" s="86"/>
-      <c r="G38" s="86"/>
-      <c r="H38" s="76"/>
-      <c r="I38" s="88"/>
-      <c r="J38" s="86"/>
-      <c r="K38" s="86"/>
-      <c r="L38" s="87"/>
-    </row>
-    <row r="39" spans="1:12" ht="19.5" thickTop="1">
-      <c r="A39" s="64" t="s">
+      <c r="B39" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="50"/>
+      <c r="J39" s="51"/>
+      <c r="K39" s="55"/>
+      <c r="L39" s="56"/>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="86"/>
+      <c r="B40" s="37" t="s">
         <v>164</v>
       </c>
-      <c r="B39" s="42" t="s">
-        <v>164</v>
-      </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="43"/>
-      <c r="I39" s="73"/>
-      <c r="J39" s="74"/>
-      <c r="K39" s="78"/>
-      <c r="L39" s="79"/>
-    </row>
-    <row r="40" spans="1:12">
-      <c r="A40" s="65"/>
-      <c r="B40" s="39" t="s">
+      <c r="C40" s="5"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="34"/>
+      <c r="I40" s="66"/>
+      <c r="J40" s="58"/>
+      <c r="K40" s="58"/>
+      <c r="L40" s="62"/>
+    </row>
+    <row r="41" spans="1:12" ht="19.5" thickBot="1">
+      <c r="A41" s="87"/>
+      <c r="B41" s="42" t="s">
         <v>165</v>
       </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="89"/>
-      <c r="J40" s="81"/>
-      <c r="K40" s="81"/>
-      <c r="L40" s="85"/>
-    </row>
-    <row r="41" spans="1:12" ht="19.5" thickBot="1">
-      <c r="A41" s="66"/>
-      <c r="B41" s="44" t="s">
-        <v>166</v>
-      </c>
-      <c r="C41" s="35"/>
-      <c r="D41" s="37"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="37"/>
-      <c r="I41" s="88"/>
-      <c r="J41" s="86"/>
-      <c r="K41" s="83"/>
-      <c r="L41" s="76"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="35"/>
+      <c r="I41" s="65"/>
+      <c r="J41" s="63"/>
+      <c r="K41" s="60"/>
+      <c r="L41" s="53"/>
     </row>
     <row r="42" spans="1:12" ht="19.5" thickTop="1"/>
+    <row r="43" spans="1:12">
+      <c r="B43" s="72" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="B44" s="72" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="B45" s="72" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="B46" s="72" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="B47" s="72" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="72" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="72" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="72" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="72" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" s="72" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" s="72" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" s="72" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" s="72" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" s="72" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" s="72" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" s="72" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" s="72" t="s">
+        <v>191</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A39:A41"/>

--- a/docs/WBS.xlsx
+++ b/docs/WBS.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\184034\Documents\Treatiseresearch\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Treatiseresearch\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E2F1A2-D189-4AEB-9CF7-85F0B3CEE364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" activeTab="7"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="研究" sheetId="1" r:id="rId1"/>
@@ -26,21 +27,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="194">
   <si>
     <t>ターゲット</t>
     <phoneticPr fontId="1"/>
@@ -1436,6 +1428,17 @@
     <t>その他</t>
     <rPh sb="2" eb="3">
       <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bonus実装</t>
+    <rPh sb="5" eb="7">
+      <t>ジッソウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1443,7 +1446,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -2053,6 +2056,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2069,24 +2090,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="255"/>
@@ -3472,7 +3475,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DB24"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
@@ -3495,18 +3498,18 @@
     <row r="5" spans="7:104" ht="20.100000000000001" customHeight="1">
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="BB5" s="79" t="s">
+      <c r="BB5" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="BC5" s="80"/>
-      <c r="BD5" s="80"/>
-      <c r="BE5" s="81"/>
+      <c r="BC5" s="74"/>
+      <c r="BD5" s="74"/>
+      <c r="BE5" s="75"/>
     </row>
     <row r="6" spans="7:104" ht="20.100000000000001" customHeight="1">
-      <c r="BB6" s="82"/>
-      <c r="BC6" s="83"/>
-      <c r="BD6" s="83"/>
-      <c r="BE6" s="84"/>
+      <c r="BB6" s="76"/>
+      <c r="BC6" s="77"/>
+      <c r="BD6" s="77"/>
+      <c r="BE6" s="78"/>
     </row>
     <row r="7" spans="7:104" ht="20.100000000000001" customHeight="1">
       <c r="BC7" s="1"/>
@@ -3612,52 +3615,52 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
-      <c r="M10" s="79" t="s">
+      <c r="M10" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="N10" s="80"/>
-      <c r="O10" s="80"/>
-      <c r="P10" s="81"/>
-      <c r="BD10" s="79" t="s">
+      <c r="N10" s="74"/>
+      <c r="O10" s="74"/>
+      <c r="P10" s="75"/>
+      <c r="BD10" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="BE10" s="80"/>
-      <c r="BF10" s="80"/>
-      <c r="BG10" s="81"/>
-      <c r="BT10" s="79" t="s">
+      <c r="BE10" s="74"/>
+      <c r="BF10" s="74"/>
+      <c r="BG10" s="75"/>
+      <c r="BT10" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="BU10" s="80"/>
-      <c r="BV10" s="80"/>
-      <c r="BW10" s="81"/>
-      <c r="CN10" s="79" t="s">
+      <c r="BU10" s="74"/>
+      <c r="BV10" s="74"/>
+      <c r="BW10" s="75"/>
+      <c r="CN10" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="CO10" s="80"/>
-      <c r="CP10" s="80"/>
-      <c r="CQ10" s="81"/>
+      <c r="CO10" s="74"/>
+      <c r="CP10" s="74"/>
+      <c r="CQ10" s="75"/>
     </row>
     <row r="11" spans="7:104" ht="20.100000000000001" customHeight="1">
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
-      <c r="M11" s="82"/>
-      <c r="N11" s="83"/>
-      <c r="O11" s="83"/>
-      <c r="P11" s="84"/>
+      <c r="M11" s="76"/>
+      <c r="N11" s="77"/>
+      <c r="O11" s="77"/>
+      <c r="P11" s="78"/>
       <c r="AK11" s="4"/>
-      <c r="BD11" s="82"/>
-      <c r="BE11" s="83"/>
-      <c r="BF11" s="83"/>
-      <c r="BG11" s="84"/>
-      <c r="BT11" s="82"/>
-      <c r="BU11" s="83"/>
-      <c r="BV11" s="83"/>
-      <c r="BW11" s="84"/>
-      <c r="CN11" s="82"/>
-      <c r="CO11" s="83"/>
-      <c r="CP11" s="83"/>
-      <c r="CQ11" s="84"/>
+      <c r="BD11" s="76"/>
+      <c r="BE11" s="77"/>
+      <c r="BF11" s="77"/>
+      <c r="BG11" s="78"/>
+      <c r="BT11" s="76"/>
+      <c r="BU11" s="77"/>
+      <c r="BV11" s="77"/>
+      <c r="BW11" s="78"/>
+      <c r="CN11" s="76"/>
+      <c r="CO11" s="77"/>
+      <c r="CP11" s="77"/>
+      <c r="CQ11" s="78"/>
     </row>
     <row r="12" spans="7:104" ht="20.100000000000001" customHeight="1">
       <c r="I12" s="4"/>
@@ -3728,110 +3731,110 @@
       <c r="CX13" s="5"/>
     </row>
     <row r="14" spans="7:104" ht="20.100000000000001" customHeight="1">
-      <c r="I14" s="73" t="s">
+      <c r="I14" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="J14" s="74"/>
-      <c r="K14" s="74"/>
-      <c r="L14" s="75"/>
+      <c r="J14" s="80"/>
+      <c r="K14" s="80"/>
+      <c r="L14" s="81"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
-      <c r="Z14" s="79" t="s">
+      <c r="Z14" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="AA14" s="80"/>
-      <c r="AB14" s="80"/>
-      <c r="AC14" s="81"/>
-      <c r="AZ14" s="79" t="s">
+      <c r="AA14" s="74"/>
+      <c r="AB14" s="74"/>
+      <c r="AC14" s="75"/>
+      <c r="AZ14" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="BA14" s="80"/>
-      <c r="BB14" s="80"/>
-      <c r="BC14" s="81"/>
-      <c r="BH14" s="79" t="s">
+      <c r="BA14" s="74"/>
+      <c r="BB14" s="74"/>
+      <c r="BC14" s="75"/>
+      <c r="BH14" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="BI14" s="80"/>
-      <c r="BJ14" s="80"/>
-      <c r="BK14" s="81"/>
-      <c r="BQ14" s="79" t="s">
+      <c r="BI14" s="74"/>
+      <c r="BJ14" s="74"/>
+      <c r="BK14" s="75"/>
+      <c r="BQ14" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="BR14" s="80"/>
-      <c r="BS14" s="80"/>
-      <c r="BT14" s="81"/>
-      <c r="BW14" s="79" t="s">
+      <c r="BR14" s="74"/>
+      <c r="BS14" s="74"/>
+      <c r="BT14" s="75"/>
+      <c r="BW14" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="BX14" s="80"/>
-      <c r="BY14" s="80"/>
-      <c r="BZ14" s="81"/>
-      <c r="CE14" s="79" t="s">
+      <c r="BX14" s="74"/>
+      <c r="BY14" s="74"/>
+      <c r="BZ14" s="75"/>
+      <c r="CE14" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="CF14" s="80"/>
-      <c r="CG14" s="80"/>
-      <c r="CH14" s="81"/>
-      <c r="CK14" s="79" t="s">
+      <c r="CF14" s="74"/>
+      <c r="CG14" s="74"/>
+      <c r="CH14" s="75"/>
+      <c r="CK14" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="CL14" s="80"/>
-      <c r="CM14" s="80"/>
-      <c r="CN14" s="81"/>
-      <c r="CQ14" s="79" t="s">
+      <c r="CL14" s="74"/>
+      <c r="CM14" s="74"/>
+      <c r="CN14" s="75"/>
+      <c r="CQ14" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="CR14" s="80"/>
-      <c r="CS14" s="80"/>
-      <c r="CT14" s="81"/>
-      <c r="CW14" s="79" t="s">
+      <c r="CR14" s="74"/>
+      <c r="CS14" s="74"/>
+      <c r="CT14" s="75"/>
+      <c r="CW14" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="CX14" s="80"/>
-      <c r="CY14" s="80"/>
-      <c r="CZ14" s="81"/>
+      <c r="CX14" s="74"/>
+      <c r="CY14" s="74"/>
+      <c r="CZ14" s="75"/>
     </row>
     <row r="15" spans="7:104" ht="20.100000000000001" customHeight="1">
-      <c r="I15" s="76"/>
-      <c r="J15" s="77"/>
-      <c r="K15" s="77"/>
-      <c r="L15" s="78"/>
-      <c r="Z15" s="82"/>
-      <c r="AA15" s="83"/>
-      <c r="AB15" s="83"/>
-      <c r="AC15" s="84"/>
-      <c r="AZ15" s="82"/>
-      <c r="BA15" s="83"/>
-      <c r="BB15" s="83"/>
-      <c r="BC15" s="84"/>
-      <c r="BH15" s="82"/>
-      <c r="BI15" s="83"/>
-      <c r="BJ15" s="83"/>
-      <c r="BK15" s="84"/>
-      <c r="BQ15" s="82"/>
-      <c r="BR15" s="83"/>
-      <c r="BS15" s="83"/>
-      <c r="BT15" s="84"/>
-      <c r="BW15" s="82"/>
-      <c r="BX15" s="83"/>
-      <c r="BY15" s="83"/>
-      <c r="BZ15" s="84"/>
-      <c r="CE15" s="82"/>
-      <c r="CF15" s="83"/>
-      <c r="CG15" s="83"/>
-      <c r="CH15" s="84"/>
-      <c r="CK15" s="82"/>
-      <c r="CL15" s="83"/>
-      <c r="CM15" s="83"/>
-      <c r="CN15" s="84"/>
-      <c r="CQ15" s="82"/>
-      <c r="CR15" s="83"/>
-      <c r="CS15" s="83"/>
-      <c r="CT15" s="84"/>
-      <c r="CW15" s="82"/>
-      <c r="CX15" s="83"/>
-      <c r="CY15" s="83"/>
-      <c r="CZ15" s="84"/>
+      <c r="I15" s="82"/>
+      <c r="J15" s="83"/>
+      <c r="K15" s="83"/>
+      <c r="L15" s="84"/>
+      <c r="Z15" s="76"/>
+      <c r="AA15" s="77"/>
+      <c r="AB15" s="77"/>
+      <c r="AC15" s="78"/>
+      <c r="AZ15" s="76"/>
+      <c r="BA15" s="77"/>
+      <c r="BB15" s="77"/>
+      <c r="BC15" s="78"/>
+      <c r="BH15" s="76"/>
+      <c r="BI15" s="77"/>
+      <c r="BJ15" s="77"/>
+      <c r="BK15" s="78"/>
+      <c r="BQ15" s="76"/>
+      <c r="BR15" s="77"/>
+      <c r="BS15" s="77"/>
+      <c r="BT15" s="78"/>
+      <c r="BW15" s="76"/>
+      <c r="BX15" s="77"/>
+      <c r="BY15" s="77"/>
+      <c r="BZ15" s="78"/>
+      <c r="CE15" s="76"/>
+      <c r="CF15" s="77"/>
+      <c r="CG15" s="77"/>
+      <c r="CH15" s="78"/>
+      <c r="CK15" s="76"/>
+      <c r="CL15" s="77"/>
+      <c r="CM15" s="77"/>
+      <c r="CN15" s="78"/>
+      <c r="CQ15" s="76"/>
+      <c r="CR15" s="77"/>
+      <c r="CS15" s="77"/>
+      <c r="CT15" s="78"/>
+      <c r="CW15" s="76"/>
+      <c r="CX15" s="77"/>
+      <c r="CY15" s="77"/>
+      <c r="CZ15" s="78"/>
     </row>
     <row r="16" spans="7:104" ht="20.100000000000001" customHeight="1">
       <c r="J16" s="1"/>
@@ -3894,148 +3897,148 @@
       <c r="CR17" s="2"/>
     </row>
     <row r="18" spans="1:106" ht="20.100000000000001" customHeight="1">
-      <c r="I18" s="73" t="s">
+      <c r="I18" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="J18" s="74"/>
-      <c r="K18" s="74"/>
-      <c r="L18" s="75"/>
-      <c r="Q18" s="73" t="s">
+      <c r="J18" s="80"/>
+      <c r="K18" s="80"/>
+      <c r="L18" s="81"/>
+      <c r="Q18" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="R18" s="74"/>
-      <c r="S18" s="74"/>
-      <c r="T18" s="75"/>
-      <c r="W18" s="73" t="s">
+      <c r="R18" s="80"/>
+      <c r="S18" s="80"/>
+      <c r="T18" s="81"/>
+      <c r="W18" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="X18" s="74"/>
-      <c r="Y18" s="74"/>
-      <c r="Z18" s="75"/>
-      <c r="AC18" s="73" t="s">
+      <c r="X18" s="80"/>
+      <c r="Y18" s="80"/>
+      <c r="Z18" s="81"/>
+      <c r="AC18" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="AD18" s="74"/>
-      <c r="AE18" s="74"/>
-      <c r="AF18" s="75"/>
-      <c r="AI18" s="73" t="s">
+      <c r="AD18" s="80"/>
+      <c r="AE18" s="80"/>
+      <c r="AF18" s="81"/>
+      <c r="AI18" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="AJ18" s="74"/>
-      <c r="AK18" s="74"/>
-      <c r="AL18" s="75"/>
-      <c r="AQ18" s="79" t="s">
+      <c r="AJ18" s="80"/>
+      <c r="AK18" s="80"/>
+      <c r="AL18" s="81"/>
+      <c r="AQ18" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="AR18" s="80"/>
-      <c r="AS18" s="80"/>
-      <c r="AT18" s="81"/>
-      <c r="AW18" s="79" t="s">
+      <c r="AR18" s="74"/>
+      <c r="AS18" s="74"/>
+      <c r="AT18" s="75"/>
+      <c r="AW18" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="AX18" s="80"/>
-      <c r="AY18" s="80"/>
-      <c r="AZ18" s="81"/>
-      <c r="BC18" s="79" t="s">
+      <c r="AX18" s="74"/>
+      <c r="AY18" s="74"/>
+      <c r="AZ18" s="75"/>
+      <c r="BC18" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="BD18" s="80"/>
-      <c r="BE18" s="80"/>
-      <c r="BF18" s="81"/>
-      <c r="BI18" s="79" t="s">
+      <c r="BD18" s="74"/>
+      <c r="BE18" s="74"/>
+      <c r="BF18" s="75"/>
+      <c r="BI18" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="BJ18" s="80"/>
-      <c r="BK18" s="80"/>
-      <c r="BL18" s="81"/>
-      <c r="BQ18" s="79" t="s">
+      <c r="BJ18" s="74"/>
+      <c r="BK18" s="74"/>
+      <c r="BL18" s="75"/>
+      <c r="BQ18" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="BR18" s="80"/>
-      <c r="BS18" s="80"/>
-      <c r="BT18" s="81"/>
-      <c r="BW18" s="79" t="s">
+      <c r="BR18" s="74"/>
+      <c r="BS18" s="74"/>
+      <c r="BT18" s="75"/>
+      <c r="BW18" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="BX18" s="80"/>
-      <c r="BY18" s="80"/>
-      <c r="BZ18" s="81"/>
-      <c r="CE18" s="79" t="s">
+      <c r="BX18" s="74"/>
+      <c r="BY18" s="74"/>
+      <c r="BZ18" s="75"/>
+      <c r="CE18" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="CF18" s="80"/>
-      <c r="CG18" s="80"/>
-      <c r="CH18" s="81"/>
-      <c r="CK18" s="79" t="s">
+      <c r="CF18" s="74"/>
+      <c r="CG18" s="74"/>
+      <c r="CH18" s="75"/>
+      <c r="CK18" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="CL18" s="80"/>
-      <c r="CM18" s="80"/>
-      <c r="CN18" s="81"/>
-      <c r="CQ18" s="73" t="s">
+      <c r="CL18" s="74"/>
+      <c r="CM18" s="74"/>
+      <c r="CN18" s="75"/>
+      <c r="CQ18" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="CR18" s="74"/>
-      <c r="CS18" s="74"/>
-      <c r="CT18" s="75"/>
+      <c r="CR18" s="80"/>
+      <c r="CS18" s="80"/>
+      <c r="CT18" s="81"/>
     </row>
     <row r="19" spans="1:106" ht="20.100000000000001" customHeight="1">
-      <c r="I19" s="76"/>
-      <c r="J19" s="77"/>
-      <c r="K19" s="77"/>
-      <c r="L19" s="78"/>
-      <c r="Q19" s="76"/>
-      <c r="R19" s="77"/>
-      <c r="S19" s="77"/>
-      <c r="T19" s="78"/>
-      <c r="W19" s="76"/>
-      <c r="X19" s="77"/>
-      <c r="Y19" s="77"/>
-      <c r="Z19" s="78"/>
-      <c r="AC19" s="76"/>
-      <c r="AD19" s="77"/>
-      <c r="AE19" s="77"/>
-      <c r="AF19" s="78"/>
-      <c r="AI19" s="76"/>
-      <c r="AJ19" s="77"/>
-      <c r="AK19" s="77"/>
-      <c r="AL19" s="78"/>
-      <c r="AQ19" s="82"/>
-      <c r="AR19" s="83"/>
-      <c r="AS19" s="83"/>
-      <c r="AT19" s="84"/>
-      <c r="AW19" s="82"/>
-      <c r="AX19" s="83"/>
-      <c r="AY19" s="83"/>
-      <c r="AZ19" s="84"/>
-      <c r="BC19" s="82"/>
-      <c r="BD19" s="83"/>
-      <c r="BE19" s="83"/>
-      <c r="BF19" s="84"/>
-      <c r="BI19" s="82"/>
-      <c r="BJ19" s="83"/>
-      <c r="BK19" s="83"/>
-      <c r="BL19" s="84"/>
-      <c r="BQ19" s="82"/>
-      <c r="BR19" s="83"/>
-      <c r="BS19" s="83"/>
-      <c r="BT19" s="84"/>
-      <c r="BW19" s="82"/>
-      <c r="BX19" s="83"/>
-      <c r="BY19" s="83"/>
-      <c r="BZ19" s="84"/>
-      <c r="CE19" s="82"/>
-      <c r="CF19" s="83"/>
-      <c r="CG19" s="83"/>
-      <c r="CH19" s="84"/>
-      <c r="CK19" s="82"/>
-      <c r="CL19" s="83"/>
-      <c r="CM19" s="83"/>
-      <c r="CN19" s="84"/>
-      <c r="CQ19" s="76"/>
-      <c r="CR19" s="77"/>
-      <c r="CS19" s="77"/>
-      <c r="CT19" s="78"/>
+      <c r="I19" s="82"/>
+      <c r="J19" s="83"/>
+      <c r="K19" s="83"/>
+      <c r="L19" s="84"/>
+      <c r="Q19" s="82"/>
+      <c r="R19" s="83"/>
+      <c r="S19" s="83"/>
+      <c r="T19" s="84"/>
+      <c r="W19" s="82"/>
+      <c r="X19" s="83"/>
+      <c r="Y19" s="83"/>
+      <c r="Z19" s="84"/>
+      <c r="AC19" s="82"/>
+      <c r="AD19" s="83"/>
+      <c r="AE19" s="83"/>
+      <c r="AF19" s="84"/>
+      <c r="AI19" s="82"/>
+      <c r="AJ19" s="83"/>
+      <c r="AK19" s="83"/>
+      <c r="AL19" s="84"/>
+      <c r="AQ19" s="76"/>
+      <c r="AR19" s="77"/>
+      <c r="AS19" s="77"/>
+      <c r="AT19" s="78"/>
+      <c r="AW19" s="76"/>
+      <c r="AX19" s="77"/>
+      <c r="AY19" s="77"/>
+      <c r="AZ19" s="78"/>
+      <c r="BC19" s="76"/>
+      <c r="BD19" s="77"/>
+      <c r="BE19" s="77"/>
+      <c r="BF19" s="78"/>
+      <c r="BI19" s="76"/>
+      <c r="BJ19" s="77"/>
+      <c r="BK19" s="77"/>
+      <c r="BL19" s="78"/>
+      <c r="BQ19" s="76"/>
+      <c r="BR19" s="77"/>
+      <c r="BS19" s="77"/>
+      <c r="BT19" s="78"/>
+      <c r="BW19" s="76"/>
+      <c r="BX19" s="77"/>
+      <c r="BY19" s="77"/>
+      <c r="BZ19" s="78"/>
+      <c r="CE19" s="76"/>
+      <c r="CF19" s="77"/>
+      <c r="CG19" s="77"/>
+      <c r="CH19" s="78"/>
+      <c r="CK19" s="76"/>
+      <c r="CL19" s="77"/>
+      <c r="CM19" s="77"/>
+      <c r="CN19" s="78"/>
+      <c r="CQ19" s="82"/>
+      <c r="CR19" s="83"/>
+      <c r="CS19" s="83"/>
+      <c r="CT19" s="84"/>
     </row>
     <row r="21" spans="1:106" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="8"/>
@@ -4146,48 +4149,56 @@
       <c r="DB21" s="8"/>
     </row>
     <row r="23" spans="1:106" ht="20.100000000000001" customHeight="1">
-      <c r="BO23" s="79" t="s">
+      <c r="BO23" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="BP23" s="80"/>
-      <c r="BQ23" s="80"/>
-      <c r="BR23" s="81"/>
-      <c r="BT23" s="79" t="s">
+      <c r="BP23" s="74"/>
+      <c r="BQ23" s="74"/>
+      <c r="BR23" s="75"/>
+      <c r="BT23" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="BU23" s="80"/>
-      <c r="BV23" s="80"/>
-      <c r="BW23" s="81"/>
-      <c r="BZ23" s="79" t="s">
+      <c r="BU23" s="74"/>
+      <c r="BV23" s="74"/>
+      <c r="BW23" s="75"/>
+      <c r="BZ23" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="CA23" s="80"/>
-      <c r="CB23" s="80"/>
-      <c r="CC23" s="81"/>
+      <c r="CA23" s="74"/>
+      <c r="CB23" s="74"/>
+      <c r="CC23" s="75"/>
     </row>
     <row r="24" spans="1:106" ht="20.100000000000001" customHeight="1">
-      <c r="BO24" s="82"/>
-      <c r="BP24" s="83"/>
-      <c r="BQ24" s="83"/>
-      <c r="BR24" s="84"/>
-      <c r="BT24" s="82"/>
-      <c r="BU24" s="83"/>
-      <c r="BV24" s="83"/>
-      <c r="BW24" s="84"/>
-      <c r="BZ24" s="82"/>
-      <c r="CA24" s="83"/>
-      <c r="CB24" s="83"/>
-      <c r="CC24" s="84"/>
+      <c r="BO24" s="76"/>
+      <c r="BP24" s="77"/>
+      <c r="BQ24" s="77"/>
+      <c r="BR24" s="78"/>
+      <c r="BT24" s="76"/>
+      <c r="BU24" s="77"/>
+      <c r="BV24" s="77"/>
+      <c r="BW24" s="78"/>
+      <c r="BZ24" s="76"/>
+      <c r="CA24" s="77"/>
+      <c r="CB24" s="77"/>
+      <c r="CC24" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="CN10:CQ11"/>
-    <mergeCell ref="Z14:AC15"/>
-    <mergeCell ref="BB5:BE6"/>
-    <mergeCell ref="BD10:BG11"/>
-    <mergeCell ref="BO23:BR24"/>
-    <mergeCell ref="BT23:BW24"/>
-    <mergeCell ref="BZ23:CC24"/>
+    <mergeCell ref="I14:L15"/>
+    <mergeCell ref="I18:L19"/>
+    <mergeCell ref="Q18:T19"/>
+    <mergeCell ref="W18:Z19"/>
+    <mergeCell ref="AI18:AL19"/>
+    <mergeCell ref="AC18:AF19"/>
+    <mergeCell ref="CW14:CZ15"/>
+    <mergeCell ref="CK14:CN15"/>
+    <mergeCell ref="CE14:CH15"/>
+    <mergeCell ref="BH14:BK15"/>
+    <mergeCell ref="CE18:CH19"/>
+    <mergeCell ref="CK18:CN19"/>
+    <mergeCell ref="CQ18:CT19"/>
+    <mergeCell ref="CQ14:CT15"/>
+    <mergeCell ref="BW18:BZ19"/>
     <mergeCell ref="M10:P11"/>
     <mergeCell ref="BQ14:BT15"/>
     <mergeCell ref="BT10:BW11"/>
@@ -4198,21 +4209,13 @@
     <mergeCell ref="BI18:BL19"/>
     <mergeCell ref="BC18:BF19"/>
     <mergeCell ref="AW18:AZ19"/>
-    <mergeCell ref="CW14:CZ15"/>
-    <mergeCell ref="CK14:CN15"/>
-    <mergeCell ref="CE14:CH15"/>
-    <mergeCell ref="BH14:BK15"/>
-    <mergeCell ref="CE18:CH19"/>
-    <mergeCell ref="CK18:CN19"/>
-    <mergeCell ref="CQ18:CT19"/>
-    <mergeCell ref="CQ14:CT15"/>
-    <mergeCell ref="BW18:BZ19"/>
-    <mergeCell ref="I14:L15"/>
-    <mergeCell ref="I18:L19"/>
-    <mergeCell ref="Q18:T19"/>
-    <mergeCell ref="W18:Z19"/>
-    <mergeCell ref="AI18:AL19"/>
-    <mergeCell ref="AC18:AF19"/>
+    <mergeCell ref="CN10:CQ11"/>
+    <mergeCell ref="Z14:AC15"/>
+    <mergeCell ref="BB5:BE6"/>
+    <mergeCell ref="BD10:BG11"/>
+    <mergeCell ref="BO23:BR24"/>
+    <mergeCell ref="BT23:BW24"/>
+    <mergeCell ref="BZ23:CC24"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4221,7 +4224,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A4:CF25"/>
   <sheetViews>
     <sheetView topLeftCell="Q1" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
@@ -4231,20 +4234,20 @@
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <sheetData>
     <row r="4" spans="4:84" ht="20.100000000000001" customHeight="1">
-      <c r="S4" s="79" t="s">
+      <c r="S4" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="T4" s="80"/>
-      <c r="U4" s="80"/>
-      <c r="V4" s="81"/>
+      <c r="T4" s="74"/>
+      <c r="U4" s="74"/>
+      <c r="V4" s="75"/>
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
     </row>
     <row r="5" spans="4:84" ht="20.100000000000001" customHeight="1">
-      <c r="S5" s="82"/>
-      <c r="T5" s="83"/>
-      <c r="U5" s="83"/>
-      <c r="V5" s="84"/>
+      <c r="S5" s="76"/>
+      <c r="T5" s="77"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="4"/>
       <c r="X5" s="4"/>
     </row>
@@ -4305,69 +4308,69 @@
       <c r="AZ7" s="5"/>
     </row>
     <row r="8" spans="4:84" ht="20.100000000000001" customHeight="1">
-      <c r="D8" s="79" t="s">
+      <c r="D8" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="81"/>
-      <c r="J8" s="79" t="s">
+      <c r="E8" s="74"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="75"/>
+      <c r="J8" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="K8" s="80"/>
-      <c r="L8" s="80"/>
-      <c r="M8" s="81"/>
-      <c r="P8" s="79" t="s">
+      <c r="K8" s="74"/>
+      <c r="L8" s="74"/>
+      <c r="M8" s="75"/>
+      <c r="P8" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="Q8" s="80"/>
-      <c r="R8" s="80"/>
-      <c r="S8" s="81"/>
-      <c r="AD8" s="73" t="s">
+      <c r="Q8" s="74"/>
+      <c r="R8" s="74"/>
+      <c r="S8" s="75"/>
+      <c r="AD8" s="79" t="s">
         <v>129</v>
       </c>
-      <c r="AE8" s="74"/>
-      <c r="AF8" s="74"/>
-      <c r="AG8" s="75"/>
-      <c r="AY8" s="79" t="s">
+      <c r="AE8" s="80"/>
+      <c r="AF8" s="80"/>
+      <c r="AG8" s="81"/>
+      <c r="AY8" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="AZ8" s="80"/>
-      <c r="BA8" s="80"/>
-      <c r="BB8" s="81"/>
-      <c r="BW8" s="79" t="s">
+      <c r="AZ8" s="74"/>
+      <c r="BA8" s="74"/>
+      <c r="BB8" s="75"/>
+      <c r="BW8" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="BX8" s="80"/>
-      <c r="BY8" s="80"/>
-      <c r="BZ8" s="81"/>
+      <c r="BX8" s="74"/>
+      <c r="BY8" s="74"/>
+      <c r="BZ8" s="75"/>
     </row>
     <row r="9" spans="4:84" ht="20.100000000000001" customHeight="1">
-      <c r="D9" s="82"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="84"/>
-      <c r="J9" s="82"/>
-      <c r="K9" s="83"/>
-      <c r="L9" s="83"/>
-      <c r="M9" s="84"/>
-      <c r="P9" s="82"/>
-      <c r="Q9" s="83"/>
-      <c r="R9" s="83"/>
-      <c r="S9" s="84"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="78"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="77"/>
+      <c r="L9" s="77"/>
+      <c r="M9" s="78"/>
+      <c r="P9" s="76"/>
+      <c r="Q9" s="77"/>
+      <c r="R9" s="77"/>
+      <c r="S9" s="78"/>
       <c r="AC9" s="9"/>
-      <c r="AD9" s="76"/>
-      <c r="AE9" s="77"/>
-      <c r="AF9" s="77"/>
-      <c r="AG9" s="78"/>
-      <c r="AY9" s="82"/>
-      <c r="AZ9" s="83"/>
-      <c r="BA9" s="83"/>
-      <c r="BB9" s="84"/>
-      <c r="BW9" s="82"/>
-      <c r="BX9" s="83"/>
-      <c r="BY9" s="83"/>
-      <c r="BZ9" s="84"/>
+      <c r="AD9" s="82"/>
+      <c r="AE9" s="83"/>
+      <c r="AF9" s="83"/>
+      <c r="AG9" s="84"/>
+      <c r="AY9" s="76"/>
+      <c r="AZ9" s="77"/>
+      <c r="BA9" s="77"/>
+      <c r="BB9" s="78"/>
+      <c r="BW9" s="76"/>
+      <c r="BX9" s="77"/>
+      <c r="BY9" s="77"/>
+      <c r="BZ9" s="78"/>
     </row>
     <row r="10" spans="4:84" ht="20.100000000000001" customHeight="1">
       <c r="E10" s="1"/>
@@ -4397,88 +4400,88 @@
       <c r="AZ11" s="2"/>
     </row>
     <row r="12" spans="4:84" ht="20.100000000000001" customHeight="1">
-      <c r="D12" s="79" t="s">
+      <c r="D12" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="80"/>
-      <c r="F12" s="80"/>
-      <c r="G12" s="81"/>
-      <c r="J12" s="79" t="s">
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="75"/>
+      <c r="J12" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="K12" s="80"/>
-      <c r="L12" s="80"/>
-      <c r="M12" s="81"/>
-      <c r="P12" s="79" t="s">
+      <c r="K12" s="74"/>
+      <c r="L12" s="74"/>
+      <c r="M12" s="75"/>
+      <c r="P12" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="Q12" s="80"/>
-      <c r="R12" s="80"/>
-      <c r="S12" s="81"/>
-      <c r="Y12" s="73" t="s">
+      <c r="Q12" s="74"/>
+      <c r="R12" s="74"/>
+      <c r="S12" s="75"/>
+      <c r="Y12" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="Z12" s="74"/>
-      <c r="AA12" s="74"/>
-      <c r="AB12" s="75"/>
-      <c r="AI12" s="73" t="s">
+      <c r="Z12" s="80"/>
+      <c r="AA12" s="80"/>
+      <c r="AB12" s="81"/>
+      <c r="AI12" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="AJ12" s="74"/>
-      <c r="AK12" s="74"/>
-      <c r="AL12" s="75"/>
-      <c r="AY12" s="79" t="s">
+      <c r="AJ12" s="80"/>
+      <c r="AK12" s="80"/>
+      <c r="AL12" s="81"/>
+      <c r="AY12" s="73" t="s">
         <v>76</v>
       </c>
-      <c r="AZ12" s="80"/>
-      <c r="BA12" s="80"/>
-      <c r="BB12" s="81"/>
-      <c r="BR12" s="73" t="s">
+      <c r="AZ12" s="74"/>
+      <c r="BA12" s="74"/>
+      <c r="BB12" s="75"/>
+      <c r="BR12" s="79" t="s">
         <v>130</v>
       </c>
-      <c r="BS12" s="74"/>
-      <c r="BT12" s="74"/>
-      <c r="BU12" s="75"/>
-      <c r="CC12" s="73" t="s">
+      <c r="BS12" s="80"/>
+      <c r="BT12" s="80"/>
+      <c r="BU12" s="81"/>
+      <c r="CC12" s="79" t="s">
         <v>131</v>
       </c>
-      <c r="CD12" s="74"/>
-      <c r="CE12" s="74"/>
-      <c r="CF12" s="75"/>
+      <c r="CD12" s="80"/>
+      <c r="CE12" s="80"/>
+      <c r="CF12" s="81"/>
     </row>
     <row r="13" spans="4:84" ht="20.100000000000001" customHeight="1">
-      <c r="D13" s="82"/>
-      <c r="E13" s="83"/>
-      <c r="F13" s="83"/>
-      <c r="G13" s="84"/>
-      <c r="J13" s="82"/>
-      <c r="K13" s="83"/>
-      <c r="L13" s="83"/>
-      <c r="M13" s="84"/>
-      <c r="P13" s="82"/>
-      <c r="Q13" s="83"/>
-      <c r="R13" s="83"/>
-      <c r="S13" s="84"/>
-      <c r="Y13" s="76"/>
-      <c r="Z13" s="77"/>
-      <c r="AA13" s="77"/>
-      <c r="AB13" s="78"/>
-      <c r="AI13" s="76"/>
-      <c r="AJ13" s="77"/>
-      <c r="AK13" s="77"/>
-      <c r="AL13" s="78"/>
-      <c r="AY13" s="82"/>
-      <c r="AZ13" s="83"/>
-      <c r="BA13" s="83"/>
-      <c r="BB13" s="84"/>
-      <c r="BR13" s="76"/>
-      <c r="BS13" s="77"/>
-      <c r="BT13" s="77"/>
-      <c r="BU13" s="78"/>
-      <c r="CC13" s="76"/>
-      <c r="CD13" s="77"/>
-      <c r="CE13" s="77"/>
-      <c r="CF13" s="78"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="78"/>
+      <c r="J13" s="76"/>
+      <c r="K13" s="77"/>
+      <c r="L13" s="77"/>
+      <c r="M13" s="78"/>
+      <c r="P13" s="76"/>
+      <c r="Q13" s="77"/>
+      <c r="R13" s="77"/>
+      <c r="S13" s="78"/>
+      <c r="Y13" s="82"/>
+      <c r="Z13" s="83"/>
+      <c r="AA13" s="83"/>
+      <c r="AB13" s="84"/>
+      <c r="AI13" s="82"/>
+      <c r="AJ13" s="83"/>
+      <c r="AK13" s="83"/>
+      <c r="AL13" s="84"/>
+      <c r="AY13" s="76"/>
+      <c r="AZ13" s="77"/>
+      <c r="BA13" s="77"/>
+      <c r="BB13" s="78"/>
+      <c r="BR13" s="82"/>
+      <c r="BS13" s="83"/>
+      <c r="BT13" s="83"/>
+      <c r="BU13" s="84"/>
+      <c r="CC13" s="82"/>
+      <c r="CD13" s="83"/>
+      <c r="CE13" s="83"/>
+      <c r="CF13" s="84"/>
     </row>
     <row r="14" spans="4:84" ht="20.100000000000001" customHeight="1">
       <c r="E14" s="1"/>
@@ -4517,128 +4520,128 @@
       <c r="BE15" s="5"/>
     </row>
     <row r="16" spans="4:84" ht="20.100000000000001" customHeight="1">
-      <c r="D16" s="79" t="s">
+      <c r="D16" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="80"/>
-      <c r="F16" s="80"/>
-      <c r="G16" s="81"/>
-      <c r="J16" s="79" t="s">
+      <c r="E16" s="74"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="75"/>
+      <c r="J16" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="K16" s="80"/>
-      <c r="L16" s="80"/>
-      <c r="M16" s="81"/>
-      <c r="P16" s="73" t="s">
+      <c r="K16" s="74"/>
+      <c r="L16" s="74"/>
+      <c r="M16" s="75"/>
+      <c r="P16" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="Q16" s="74"/>
-      <c r="R16" s="74"/>
-      <c r="S16" s="75"/>
-      <c r="V16" s="73" t="s">
+      <c r="Q16" s="80"/>
+      <c r="R16" s="80"/>
+      <c r="S16" s="81"/>
+      <c r="V16" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="W16" s="74"/>
-      <c r="X16" s="74"/>
-      <c r="Y16" s="75"/>
-      <c r="AA16" s="73" t="s">
+      <c r="W16" s="80"/>
+      <c r="X16" s="80"/>
+      <c r="Y16" s="81"/>
+      <c r="AA16" s="79" t="s">
         <v>46</v>
       </c>
-      <c r="AB16" s="74"/>
-      <c r="AC16" s="74"/>
-      <c r="AD16" s="75"/>
-      <c r="AG16" s="73" t="s">
+      <c r="AB16" s="80"/>
+      <c r="AC16" s="80"/>
+      <c r="AD16" s="81"/>
+      <c r="AG16" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="AH16" s="74"/>
-      <c r="AI16" s="74"/>
-      <c r="AJ16" s="75"/>
-      <c r="AL16" s="79" t="s">
+      <c r="AH16" s="80"/>
+      <c r="AI16" s="80"/>
+      <c r="AJ16" s="81"/>
+      <c r="AL16" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="AM16" s="80"/>
-      <c r="AN16" s="80"/>
-      <c r="AO16" s="81"/>
-      <c r="AU16" s="79" t="s">
+      <c r="AM16" s="74"/>
+      <c r="AN16" s="74"/>
+      <c r="AO16" s="75"/>
+      <c r="AU16" s="73" t="s">
         <v>79</v>
       </c>
-      <c r="AV16" s="80"/>
-      <c r="AW16" s="80"/>
-      <c r="AX16" s="81"/>
-      <c r="BD16" s="79" t="s">
+      <c r="AV16" s="74"/>
+      <c r="AW16" s="74"/>
+      <c r="AX16" s="75"/>
+      <c r="BD16" s="73" t="s">
         <v>80</v>
       </c>
-      <c r="BE16" s="80"/>
-      <c r="BF16" s="80"/>
-      <c r="BG16" s="81"/>
-      <c r="BM16" s="73" t="s">
+      <c r="BE16" s="74"/>
+      <c r="BF16" s="74"/>
+      <c r="BG16" s="75"/>
+      <c r="BM16" s="79" t="s">
         <v>132</v>
       </c>
-      <c r="BN16" s="74"/>
-      <c r="BO16" s="74"/>
-      <c r="BP16" s="75"/>
-      <c r="BR16" s="73" t="s">
+      <c r="BN16" s="80"/>
+      <c r="BO16" s="80"/>
+      <c r="BP16" s="81"/>
+      <c r="BR16" s="79" t="s">
         <v>133</v>
       </c>
-      <c r="BS16" s="74"/>
-      <c r="BT16" s="74"/>
-      <c r="BU16" s="75"/>
-      <c r="BW16" s="73" t="s">
+      <c r="BS16" s="80"/>
+      <c r="BT16" s="80"/>
+      <c r="BU16" s="81"/>
+      <c r="BW16" s="79" t="s">
         <v>134</v>
       </c>
-      <c r="BX16" s="74"/>
-      <c r="BY16" s="74"/>
-      <c r="BZ16" s="75"/>
+      <c r="BX16" s="80"/>
+      <c r="BY16" s="80"/>
+      <c r="BZ16" s="81"/>
     </row>
     <row r="17" spans="1:78" ht="20.100000000000001" customHeight="1">
-      <c r="D17" s="82"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="84"/>
-      <c r="J17" s="82"/>
-      <c r="K17" s="83"/>
-      <c r="L17" s="83"/>
-      <c r="M17" s="84"/>
-      <c r="P17" s="76"/>
-      <c r="Q17" s="77"/>
-      <c r="R17" s="77"/>
-      <c r="S17" s="78"/>
-      <c r="V17" s="76"/>
-      <c r="W17" s="77"/>
-      <c r="X17" s="77"/>
-      <c r="Y17" s="78"/>
-      <c r="AA17" s="76"/>
-      <c r="AB17" s="77"/>
-      <c r="AC17" s="77"/>
-      <c r="AD17" s="78"/>
-      <c r="AG17" s="76"/>
-      <c r="AH17" s="77"/>
-      <c r="AI17" s="77"/>
-      <c r="AJ17" s="78"/>
-      <c r="AL17" s="82"/>
-      <c r="AM17" s="83"/>
-      <c r="AN17" s="83"/>
-      <c r="AO17" s="84"/>
-      <c r="AU17" s="82"/>
-      <c r="AV17" s="83"/>
-      <c r="AW17" s="83"/>
-      <c r="AX17" s="84"/>
-      <c r="BD17" s="82"/>
-      <c r="BE17" s="83"/>
-      <c r="BF17" s="83"/>
-      <c r="BG17" s="84"/>
-      <c r="BM17" s="76"/>
-      <c r="BN17" s="77"/>
-      <c r="BO17" s="77"/>
-      <c r="BP17" s="78"/>
-      <c r="BR17" s="76"/>
-      <c r="BS17" s="77"/>
-      <c r="BT17" s="77"/>
-      <c r="BU17" s="78"/>
-      <c r="BW17" s="76"/>
-      <c r="BX17" s="77"/>
-      <c r="BY17" s="77"/>
-      <c r="BZ17" s="78"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="78"/>
+      <c r="J17" s="76"/>
+      <c r="K17" s="77"/>
+      <c r="L17" s="77"/>
+      <c r="M17" s="78"/>
+      <c r="P17" s="82"/>
+      <c r="Q17" s="83"/>
+      <c r="R17" s="83"/>
+      <c r="S17" s="84"/>
+      <c r="V17" s="82"/>
+      <c r="W17" s="83"/>
+      <c r="X17" s="83"/>
+      <c r="Y17" s="84"/>
+      <c r="AA17" s="82"/>
+      <c r="AB17" s="83"/>
+      <c r="AC17" s="83"/>
+      <c r="AD17" s="84"/>
+      <c r="AG17" s="82"/>
+      <c r="AH17" s="83"/>
+      <c r="AI17" s="83"/>
+      <c r="AJ17" s="84"/>
+      <c r="AL17" s="76"/>
+      <c r="AM17" s="77"/>
+      <c r="AN17" s="77"/>
+      <c r="AO17" s="78"/>
+      <c r="AU17" s="76"/>
+      <c r="AV17" s="77"/>
+      <c r="AW17" s="77"/>
+      <c r="AX17" s="78"/>
+      <c r="BD17" s="76"/>
+      <c r="BE17" s="77"/>
+      <c r="BF17" s="77"/>
+      <c r="BG17" s="78"/>
+      <c r="BM17" s="82"/>
+      <c r="BN17" s="83"/>
+      <c r="BO17" s="83"/>
+      <c r="BP17" s="84"/>
+      <c r="BR17" s="82"/>
+      <c r="BS17" s="83"/>
+      <c r="BT17" s="83"/>
+      <c r="BU17" s="84"/>
+      <c r="BW17" s="82"/>
+      <c r="BX17" s="83"/>
+      <c r="BY17" s="83"/>
+      <c r="BZ17" s="84"/>
     </row>
     <row r="18" spans="1:78" ht="20.100000000000001" customHeight="1">
       <c r="I18" s="3"/>
@@ -4664,88 +4667,88 @@
       <c r="BE19" s="2"/>
     </row>
     <row r="20" spans="1:78" ht="20.100000000000001" customHeight="1">
-      <c r="G20" s="79" t="s">
+      <c r="G20" s="73" t="s">
         <v>57</v>
       </c>
-      <c r="H20" s="80"/>
-      <c r="I20" s="80"/>
-      <c r="J20" s="81"/>
-      <c r="M20" s="79" t="s">
+      <c r="H20" s="74"/>
+      <c r="I20" s="74"/>
+      <c r="J20" s="75"/>
+      <c r="M20" s="73" t="s">
         <v>81</v>
       </c>
-      <c r="N20" s="80"/>
-      <c r="O20" s="80"/>
-      <c r="P20" s="81"/>
-      <c r="AR20" s="73" t="s">
+      <c r="N20" s="74"/>
+      <c r="O20" s="74"/>
+      <c r="P20" s="75"/>
+      <c r="AR20" s="79" t="s">
         <v>77</v>
       </c>
-      <c r="AS20" s="74"/>
-      <c r="AT20" s="74"/>
-      <c r="AU20" s="75"/>
-      <c r="AX20" s="73" t="s">
+      <c r="AS20" s="80"/>
+      <c r="AT20" s="80"/>
+      <c r="AU20" s="81"/>
+      <c r="AX20" s="79" t="s">
         <v>78</v>
       </c>
-      <c r="AY20" s="74"/>
-      <c r="AZ20" s="74"/>
-      <c r="BA20" s="75"/>
-      <c r="BD20" s="73" t="s">
+      <c r="AY20" s="80"/>
+      <c r="AZ20" s="80"/>
+      <c r="BA20" s="81"/>
+      <c r="BD20" s="79" t="s">
         <v>82</v>
       </c>
-      <c r="BE20" s="74"/>
-      <c r="BF20" s="74"/>
-      <c r="BG20" s="75"/>
-      <c r="BM20" s="73" t="s">
+      <c r="BE20" s="80"/>
+      <c r="BF20" s="80"/>
+      <c r="BG20" s="81"/>
+      <c r="BM20" s="79" t="s">
         <v>137</v>
       </c>
-      <c r="BN20" s="74"/>
-      <c r="BO20" s="74"/>
-      <c r="BP20" s="75"/>
-      <c r="BR20" s="73" t="s">
+      <c r="BN20" s="80"/>
+      <c r="BO20" s="80"/>
+      <c r="BP20" s="81"/>
+      <c r="BR20" s="79" t="s">
         <v>135</v>
       </c>
-      <c r="BS20" s="74"/>
-      <c r="BT20" s="74"/>
-      <c r="BU20" s="75"/>
-      <c r="BW20" s="73" t="s">
+      <c r="BS20" s="80"/>
+      <c r="BT20" s="80"/>
+      <c r="BU20" s="81"/>
+      <c r="BW20" s="79" t="s">
         <v>137</v>
       </c>
-      <c r="BX20" s="74"/>
-      <c r="BY20" s="74"/>
-      <c r="BZ20" s="75"/>
+      <c r="BX20" s="80"/>
+      <c r="BY20" s="80"/>
+      <c r="BZ20" s="81"/>
     </row>
     <row r="21" spans="1:78" ht="20.100000000000001" customHeight="1">
-      <c r="G21" s="82"/>
-      <c r="H21" s="83"/>
-      <c r="I21" s="83"/>
-      <c r="J21" s="84"/>
-      <c r="M21" s="82"/>
-      <c r="N21" s="83"/>
-      <c r="O21" s="83"/>
-      <c r="P21" s="84"/>
-      <c r="AR21" s="76"/>
-      <c r="AS21" s="77"/>
-      <c r="AT21" s="77"/>
-      <c r="AU21" s="78"/>
-      <c r="AX21" s="76"/>
-      <c r="AY21" s="77"/>
-      <c r="AZ21" s="77"/>
-      <c r="BA21" s="78"/>
-      <c r="BD21" s="76"/>
-      <c r="BE21" s="77"/>
-      <c r="BF21" s="77"/>
-      <c r="BG21" s="78"/>
-      <c r="BM21" s="76"/>
-      <c r="BN21" s="77"/>
-      <c r="BO21" s="77"/>
-      <c r="BP21" s="78"/>
-      <c r="BR21" s="76"/>
-      <c r="BS21" s="77"/>
-      <c r="BT21" s="77"/>
-      <c r="BU21" s="78"/>
-      <c r="BW21" s="76"/>
-      <c r="BX21" s="77"/>
-      <c r="BY21" s="77"/>
-      <c r="BZ21" s="78"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="77"/>
+      <c r="I21" s="77"/>
+      <c r="J21" s="78"/>
+      <c r="M21" s="76"/>
+      <c r="N21" s="77"/>
+      <c r="O21" s="77"/>
+      <c r="P21" s="78"/>
+      <c r="AR21" s="82"/>
+      <c r="AS21" s="83"/>
+      <c r="AT21" s="83"/>
+      <c r="AU21" s="84"/>
+      <c r="AX21" s="82"/>
+      <c r="AY21" s="83"/>
+      <c r="AZ21" s="83"/>
+      <c r="BA21" s="84"/>
+      <c r="BD21" s="82"/>
+      <c r="BE21" s="83"/>
+      <c r="BF21" s="83"/>
+      <c r="BG21" s="84"/>
+      <c r="BM21" s="82"/>
+      <c r="BN21" s="83"/>
+      <c r="BO21" s="83"/>
+      <c r="BP21" s="84"/>
+      <c r="BR21" s="82"/>
+      <c r="BS21" s="83"/>
+      <c r="BT21" s="83"/>
+      <c r="BU21" s="84"/>
+      <c r="BW21" s="82"/>
+      <c r="BX21" s="83"/>
+      <c r="BY21" s="83"/>
+      <c r="BZ21" s="84"/>
     </row>
     <row r="22" spans="1:78" ht="20.100000000000001" customHeight="1">
       <c r="AS22" s="1"/>
@@ -4756,41 +4759,63 @@
       <c r="AY23" s="2"/>
     </row>
     <row r="24" spans="1:78" ht="20.100000000000001" customHeight="1">
-      <c r="AR24" s="79" t="s">
+      <c r="AR24" s="73" t="s">
         <v>84</v>
       </c>
-      <c r="AS24" s="80"/>
-      <c r="AT24" s="80"/>
-      <c r="AU24" s="81"/>
-      <c r="AX24" s="73" t="s">
+      <c r="AS24" s="74"/>
+      <c r="AT24" s="74"/>
+      <c r="AU24" s="75"/>
+      <c r="AX24" s="79" t="s">
         <v>83</v>
       </c>
-      <c r="AY24" s="74"/>
-      <c r="AZ24" s="74"/>
-      <c r="BA24" s="75"/>
-      <c r="BR24" s="73" t="s">
+      <c r="AY24" s="80"/>
+      <c r="AZ24" s="80"/>
+      <c r="BA24" s="81"/>
+      <c r="BR24" s="79" t="s">
         <v>136</v>
       </c>
-      <c r="BS24" s="74"/>
-      <c r="BT24" s="74"/>
-      <c r="BU24" s="75"/>
+      <c r="BS24" s="80"/>
+      <c r="BT24" s="80"/>
+      <c r="BU24" s="81"/>
     </row>
     <row r="25" spans="1:78" ht="20.100000000000001" customHeight="1">
-      <c r="AR25" s="82"/>
-      <c r="AS25" s="83"/>
-      <c r="AT25" s="83"/>
-      <c r="AU25" s="84"/>
-      <c r="AX25" s="76"/>
-      <c r="AY25" s="77"/>
-      <c r="AZ25" s="77"/>
-      <c r="BA25" s="78"/>
-      <c r="BR25" s="76"/>
-      <c r="BS25" s="77"/>
-      <c r="BT25" s="77"/>
-      <c r="BU25" s="78"/>
+      <c r="AR25" s="76"/>
+      <c r="AS25" s="77"/>
+      <c r="AT25" s="77"/>
+      <c r="AU25" s="78"/>
+      <c r="AX25" s="82"/>
+      <c r="AY25" s="83"/>
+      <c r="AZ25" s="83"/>
+      <c r="BA25" s="84"/>
+      <c r="BR25" s="82"/>
+      <c r="BS25" s="83"/>
+      <c r="BT25" s="83"/>
+      <c r="BU25" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="BW8:BZ9"/>
+    <mergeCell ref="BR12:BU13"/>
+    <mergeCell ref="CC12:CF13"/>
+    <mergeCell ref="BM16:BP17"/>
+    <mergeCell ref="BR16:BU17"/>
+    <mergeCell ref="BW16:BZ17"/>
+    <mergeCell ref="BR20:BU21"/>
+    <mergeCell ref="BM20:BP21"/>
+    <mergeCell ref="BR24:BU25"/>
+    <mergeCell ref="BW20:BZ21"/>
+    <mergeCell ref="S4:V5"/>
+    <mergeCell ref="AD8:AG9"/>
+    <mergeCell ref="AL16:AO17"/>
+    <mergeCell ref="AA16:AD17"/>
+    <mergeCell ref="P12:S13"/>
+    <mergeCell ref="P16:S17"/>
+    <mergeCell ref="Y12:AB13"/>
+    <mergeCell ref="AI12:AL13"/>
+    <mergeCell ref="AG16:AJ17"/>
+    <mergeCell ref="P8:S9"/>
+    <mergeCell ref="V16:Y17"/>
+    <mergeCell ref="BD16:BG17"/>
     <mergeCell ref="BD20:BG21"/>
     <mergeCell ref="M20:P21"/>
     <mergeCell ref="AY8:BB9"/>
@@ -4807,28 +4832,6 @@
     <mergeCell ref="J16:M17"/>
     <mergeCell ref="D16:G17"/>
     <mergeCell ref="J12:M13"/>
-    <mergeCell ref="BR20:BU21"/>
-    <mergeCell ref="BM20:BP21"/>
-    <mergeCell ref="BR24:BU25"/>
-    <mergeCell ref="BW20:BZ21"/>
-    <mergeCell ref="S4:V5"/>
-    <mergeCell ref="AD8:AG9"/>
-    <mergeCell ref="AL16:AO17"/>
-    <mergeCell ref="AA16:AD17"/>
-    <mergeCell ref="P12:S13"/>
-    <mergeCell ref="P16:S17"/>
-    <mergeCell ref="Y12:AB13"/>
-    <mergeCell ref="AI12:AL13"/>
-    <mergeCell ref="AG16:AJ17"/>
-    <mergeCell ref="P8:S9"/>
-    <mergeCell ref="V16:Y17"/>
-    <mergeCell ref="BD16:BG17"/>
-    <mergeCell ref="BW8:BZ9"/>
-    <mergeCell ref="BR12:BU13"/>
-    <mergeCell ref="CC12:CF13"/>
-    <mergeCell ref="BM16:BP17"/>
-    <mergeCell ref="BR16:BU17"/>
-    <mergeCell ref="BW16:BZ17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4837,7 +4840,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B4:BF54"/>
   <sheetViews>
     <sheetView topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -4858,12 +4861,12 @@
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
       <c r="U4" s="4"/>
-      <c r="V4" s="79" t="s">
+      <c r="V4" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="W4" s="80"/>
-      <c r="X4" s="80"/>
-      <c r="Y4" s="81"/>
+      <c r="W4" s="74"/>
+      <c r="X4" s="74"/>
+      <c r="Y4" s="75"/>
       <c r="Z4" s="4"/>
       <c r="AA4" s="4"/>
       <c r="AB4" s="4"/>
@@ -4896,10 +4899,10 @@
       <c r="S5" s="4"/>
       <c r="T5" s="4"/>
       <c r="U5" s="4"/>
-      <c r="V5" s="82"/>
-      <c r="W5" s="83"/>
-      <c r="X5" s="83"/>
-      <c r="Y5" s="84"/>
+      <c r="V5" s="76"/>
+      <c r="W5" s="77"/>
+      <c r="X5" s="77"/>
+      <c r="Y5" s="78"/>
       <c r="Z5" s="4"/>
       <c r="AA5" s="4"/>
       <c r="AB5" s="4"/>
@@ -5003,12 +5006,12 @@
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
-      <c r="L8" s="79" t="s">
+      <c r="L8" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="M8" s="80"/>
-      <c r="N8" s="80"/>
-      <c r="O8" s="81"/>
+      <c r="M8" s="74"/>
+      <c r="N8" s="74"/>
+      <c r="O8" s="75"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
@@ -5017,29 +5020,29 @@
       <c r="Y8" s="4"/>
       <c r="Z8" s="4"/>
       <c r="AE8" s="4"/>
-      <c r="AF8" s="79" t="s">
+      <c r="AF8" s="73" t="s">
         <v>62</v>
       </c>
-      <c r="AG8" s="80"/>
-      <c r="AH8" s="80"/>
-      <c r="AI8" s="81"/>
+      <c r="AG8" s="74"/>
+      <c r="AH8" s="74"/>
+      <c r="AI8" s="75"/>
       <c r="AJ8" s="4"/>
       <c r="AK8" s="4"/>
       <c r="AL8" s="4"/>
       <c r="AM8" s="4"/>
       <c r="AN8" s="4"/>
-      <c r="AQ8" s="79" t="s">
+      <c r="AQ8" s="73" t="s">
         <v>70</v>
       </c>
-      <c r="AR8" s="80"/>
-      <c r="AS8" s="80"/>
-      <c r="AT8" s="81"/>
-      <c r="AW8" s="79" t="s">
+      <c r="AR8" s="74"/>
+      <c r="AS8" s="74"/>
+      <c r="AT8" s="75"/>
+      <c r="AW8" s="73" t="s">
         <v>72</v>
       </c>
-      <c r="AX8" s="80"/>
-      <c r="AY8" s="80"/>
-      <c r="AZ8" s="81"/>
+      <c r="AX8" s="74"/>
+      <c r="AY8" s="74"/>
+      <c r="AZ8" s="75"/>
     </row>
     <row r="9" spans="2:52" ht="20.100000000000001" customHeight="1">
       <c r="C9" s="4"/>
@@ -5051,10 +5054,10 @@
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
-      <c r="L9" s="82"/>
-      <c r="M9" s="83"/>
-      <c r="N9" s="83"/>
-      <c r="O9" s="84"/>
+      <c r="L9" s="76"/>
+      <c r="M9" s="77"/>
+      <c r="N9" s="77"/>
+      <c r="O9" s="78"/>
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
@@ -5068,23 +5071,23 @@
       <c r="AC9" s="4"/>
       <c r="AD9" s="4"/>
       <c r="AE9" s="4"/>
-      <c r="AF9" s="82"/>
-      <c r="AG9" s="83"/>
-      <c r="AH9" s="83"/>
-      <c r="AI9" s="84"/>
+      <c r="AF9" s="76"/>
+      <c r="AG9" s="77"/>
+      <c r="AH9" s="77"/>
+      <c r="AI9" s="78"/>
       <c r="AJ9" s="4"/>
       <c r="AK9" s="4"/>
       <c r="AL9" s="4"/>
       <c r="AM9" s="4"/>
       <c r="AN9" s="4"/>
-      <c r="AQ9" s="82"/>
-      <c r="AR9" s="83"/>
-      <c r="AS9" s="83"/>
-      <c r="AT9" s="84"/>
-      <c r="AW9" s="82"/>
-      <c r="AX9" s="83"/>
-      <c r="AY9" s="83"/>
-      <c r="AZ9" s="84"/>
+      <c r="AQ9" s="76"/>
+      <c r="AR9" s="77"/>
+      <c r="AS9" s="77"/>
+      <c r="AT9" s="78"/>
+      <c r="AW9" s="76"/>
+      <c r="AX9" s="77"/>
+      <c r="AY9" s="77"/>
+      <c r="AZ9" s="78"/>
     </row>
     <row r="10" spans="2:52" ht="20.100000000000001" customHeight="1">
       <c r="C10" s="4"/>
@@ -5169,119 +5172,119 @@
       <c r="AR11" s="2"/>
     </row>
     <row r="12" spans="2:52" ht="20.100000000000001" customHeight="1">
-      <c r="B12" s="79" t="s">
+      <c r="B12" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="80"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="81"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="75"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="73" t="s">
+      <c r="G12" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="H12" s="74"/>
-      <c r="I12" s="74"/>
-      <c r="J12" s="75"/>
-      <c r="L12" s="73" t="s">
+      <c r="H12" s="80"/>
+      <c r="I12" s="80"/>
+      <c r="J12" s="81"/>
+      <c r="L12" s="79" t="s">
         <v>69</v>
       </c>
-      <c r="M12" s="74"/>
-      <c r="N12" s="74"/>
-      <c r="O12" s="75"/>
+      <c r="M12" s="80"/>
+      <c r="N12" s="80"/>
+      <c r="O12" s="81"/>
       <c r="P12" s="4"/>
-      <c r="Q12" s="73" t="s">
+      <c r="Q12" s="79" t="s">
         <v>57</v>
       </c>
-      <c r="R12" s="74"/>
-      <c r="S12" s="74"/>
-      <c r="T12" s="75"/>
+      <c r="R12" s="80"/>
+      <c r="S12" s="80"/>
+      <c r="T12" s="81"/>
       <c r="U12" s="4"/>
-      <c r="V12" s="73" t="s">
+      <c r="V12" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="W12" s="74"/>
-      <c r="X12" s="74"/>
-      <c r="Y12" s="75"/>
+      <c r="W12" s="80"/>
+      <c r="X12" s="80"/>
+      <c r="Y12" s="81"/>
       <c r="Z12" s="4"/>
-      <c r="AA12" s="79" t="s">
+      <c r="AA12" s="73" t="s">
         <v>59</v>
       </c>
-      <c r="AB12" s="80"/>
-      <c r="AC12" s="80"/>
-      <c r="AD12" s="81"/>
+      <c r="AB12" s="74"/>
+      <c r="AC12" s="74"/>
+      <c r="AD12" s="75"/>
       <c r="AE12" s="4"/>
-      <c r="AF12" s="79" t="s">
+      <c r="AF12" s="73" t="s">
         <v>60</v>
       </c>
-      <c r="AG12" s="80"/>
-      <c r="AH12" s="80"/>
-      <c r="AI12" s="81"/>
+      <c r="AG12" s="74"/>
+      <c r="AH12" s="74"/>
+      <c r="AI12" s="75"/>
       <c r="AJ12" s="4"/>
-      <c r="AK12" s="79" t="s">
+      <c r="AK12" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="AL12" s="80"/>
-      <c r="AM12" s="80"/>
-      <c r="AN12" s="81"/>
-      <c r="AQ12" s="79" t="s">
+      <c r="AL12" s="74"/>
+      <c r="AM12" s="74"/>
+      <c r="AN12" s="75"/>
+      <c r="AQ12" s="73" t="s">
         <v>71</v>
       </c>
-      <c r="AR12" s="80"/>
-      <c r="AS12" s="80"/>
-      <c r="AT12" s="81"/>
-      <c r="AW12" s="79" t="s">
+      <c r="AR12" s="74"/>
+      <c r="AS12" s="74"/>
+      <c r="AT12" s="75"/>
+      <c r="AW12" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="AX12" s="80"/>
-      <c r="AY12" s="80"/>
-      <c r="AZ12" s="81"/>
+      <c r="AX12" s="74"/>
+      <c r="AY12" s="74"/>
+      <c r="AZ12" s="75"/>
     </row>
     <row r="13" spans="2:52" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="82"/>
-      <c r="C13" s="83"/>
-      <c r="D13" s="83"/>
-      <c r="E13" s="84"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="78"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="76"/>
-      <c r="H13" s="77"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="78"/>
-      <c r="L13" s="76"/>
-      <c r="M13" s="77"/>
-      <c r="N13" s="77"/>
-      <c r="O13" s="78"/>
-      <c r="Q13" s="76"/>
-      <c r="R13" s="77"/>
-      <c r="S13" s="77"/>
-      <c r="T13" s="78"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="83"/>
+      <c r="J13" s="84"/>
+      <c r="L13" s="82"/>
+      <c r="M13" s="83"/>
+      <c r="N13" s="83"/>
+      <c r="O13" s="84"/>
+      <c r="Q13" s="82"/>
+      <c r="R13" s="83"/>
+      <c r="S13" s="83"/>
+      <c r="T13" s="84"/>
       <c r="U13" s="4"/>
-      <c r="V13" s="76"/>
-      <c r="W13" s="77"/>
-      <c r="X13" s="77"/>
-      <c r="Y13" s="78"/>
+      <c r="V13" s="82"/>
+      <c r="W13" s="83"/>
+      <c r="X13" s="83"/>
+      <c r="Y13" s="84"/>
       <c r="Z13" s="4"/>
-      <c r="AA13" s="82"/>
-      <c r="AB13" s="83"/>
-      <c r="AC13" s="83"/>
-      <c r="AD13" s="84"/>
+      <c r="AA13" s="76"/>
+      <c r="AB13" s="77"/>
+      <c r="AC13" s="77"/>
+      <c r="AD13" s="78"/>
       <c r="AE13" s="4"/>
-      <c r="AF13" s="82"/>
-      <c r="AG13" s="83"/>
-      <c r="AH13" s="83"/>
-      <c r="AI13" s="84"/>
+      <c r="AF13" s="76"/>
+      <c r="AG13" s="77"/>
+      <c r="AH13" s="77"/>
+      <c r="AI13" s="78"/>
       <c r="AJ13" s="4"/>
-      <c r="AK13" s="82"/>
-      <c r="AL13" s="83"/>
-      <c r="AM13" s="83"/>
-      <c r="AN13" s="84"/>
-      <c r="AQ13" s="82"/>
-      <c r="AR13" s="83"/>
-      <c r="AS13" s="83"/>
-      <c r="AT13" s="84"/>
-      <c r="AW13" s="82"/>
-      <c r="AX13" s="83"/>
-      <c r="AY13" s="83"/>
-      <c r="AZ13" s="84"/>
+      <c r="AK13" s="76"/>
+      <c r="AL13" s="77"/>
+      <c r="AM13" s="77"/>
+      <c r="AN13" s="78"/>
+      <c r="AQ13" s="76"/>
+      <c r="AR13" s="77"/>
+      <c r="AS13" s="77"/>
+      <c r="AT13" s="78"/>
+      <c r="AW13" s="76"/>
+      <c r="AX13" s="77"/>
+      <c r="AY13" s="77"/>
+      <c r="AZ13" s="78"/>
     </row>
     <row r="14" spans="2:52" ht="20.100000000000001" customHeight="1">
       <c r="C14" s="1"/>
@@ -5347,25 +5350,25 @@
       <c r="AN15" s="4"/>
     </row>
     <row r="16" spans="2:52" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="73" t="s">
+      <c r="B16" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="74"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="75"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="81"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="73" t="s">
+      <c r="G16" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="H16" s="74"/>
-      <c r="I16" s="74"/>
-      <c r="J16" s="75"/>
-      <c r="L16" s="73" t="s">
+      <c r="H16" s="80"/>
+      <c r="I16" s="80"/>
+      <c r="J16" s="81"/>
+      <c r="L16" s="79" t="s">
         <v>63</v>
       </c>
-      <c r="M16" s="74"/>
-      <c r="N16" s="74"/>
-      <c r="O16" s="75"/>
+      <c r="M16" s="80"/>
+      <c r="N16" s="80"/>
+      <c r="O16" s="81"/>
       <c r="P16" s="10"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="13"/>
@@ -5374,58 +5377,58 @@
       <c r="U16" s="3"/>
       <c r="V16" s="2"/>
       <c r="W16" s="12"/>
-      <c r="AA16" s="79" t="s">
+      <c r="AA16" s="73" t="s">
         <v>66</v>
       </c>
-      <c r="AB16" s="80"/>
-      <c r="AC16" s="80"/>
-      <c r="AD16" s="81"/>
+      <c r="AB16" s="74"/>
+      <c r="AC16" s="74"/>
+      <c r="AD16" s="75"/>
       <c r="AE16" s="4"/>
       <c r="AJ16" s="4"/>
-      <c r="AK16" s="79" t="s">
+      <c r="AK16" s="73" t="s">
         <v>67</v>
       </c>
-      <c r="AL16" s="80"/>
-      <c r="AM16" s="80"/>
-      <c r="AN16" s="81"/>
-      <c r="AW16" s="73" t="s">
+      <c r="AL16" s="74"/>
+      <c r="AM16" s="74"/>
+      <c r="AN16" s="75"/>
+      <c r="AW16" s="79" t="s">
         <v>74</v>
       </c>
-      <c r="AX16" s="74"/>
-      <c r="AY16" s="74"/>
-      <c r="AZ16" s="75"/>
+      <c r="AX16" s="80"/>
+      <c r="AY16" s="80"/>
+      <c r="AZ16" s="81"/>
     </row>
     <row r="17" spans="2:58" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="76"/>
-      <c r="C17" s="77"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="78"/>
+      <c r="B17" s="82"/>
+      <c r="C17" s="83"/>
+      <c r="D17" s="83"/>
+      <c r="E17" s="84"/>
       <c r="F17" s="4"/>
-      <c r="G17" s="76"/>
-      <c r="H17" s="77"/>
-      <c r="I17" s="77"/>
-      <c r="J17" s="78"/>
-      <c r="L17" s="76"/>
-      <c r="M17" s="77"/>
-      <c r="N17" s="77"/>
-      <c r="O17" s="78"/>
+      <c r="G17" s="82"/>
+      <c r="H17" s="83"/>
+      <c r="I17" s="83"/>
+      <c r="J17" s="84"/>
+      <c r="L17" s="82"/>
+      <c r="M17" s="83"/>
+      <c r="N17" s="83"/>
+      <c r="O17" s="84"/>
       <c r="R17" s="12"/>
       <c r="U17" s="4"/>
       <c r="W17" s="12"/>
-      <c r="AA17" s="82"/>
-      <c r="AB17" s="83"/>
-      <c r="AC17" s="83"/>
-      <c r="AD17" s="84"/>
+      <c r="AA17" s="76"/>
+      <c r="AB17" s="77"/>
+      <c r="AC17" s="77"/>
+      <c r="AD17" s="78"/>
       <c r="AE17" s="4"/>
       <c r="AJ17" s="4"/>
-      <c r="AK17" s="82"/>
-      <c r="AL17" s="83"/>
-      <c r="AM17" s="83"/>
-      <c r="AN17" s="84"/>
-      <c r="AW17" s="76"/>
-      <c r="AX17" s="77"/>
-      <c r="AY17" s="77"/>
-      <c r="AZ17" s="78"/>
+      <c r="AK17" s="76"/>
+      <c r="AL17" s="77"/>
+      <c r="AM17" s="77"/>
+      <c r="AN17" s="78"/>
+      <c r="AW17" s="82"/>
+      <c r="AX17" s="83"/>
+      <c r="AY17" s="83"/>
+      <c r="AZ17" s="84"/>
       <c r="BF17" s="4"/>
     </row>
     <row r="18" spans="2:58" ht="20.100000000000001" customHeight="1">
@@ -5759,6 +5762,19 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="AQ8:AT9"/>
+    <mergeCell ref="AQ12:AT13"/>
+    <mergeCell ref="AW8:AZ9"/>
+    <mergeCell ref="AW12:AZ13"/>
+    <mergeCell ref="AW16:AZ17"/>
+    <mergeCell ref="B16:E17"/>
+    <mergeCell ref="L8:O9"/>
+    <mergeCell ref="V4:Y5"/>
+    <mergeCell ref="AF12:AI13"/>
+    <mergeCell ref="B12:E13"/>
+    <mergeCell ref="AA12:AD13"/>
+    <mergeCell ref="G16:J17"/>
+    <mergeCell ref="AA16:AD17"/>
     <mergeCell ref="AK16:AN17"/>
     <mergeCell ref="G12:J13"/>
     <mergeCell ref="AF8:AI9"/>
@@ -5767,19 +5783,6 @@
     <mergeCell ref="Q12:T13"/>
     <mergeCell ref="V12:Y13"/>
     <mergeCell ref="AK12:AN13"/>
-    <mergeCell ref="B16:E17"/>
-    <mergeCell ref="L8:O9"/>
-    <mergeCell ref="V4:Y5"/>
-    <mergeCell ref="AF12:AI13"/>
-    <mergeCell ref="B12:E13"/>
-    <mergeCell ref="AA12:AD13"/>
-    <mergeCell ref="G16:J17"/>
-    <mergeCell ref="AA16:AD17"/>
-    <mergeCell ref="AQ8:AT9"/>
-    <mergeCell ref="AQ12:AT13"/>
-    <mergeCell ref="AW8:AZ9"/>
-    <mergeCell ref="AW12:AZ13"/>
-    <mergeCell ref="AW16:AZ17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5788,7 +5791,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:AE95"/>
   <sheetViews>
     <sheetView topLeftCell="A38" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -5806,18 +5809,18 @@
       <c r="AA2" s="4"/>
     </row>
     <row r="4" spans="2:31" ht="20.100000000000001" customHeight="1">
-      <c r="O4" s="79" t="s">
+      <c r="O4" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="P4" s="80"/>
-      <c r="Q4" s="80"/>
-      <c r="R4" s="81"/>
+      <c r="P4" s="74"/>
+      <c r="Q4" s="74"/>
+      <c r="R4" s="75"/>
     </row>
     <row r="5" spans="2:31" ht="20.100000000000001" customHeight="1">
-      <c r="O5" s="82"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="84"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="78"/>
     </row>
     <row r="6" spans="2:31" ht="20.100000000000001" customHeight="1">
       <c r="D6" s="3"/>
@@ -5856,82 +5859,82 @@
       <c r="AC7" s="5"/>
     </row>
     <row r="8" spans="2:31" ht="20.100000000000001" customHeight="1">
-      <c r="B8" s="79" t="s">
+      <c r="B8" s="73" t="s">
         <v>104</v>
       </c>
-      <c r="C8" s="80"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="81"/>
-      <c r="G8" s="79" t="s">
+      <c r="C8" s="74"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="75"/>
+      <c r="G8" s="73" t="s">
         <v>105</v>
       </c>
-      <c r="H8" s="80"/>
-      <c r="I8" s="80"/>
-      <c r="J8" s="81"/>
-      <c r="L8" s="79" t="s">
+      <c r="H8" s="74"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="75"/>
+      <c r="L8" s="73" t="s">
         <v>128</v>
       </c>
-      <c r="M8" s="80"/>
-      <c r="N8" s="80"/>
-      <c r="O8" s="81"/>
-      <c r="R8" s="79" t="s">
+      <c r="M8" s="74"/>
+      <c r="N8" s="74"/>
+      <c r="O8" s="75"/>
+      <c r="R8" s="73" t="s">
         <v>106</v>
       </c>
-      <c r="S8" s="80"/>
-      <c r="T8" s="80"/>
-      <c r="U8" s="81"/>
-      <c r="W8" s="79" t="s">
+      <c r="S8" s="74"/>
+      <c r="T8" s="74"/>
+      <c r="U8" s="75"/>
+      <c r="W8" s="73" t="s">
         <v>124</v>
       </c>
-      <c r="X8" s="80"/>
-      <c r="Y8" s="80"/>
-      <c r="Z8" s="81"/>
-      <c r="AB8" s="79" t="s">
+      <c r="X8" s="74"/>
+      <c r="Y8" s="74"/>
+      <c r="Z8" s="75"/>
+      <c r="AB8" s="73" t="s">
         <v>125</v>
       </c>
-      <c r="AC8" s="80"/>
-      <c r="AD8" s="80"/>
-      <c r="AE8" s="81"/>
+      <c r="AC8" s="74"/>
+      <c r="AD8" s="74"/>
+      <c r="AE8" s="75"/>
     </row>
     <row r="9" spans="2:31" ht="20.100000000000001" customHeight="1">
-      <c r="B9" s="82"/>
-      <c r="C9" s="83"/>
-      <c r="D9" s="83"/>
-      <c r="E9" s="84"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="83"/>
-      <c r="J9" s="84"/>
-      <c r="L9" s="82"/>
-      <c r="M9" s="83"/>
-      <c r="N9" s="83"/>
-      <c r="O9" s="84"/>
-      <c r="R9" s="82"/>
-      <c r="S9" s="83"/>
-      <c r="T9" s="83"/>
-      <c r="U9" s="84"/>
-      <c r="W9" s="82"/>
-      <c r="X9" s="83"/>
-      <c r="Y9" s="83"/>
-      <c r="Z9" s="84"/>
-      <c r="AB9" s="82"/>
-      <c r="AC9" s="83"/>
-      <c r="AD9" s="83"/>
-      <c r="AE9" s="84"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="78"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="77"/>
+      <c r="J9" s="78"/>
+      <c r="L9" s="76"/>
+      <c r="M9" s="77"/>
+      <c r="N9" s="77"/>
+      <c r="O9" s="78"/>
+      <c r="R9" s="76"/>
+      <c r="S9" s="77"/>
+      <c r="T9" s="77"/>
+      <c r="U9" s="78"/>
+      <c r="W9" s="76"/>
+      <c r="X9" s="77"/>
+      <c r="Y9" s="77"/>
+      <c r="Z9" s="78"/>
+      <c r="AB9" s="76"/>
+      <c r="AC9" s="77"/>
+      <c r="AD9" s="77"/>
+      <c r="AE9" s="78"/>
     </row>
     <row r="13" spans="2:31" ht="20.100000000000001" customHeight="1">
-      <c r="J13" s="79" t="s">
+      <c r="J13" s="73" t="s">
         <v>104</v>
       </c>
-      <c r="K13" s="80"/>
-      <c r="L13" s="80"/>
-      <c r="M13" s="81"/>
+      <c r="K13" s="74"/>
+      <c r="L13" s="74"/>
+      <c r="M13" s="75"/>
     </row>
     <row r="14" spans="2:31" ht="20.100000000000001" customHeight="1">
-      <c r="J14" s="82"/>
-      <c r="K14" s="83"/>
-      <c r="L14" s="83"/>
-      <c r="M14" s="84"/>
+      <c r="J14" s="76"/>
+      <c r="K14" s="77"/>
+      <c r="L14" s="77"/>
+      <c r="M14" s="78"/>
     </row>
     <row r="15" spans="2:31" ht="20.100000000000001" customHeight="1">
       <c r="D15" s="3"/>
@@ -5957,38 +5960,38 @@
       <c r="T16" s="10"/>
     </row>
     <row r="17" spans="2:24" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="73" t="s">
+      <c r="B17" s="79" t="s">
         <v>110</v>
       </c>
-      <c r="C17" s="74"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="75"/>
-      <c r="J17" s="73" t="s">
+      <c r="C17" s="80"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="81"/>
+      <c r="J17" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="K17" s="74"/>
-      <c r="L17" s="74"/>
-      <c r="M17" s="75"/>
-      <c r="R17" s="73" t="s">
+      <c r="K17" s="80"/>
+      <c r="L17" s="80"/>
+      <c r="M17" s="81"/>
+      <c r="R17" s="79" t="s">
         <v>112</v>
       </c>
-      <c r="S17" s="74"/>
-      <c r="T17" s="74"/>
-      <c r="U17" s="75"/>
+      <c r="S17" s="80"/>
+      <c r="T17" s="80"/>
+      <c r="U17" s="81"/>
     </row>
     <row r="18" spans="2:24" ht="20.100000000000001" customHeight="1">
-      <c r="B18" s="76"/>
-      <c r="C18" s="77"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="78"/>
-      <c r="J18" s="76"/>
-      <c r="K18" s="77"/>
-      <c r="L18" s="77"/>
-      <c r="M18" s="78"/>
-      <c r="R18" s="76"/>
-      <c r="S18" s="77"/>
-      <c r="T18" s="77"/>
-      <c r="U18" s="78"/>
+      <c r="B18" s="82"/>
+      <c r="C18" s="83"/>
+      <c r="D18" s="83"/>
+      <c r="E18" s="84"/>
+      <c r="J18" s="82"/>
+      <c r="K18" s="83"/>
+      <c r="L18" s="83"/>
+      <c r="M18" s="84"/>
+      <c r="R18" s="82"/>
+      <c r="S18" s="83"/>
+      <c r="T18" s="83"/>
+      <c r="U18" s="84"/>
     </row>
     <row r="19" spans="2:24" ht="20.100000000000001" customHeight="1">
       <c r="C19" s="1"/>
@@ -6007,62 +6010,62 @@
       <c r="S20" s="2"/>
     </row>
     <row r="21" spans="2:24" ht="20.100000000000001" customHeight="1">
-      <c r="B21" s="73" t="s">
+      <c r="B21" s="79" t="s">
         <v>122</v>
       </c>
-      <c r="C21" s="74"/>
-      <c r="D21" s="74"/>
-      <c r="E21" s="75"/>
-      <c r="G21" s="73" t="s">
+      <c r="C21" s="80"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="81"/>
+      <c r="G21" s="79" t="s">
         <v>126</v>
       </c>
-      <c r="H21" s="74"/>
-      <c r="I21" s="74"/>
-      <c r="J21" s="75"/>
-      <c r="M21" s="73" t="s">
+      <c r="H21" s="80"/>
+      <c r="I21" s="80"/>
+      <c r="J21" s="81"/>
+      <c r="M21" s="79" t="s">
         <v>127</v>
       </c>
-      <c r="N21" s="74"/>
-      <c r="O21" s="74"/>
-      <c r="P21" s="75"/>
-      <c r="R21" s="73" t="s">
+      <c r="N21" s="80"/>
+      <c r="O21" s="80"/>
+      <c r="P21" s="81"/>
+      <c r="R21" s="79" t="s">
         <v>123</v>
       </c>
-      <c r="S21" s="74"/>
-      <c r="T21" s="74"/>
-      <c r="U21" s="75"/>
+      <c r="S21" s="80"/>
+      <c r="T21" s="80"/>
+      <c r="U21" s="81"/>
     </row>
     <row r="22" spans="2:24" ht="20.100000000000001" customHeight="1">
-      <c r="B22" s="76"/>
-      <c r="C22" s="77"/>
-      <c r="D22" s="77"/>
-      <c r="E22" s="78"/>
-      <c r="G22" s="76"/>
-      <c r="H22" s="77"/>
-      <c r="I22" s="77"/>
-      <c r="J22" s="78"/>
-      <c r="M22" s="76"/>
-      <c r="N22" s="77"/>
-      <c r="O22" s="77"/>
-      <c r="P22" s="78"/>
-      <c r="R22" s="76"/>
-      <c r="S22" s="77"/>
-      <c r="T22" s="77"/>
-      <c r="U22" s="78"/>
+      <c r="B22" s="82"/>
+      <c r="C22" s="83"/>
+      <c r="D22" s="83"/>
+      <c r="E22" s="84"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="83"/>
+      <c r="I22" s="83"/>
+      <c r="J22" s="84"/>
+      <c r="M22" s="82"/>
+      <c r="N22" s="83"/>
+      <c r="O22" s="83"/>
+      <c r="P22" s="84"/>
+      <c r="R22" s="82"/>
+      <c r="S22" s="83"/>
+      <c r="T22" s="83"/>
+      <c r="U22" s="84"/>
     </row>
     <row r="27" spans="2:24" ht="20.100000000000001" customHeight="1">
-      <c r="L27" s="79" t="s">
+      <c r="L27" s="73" t="s">
         <v>105</v>
       </c>
-      <c r="M27" s="80"/>
-      <c r="N27" s="80"/>
-      <c r="O27" s="81"/>
+      <c r="M27" s="74"/>
+      <c r="N27" s="74"/>
+      <c r="O27" s="75"/>
     </row>
     <row r="28" spans="2:24" ht="20.100000000000001" customHeight="1">
-      <c r="L28" s="82"/>
-      <c r="M28" s="83"/>
-      <c r="N28" s="83"/>
-      <c r="O28" s="84"/>
+      <c r="L28" s="76"/>
+      <c r="M28" s="77"/>
+      <c r="N28" s="77"/>
+      <c r="O28" s="78"/>
     </row>
     <row r="29" spans="2:24" ht="20.100000000000001" customHeight="1">
       <c r="D29" s="3"/>
@@ -6091,38 +6094,38 @@
       <c r="V30" s="2"/>
     </row>
     <row r="31" spans="2:24" ht="20.100000000000001" customHeight="1">
-      <c r="B31" s="73" t="s">
+      <c r="B31" s="79" t="s">
         <v>110</v>
       </c>
-      <c r="C31" s="74"/>
-      <c r="D31" s="74"/>
-      <c r="E31" s="75"/>
-      <c r="J31" s="73" t="s">
+      <c r="C31" s="80"/>
+      <c r="D31" s="80"/>
+      <c r="E31" s="81"/>
+      <c r="J31" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="K31" s="74"/>
-      <c r="L31" s="74"/>
-      <c r="M31" s="75"/>
-      <c r="U31" s="73" t="s">
+      <c r="K31" s="80"/>
+      <c r="L31" s="80"/>
+      <c r="M31" s="81"/>
+      <c r="U31" s="79" t="s">
         <v>112</v>
       </c>
-      <c r="V31" s="74"/>
-      <c r="W31" s="74"/>
-      <c r="X31" s="75"/>
+      <c r="V31" s="80"/>
+      <c r="W31" s="80"/>
+      <c r="X31" s="81"/>
     </row>
     <row r="32" spans="2:24" ht="20.100000000000001" customHeight="1">
-      <c r="B32" s="76"/>
-      <c r="C32" s="77"/>
-      <c r="D32" s="77"/>
-      <c r="E32" s="78"/>
-      <c r="J32" s="76"/>
-      <c r="K32" s="77"/>
-      <c r="L32" s="77"/>
-      <c r="M32" s="78"/>
-      <c r="U32" s="76"/>
-      <c r="V32" s="77"/>
-      <c r="W32" s="77"/>
-      <c r="X32" s="78"/>
+      <c r="B32" s="82"/>
+      <c r="C32" s="83"/>
+      <c r="D32" s="83"/>
+      <c r="E32" s="84"/>
+      <c r="J32" s="82"/>
+      <c r="K32" s="83"/>
+      <c r="L32" s="83"/>
+      <c r="M32" s="84"/>
+      <c r="U32" s="82"/>
+      <c r="V32" s="83"/>
+      <c r="W32" s="83"/>
+      <c r="X32" s="84"/>
     </row>
     <row r="33" spans="2:28" ht="20.100000000000001" customHeight="1">
       <c r="C33" s="1"/>
@@ -6147,66 +6150,66 @@
       <c r="Y34" s="5"/>
     </row>
     <row r="35" spans="2:28" ht="20.100000000000001" customHeight="1">
-      <c r="B35" s="79" t="s">
+      <c r="B35" s="73" t="s">
         <v>119</v>
       </c>
-      <c r="C35" s="80"/>
-      <c r="D35" s="80"/>
-      <c r="E35" s="81"/>
-      <c r="G35" s="79" t="s">
+      <c r="C35" s="74"/>
+      <c r="D35" s="74"/>
+      <c r="E35" s="75"/>
+      <c r="G35" s="73" t="s">
         <v>117</v>
       </c>
-      <c r="H35" s="80"/>
-      <c r="I35" s="80"/>
-      <c r="J35" s="81"/>
-      <c r="M35" s="79" t="s">
+      <c r="H35" s="74"/>
+      <c r="I35" s="74"/>
+      <c r="J35" s="75"/>
+      <c r="M35" s="73" t="s">
         <v>118</v>
       </c>
-      <c r="N35" s="80"/>
-      <c r="O35" s="80"/>
-      <c r="P35" s="81"/>
-      <c r="R35" s="79" t="s">
+      <c r="N35" s="74"/>
+      <c r="O35" s="74"/>
+      <c r="P35" s="75"/>
+      <c r="R35" s="73" t="s">
         <v>120</v>
       </c>
-      <c r="S35" s="80"/>
-      <c r="T35" s="80"/>
-      <c r="U35" s="81"/>
-      <c r="X35" s="73" t="s">
+      <c r="S35" s="74"/>
+      <c r="T35" s="74"/>
+      <c r="U35" s="75"/>
+      <c r="X35" s="79" t="s">
         <v>121</v>
       </c>
-      <c r="Y35" s="74"/>
-      <c r="Z35" s="74"/>
-      <c r="AA35" s="75"/>
+      <c r="Y35" s="80"/>
+      <c r="Z35" s="80"/>
+      <c r="AA35" s="81"/>
     </row>
     <row r="36" spans="2:28" ht="20.100000000000001" customHeight="1">
-      <c r="B36" s="82"/>
-      <c r="C36" s="83"/>
-      <c r="D36" s="83"/>
-      <c r="E36" s="84"/>
-      <c r="G36" s="82"/>
-      <c r="H36" s="83"/>
-      <c r="I36" s="83"/>
-      <c r="J36" s="84"/>
-      <c r="M36" s="82"/>
-      <c r="N36" s="83"/>
-      <c r="O36" s="83"/>
-      <c r="P36" s="84"/>
-      <c r="R36" s="82"/>
-      <c r="S36" s="83"/>
-      <c r="T36" s="83"/>
-      <c r="U36" s="84"/>
-      <c r="X36" s="76"/>
-      <c r="Y36" s="77"/>
-      <c r="Z36" s="77"/>
-      <c r="AA36" s="78"/>
+      <c r="B36" s="76"/>
+      <c r="C36" s="77"/>
+      <c r="D36" s="77"/>
+      <c r="E36" s="78"/>
+      <c r="G36" s="76"/>
+      <c r="H36" s="77"/>
+      <c r="I36" s="77"/>
+      <c r="J36" s="78"/>
+      <c r="M36" s="76"/>
+      <c r="N36" s="77"/>
+      <c r="O36" s="77"/>
+      <c r="P36" s="78"/>
+      <c r="R36" s="76"/>
+      <c r="S36" s="77"/>
+      <c r="T36" s="77"/>
+      <c r="U36" s="78"/>
+      <c r="X36" s="82"/>
+      <c r="Y36" s="83"/>
+      <c r="Z36" s="83"/>
+      <c r="AA36" s="84"/>
     </row>
     <row r="41" spans="2:28" ht="20.100000000000001" customHeight="1">
-      <c r="G41" s="79" t="s">
+      <c r="G41" s="73" t="s">
         <v>128</v>
       </c>
-      <c r="H41" s="80"/>
-      <c r="I41" s="80"/>
-      <c r="J41" s="81"/>
+      <c r="H41" s="74"/>
+      <c r="I41" s="74"/>
+      <c r="J41" s="75"/>
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
       <c r="S41" s="4"/>
@@ -6219,10 +6222,10 @@
       <c r="Z41" s="4"/>
     </row>
     <row r="42" spans="2:28" ht="20.100000000000001" customHeight="1">
-      <c r="G42" s="82"/>
-      <c r="H42" s="83"/>
-      <c r="I42" s="83"/>
-      <c r="J42" s="84"/>
+      <c r="G42" s="76"/>
+      <c r="H42" s="77"/>
+      <c r="I42" s="77"/>
+      <c r="J42" s="78"/>
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
       <c r="S42" s="4"/>
@@ -6252,38 +6255,38 @@
       <c r="M44" s="5"/>
     </row>
     <row r="45" spans="2:28" ht="20.100000000000001" customHeight="1">
-      <c r="B45" s="73" t="s">
+      <c r="B45" s="79" t="s">
         <v>110</v>
       </c>
-      <c r="C45" s="74"/>
-      <c r="D45" s="74"/>
-      <c r="E45" s="75"/>
-      <c r="G45" s="73" t="s">
+      <c r="C45" s="80"/>
+      <c r="D45" s="80"/>
+      <c r="E45" s="81"/>
+      <c r="G45" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="H45" s="74"/>
-      <c r="I45" s="74"/>
-      <c r="J45" s="75"/>
-      <c r="L45" s="73" t="s">
+      <c r="H45" s="80"/>
+      <c r="I45" s="80"/>
+      <c r="J45" s="81"/>
+      <c r="L45" s="79" t="s">
         <v>112</v>
       </c>
-      <c r="M45" s="74"/>
-      <c r="N45" s="74"/>
-      <c r="O45" s="75"/>
+      <c r="M45" s="80"/>
+      <c r="N45" s="80"/>
+      <c r="O45" s="81"/>
     </row>
     <row r="46" spans="2:28" ht="20.100000000000001" customHeight="1">
-      <c r="B46" s="76"/>
-      <c r="C46" s="77"/>
-      <c r="D46" s="77"/>
-      <c r="E46" s="78"/>
-      <c r="G46" s="76"/>
-      <c r="H46" s="77"/>
-      <c r="I46" s="77"/>
-      <c r="J46" s="78"/>
-      <c r="L46" s="76"/>
-      <c r="M46" s="77"/>
-      <c r="N46" s="77"/>
-      <c r="O46" s="78"/>
+      <c r="B46" s="82"/>
+      <c r="C46" s="83"/>
+      <c r="D46" s="83"/>
+      <c r="E46" s="84"/>
+      <c r="G46" s="82"/>
+      <c r="H46" s="83"/>
+      <c r="I46" s="83"/>
+      <c r="J46" s="84"/>
+      <c r="L46" s="82"/>
+      <c r="M46" s="83"/>
+      <c r="N46" s="83"/>
+      <c r="O46" s="84"/>
       <c r="AB46" s="4"/>
     </row>
     <row r="47" spans="2:28" ht="20.100000000000001" customHeight="1">
@@ -6306,54 +6309,54 @@
       <c r="AB48" s="4"/>
     </row>
     <row r="49" spans="2:23" ht="20.100000000000001" customHeight="1">
-      <c r="B49" s="73" t="s">
+      <c r="B49" s="79" t="s">
         <v>115</v>
       </c>
-      <c r="C49" s="74"/>
-      <c r="D49" s="74"/>
-      <c r="E49" s="75"/>
-      <c r="G49" s="73" t="s">
+      <c r="C49" s="80"/>
+      <c r="D49" s="80"/>
+      <c r="E49" s="81"/>
+      <c r="G49" s="79" t="s">
         <v>114</v>
       </c>
-      <c r="H49" s="74"/>
-      <c r="I49" s="74"/>
-      <c r="J49" s="75"/>
-      <c r="L49" s="73" t="s">
+      <c r="H49" s="80"/>
+      <c r="I49" s="80"/>
+      <c r="J49" s="81"/>
+      <c r="L49" s="79" t="s">
         <v>116</v>
       </c>
-      <c r="M49" s="74"/>
-      <c r="N49" s="74"/>
-      <c r="O49" s="75"/>
+      <c r="M49" s="80"/>
+      <c r="N49" s="80"/>
+      <c r="O49" s="81"/>
     </row>
     <row r="50" spans="2:23" ht="20.100000000000001" customHeight="1">
-      <c r="B50" s="76"/>
-      <c r="C50" s="77"/>
-      <c r="D50" s="77"/>
-      <c r="E50" s="78"/>
-      <c r="G50" s="76"/>
-      <c r="H50" s="77"/>
-      <c r="I50" s="77"/>
-      <c r="J50" s="78"/>
-      <c r="L50" s="76"/>
-      <c r="M50" s="77"/>
-      <c r="N50" s="77"/>
-      <c r="O50" s="78"/>
+      <c r="B50" s="82"/>
+      <c r="C50" s="83"/>
+      <c r="D50" s="83"/>
+      <c r="E50" s="84"/>
+      <c r="G50" s="82"/>
+      <c r="H50" s="83"/>
+      <c r="I50" s="83"/>
+      <c r="J50" s="84"/>
+      <c r="L50" s="82"/>
+      <c r="M50" s="83"/>
+      <c r="N50" s="83"/>
+      <c r="O50" s="84"/>
     </row>
     <row r="55" spans="2:23" ht="20.100000000000001" customHeight="1">
-      <c r="J55" s="79" t="s">
+      <c r="J55" s="73" t="s">
         <v>106</v>
       </c>
-      <c r="K55" s="80"/>
-      <c r="L55" s="80"/>
-      <c r="M55" s="81"/>
+      <c r="K55" s="74"/>
+      <c r="L55" s="74"/>
+      <c r="M55" s="75"/>
       <c r="T55" s="4"/>
       <c r="U55" s="4"/>
     </row>
     <row r="56" spans="2:23" ht="20.100000000000001" customHeight="1">
-      <c r="J56" s="82"/>
-      <c r="K56" s="83"/>
-      <c r="L56" s="83"/>
-      <c r="M56" s="84"/>
+      <c r="J56" s="76"/>
+      <c r="K56" s="77"/>
+      <c r="L56" s="77"/>
+      <c r="M56" s="78"/>
       <c r="T56" s="4"/>
     </row>
     <row r="57" spans="2:23" ht="20.100000000000001" customHeight="1">
@@ -6383,42 +6386,42 @@
       <c r="T58" s="4"/>
     </row>
     <row r="59" spans="2:23" ht="20.100000000000001" customHeight="1">
-      <c r="B59" s="79" t="s">
+      <c r="B59" s="73" t="s">
         <v>112</v>
       </c>
-      <c r="C59" s="80"/>
-      <c r="D59" s="80"/>
-      <c r="E59" s="81"/>
+      <c r="C59" s="74"/>
+      <c r="D59" s="74"/>
+      <c r="E59" s="75"/>
       <c r="I59" s="4"/>
-      <c r="J59" s="79" t="s">
+      <c r="J59" s="73" t="s">
         <v>109</v>
       </c>
-      <c r="K59" s="80"/>
-      <c r="L59" s="80"/>
-      <c r="M59" s="81"/>
-      <c r="R59" s="79" t="s">
+      <c r="K59" s="74"/>
+      <c r="L59" s="74"/>
+      <c r="M59" s="75"/>
+      <c r="R59" s="73" t="s">
         <v>110</v>
       </c>
-      <c r="S59" s="80"/>
-      <c r="T59" s="80"/>
-      <c r="U59" s="81"/>
+      <c r="S59" s="74"/>
+      <c r="T59" s="74"/>
+      <c r="U59" s="75"/>
     </row>
     <row r="60" spans="2:23" ht="20.100000000000001" customHeight="1">
-      <c r="B60" s="82"/>
-      <c r="C60" s="83"/>
-      <c r="D60" s="83"/>
-      <c r="E60" s="84"/>
+      <c r="B60" s="76"/>
+      <c r="C60" s="77"/>
+      <c r="D60" s="77"/>
+      <c r="E60" s="78"/>
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
-      <c r="J60" s="82"/>
-      <c r="K60" s="83"/>
-      <c r="L60" s="83"/>
-      <c r="M60" s="84"/>
-      <c r="R60" s="82"/>
-      <c r="S60" s="83"/>
-      <c r="T60" s="83"/>
-      <c r="U60" s="84"/>
+      <c r="J60" s="76"/>
+      <c r="K60" s="77"/>
+      <c r="L60" s="77"/>
+      <c r="M60" s="78"/>
+      <c r="R60" s="76"/>
+      <c r="S60" s="77"/>
+      <c r="T60" s="77"/>
+      <c r="U60" s="78"/>
     </row>
     <row r="61" spans="2:23" ht="20.100000000000001" customHeight="1">
       <c r="C61" s="1"/>
@@ -6437,64 +6440,64 @@
       <c r="S62" s="2"/>
     </row>
     <row r="63" spans="2:23" ht="20.100000000000001" customHeight="1">
-      <c r="B63" s="79" t="s">
+      <c r="B63" s="73" t="s">
         <v>113</v>
       </c>
-      <c r="C63" s="80"/>
-      <c r="D63" s="80"/>
-      <c r="E63" s="81"/>
+      <c r="C63" s="74"/>
+      <c r="D63" s="74"/>
+      <c r="E63" s="75"/>
       <c r="F63" s="4"/>
-      <c r="G63" s="73" t="s">
+      <c r="G63" s="79" t="s">
         <v>107</v>
       </c>
-      <c r="H63" s="74"/>
-      <c r="I63" s="74"/>
-      <c r="J63" s="75"/>
-      <c r="M63" s="73" t="s">
+      <c r="H63" s="80"/>
+      <c r="I63" s="80"/>
+      <c r="J63" s="81"/>
+      <c r="M63" s="79" t="s">
         <v>108</v>
       </c>
-      <c r="N63" s="74"/>
-      <c r="O63" s="74"/>
-      <c r="P63" s="75"/>
-      <c r="R63" s="79" t="s">
+      <c r="N63" s="80"/>
+      <c r="O63" s="80"/>
+      <c r="P63" s="81"/>
+      <c r="R63" s="73" t="s">
         <v>111</v>
       </c>
-      <c r="S63" s="80"/>
-      <c r="T63" s="80"/>
-      <c r="U63" s="81"/>
+      <c r="S63" s="74"/>
+      <c r="T63" s="74"/>
+      <c r="U63" s="75"/>
     </row>
     <row r="64" spans="2:23" ht="20.100000000000001" customHeight="1">
-      <c r="B64" s="82"/>
-      <c r="C64" s="83"/>
-      <c r="D64" s="83"/>
-      <c r="E64" s="84"/>
-      <c r="G64" s="76"/>
-      <c r="H64" s="77"/>
-      <c r="I64" s="77"/>
-      <c r="J64" s="78"/>
-      <c r="M64" s="76"/>
-      <c r="N64" s="77"/>
-      <c r="O64" s="77"/>
-      <c r="P64" s="78"/>
-      <c r="R64" s="82"/>
-      <c r="S64" s="83"/>
-      <c r="T64" s="83"/>
-      <c r="U64" s="84"/>
+      <c r="B64" s="76"/>
+      <c r="C64" s="77"/>
+      <c r="D64" s="77"/>
+      <c r="E64" s="78"/>
+      <c r="G64" s="82"/>
+      <c r="H64" s="83"/>
+      <c r="I64" s="83"/>
+      <c r="J64" s="84"/>
+      <c r="M64" s="82"/>
+      <c r="N64" s="83"/>
+      <c r="O64" s="83"/>
+      <c r="P64" s="84"/>
+      <c r="R64" s="76"/>
+      <c r="S64" s="77"/>
+      <c r="T64" s="77"/>
+      <c r="U64" s="78"/>
       <c r="W64" s="4"/>
     </row>
     <row r="68" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="G68" s="79" t="s">
+      <c r="G68" s="73" t="s">
         <v>124</v>
       </c>
-      <c r="H68" s="80"/>
-      <c r="I68" s="80"/>
-      <c r="J68" s="81"/>
+      <c r="H68" s="74"/>
+      <c r="I68" s="74"/>
+      <c r="J68" s="75"/>
     </row>
     <row r="69" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="G69" s="82"/>
-      <c r="H69" s="83"/>
-      <c r="I69" s="83"/>
-      <c r="J69" s="84"/>
+      <c r="G69" s="76"/>
+      <c r="H69" s="77"/>
+      <c r="I69" s="77"/>
+      <c r="J69" s="78"/>
     </row>
     <row r="70" spans="2:15" ht="20.100000000000001" customHeight="1">
       <c r="D70" s="3"/>
@@ -6514,40 +6517,40 @@
       <c r="M71" s="5"/>
     </row>
     <row r="72" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B72" s="79" t="s">
+      <c r="B72" s="73" t="s">
         <v>112</v>
       </c>
-      <c r="C72" s="80"/>
-      <c r="D72" s="80"/>
-      <c r="E72" s="81"/>
-      <c r="G72" s="79" t="s">
+      <c r="C72" s="74"/>
+      <c r="D72" s="74"/>
+      <c r="E72" s="75"/>
+      <c r="G72" s="73" t="s">
         <v>109</v>
       </c>
-      <c r="H72" s="80"/>
-      <c r="I72" s="80"/>
-      <c r="J72" s="81"/>
+      <c r="H72" s="74"/>
+      <c r="I72" s="74"/>
+      <c r="J72" s="75"/>
       <c r="K72" s="4"/>
-      <c r="L72" s="79" t="s">
+      <c r="L72" s="73" t="s">
         <v>110</v>
       </c>
-      <c r="M72" s="80"/>
-      <c r="N72" s="80"/>
-      <c r="O72" s="81"/>
+      <c r="M72" s="74"/>
+      <c r="N72" s="74"/>
+      <c r="O72" s="75"/>
     </row>
     <row r="73" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B73" s="82"/>
-      <c r="C73" s="83"/>
-      <c r="D73" s="83"/>
-      <c r="E73" s="84"/>
-      <c r="G73" s="82"/>
-      <c r="H73" s="83"/>
-      <c r="I73" s="83"/>
-      <c r="J73" s="84"/>
+      <c r="B73" s="76"/>
+      <c r="C73" s="77"/>
+      <c r="D73" s="77"/>
+      <c r="E73" s="78"/>
+      <c r="G73" s="76"/>
+      <c r="H73" s="77"/>
+      <c r="I73" s="77"/>
+      <c r="J73" s="78"/>
       <c r="K73" s="4"/>
-      <c r="L73" s="82"/>
-      <c r="M73" s="83"/>
-      <c r="N73" s="83"/>
-      <c r="O73" s="84"/>
+      <c r="L73" s="76"/>
+      <c r="M73" s="77"/>
+      <c r="N73" s="77"/>
+      <c r="O73" s="78"/>
     </row>
     <row r="74" spans="2:15" ht="20.100000000000001" customHeight="1">
       <c r="C74" s="1"/>
@@ -6560,52 +6563,52 @@
       <c r="M75" s="2"/>
     </row>
     <row r="76" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B76" s="79" t="s">
+      <c r="B76" s="73" t="s">
         <v>140</v>
       </c>
-      <c r="C76" s="80"/>
-      <c r="D76" s="80"/>
-      <c r="E76" s="81"/>
-      <c r="G76" s="73" t="s">
+      <c r="C76" s="74"/>
+      <c r="D76" s="74"/>
+      <c r="E76" s="75"/>
+      <c r="G76" s="79" t="s">
         <v>139</v>
       </c>
-      <c r="H76" s="74"/>
-      <c r="I76" s="74"/>
-      <c r="J76" s="75"/>
-      <c r="L76" s="79" t="s">
+      <c r="H76" s="80"/>
+      <c r="I76" s="80"/>
+      <c r="J76" s="81"/>
+      <c r="L76" s="73" t="s">
         <v>138</v>
       </c>
-      <c r="M76" s="80"/>
-      <c r="N76" s="80"/>
-      <c r="O76" s="81"/>
+      <c r="M76" s="74"/>
+      <c r="N76" s="74"/>
+      <c r="O76" s="75"/>
     </row>
     <row r="77" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B77" s="82"/>
-      <c r="C77" s="83"/>
-      <c r="D77" s="83"/>
-      <c r="E77" s="84"/>
-      <c r="G77" s="76"/>
-      <c r="H77" s="77"/>
-      <c r="I77" s="77"/>
-      <c r="J77" s="78"/>
-      <c r="L77" s="82"/>
-      <c r="M77" s="83"/>
-      <c r="N77" s="83"/>
-      <c r="O77" s="84"/>
+      <c r="B77" s="76"/>
+      <c r="C77" s="77"/>
+      <c r="D77" s="77"/>
+      <c r="E77" s="78"/>
+      <c r="G77" s="82"/>
+      <c r="H77" s="83"/>
+      <c r="I77" s="83"/>
+      <c r="J77" s="84"/>
+      <c r="L77" s="76"/>
+      <c r="M77" s="77"/>
+      <c r="N77" s="77"/>
+      <c r="O77" s="78"/>
     </row>
     <row r="82" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B82" s="79" t="s">
+      <c r="B82" s="73" t="s">
         <v>125</v>
       </c>
-      <c r="C82" s="80"/>
-      <c r="D82" s="80"/>
-      <c r="E82" s="81"/>
+      <c r="C82" s="74"/>
+      <c r="D82" s="74"/>
+      <c r="E82" s="75"/>
     </row>
     <row r="83" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B83" s="82"/>
-      <c r="C83" s="83"/>
-      <c r="D83" s="83"/>
-      <c r="E83" s="84"/>
+      <c r="B83" s="76"/>
+      <c r="C83" s="77"/>
+      <c r="D83" s="77"/>
+      <c r="E83" s="78"/>
     </row>
     <row r="84" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="C84" s="1"/>
@@ -6614,18 +6617,18 @@
       <c r="C85" s="2"/>
     </row>
     <row r="86" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B86" s="79" t="s">
+      <c r="B86" s="73" t="s">
         <v>110</v>
       </c>
-      <c r="C86" s="80"/>
-      <c r="D86" s="80"/>
-      <c r="E86" s="81"/>
+      <c r="C86" s="74"/>
+      <c r="D86" s="74"/>
+      <c r="E86" s="75"/>
     </row>
     <row r="87" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B87" s="82"/>
-      <c r="C87" s="83"/>
-      <c r="D87" s="83"/>
-      <c r="E87" s="84"/>
+      <c r="B87" s="76"/>
+      <c r="C87" s="77"/>
+      <c r="D87" s="77"/>
+      <c r="E87" s="78"/>
     </row>
     <row r="88" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="C88" s="1"/>
@@ -6634,18 +6637,18 @@
       <c r="C89" s="2"/>
     </row>
     <row r="90" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B90" s="79" t="s">
+      <c r="B90" s="73" t="s">
         <v>141</v>
       </c>
-      <c r="C90" s="80"/>
-      <c r="D90" s="80"/>
-      <c r="E90" s="81"/>
+      <c r="C90" s="74"/>
+      <c r="D90" s="74"/>
+      <c r="E90" s="75"/>
     </row>
     <row r="91" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B91" s="82"/>
-      <c r="C91" s="83"/>
-      <c r="D91" s="83"/>
-      <c r="E91" s="84"/>
+      <c r="B91" s="76"/>
+      <c r="C91" s="77"/>
+      <c r="D91" s="77"/>
+      <c r="E91" s="78"/>
     </row>
     <row r="94" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="K94" s="4"/>
@@ -6655,6 +6658,39 @@
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="R8:U9"/>
+    <mergeCell ref="AB8:AE9"/>
+    <mergeCell ref="B90:E91"/>
+    <mergeCell ref="B76:E77"/>
+    <mergeCell ref="G76:J77"/>
+    <mergeCell ref="L76:O77"/>
+    <mergeCell ref="B86:E87"/>
+    <mergeCell ref="B8:E9"/>
+    <mergeCell ref="G68:J69"/>
+    <mergeCell ref="B82:E83"/>
+    <mergeCell ref="B72:E73"/>
+    <mergeCell ref="G72:J73"/>
+    <mergeCell ref="B17:E18"/>
+    <mergeCell ref="J17:M18"/>
+    <mergeCell ref="M35:P36"/>
+    <mergeCell ref="R21:U22"/>
+    <mergeCell ref="L72:O73"/>
+    <mergeCell ref="B59:E60"/>
+    <mergeCell ref="B63:E64"/>
+    <mergeCell ref="G41:J42"/>
+    <mergeCell ref="G45:J46"/>
+    <mergeCell ref="G49:J50"/>
+    <mergeCell ref="B45:E46"/>
+    <mergeCell ref="B49:E50"/>
+    <mergeCell ref="G63:J64"/>
+    <mergeCell ref="M63:P64"/>
+    <mergeCell ref="J59:M60"/>
+    <mergeCell ref="R59:U60"/>
+    <mergeCell ref="G21:J22"/>
+    <mergeCell ref="B35:E36"/>
+    <mergeCell ref="B31:E32"/>
+    <mergeCell ref="J31:M32"/>
+    <mergeCell ref="B21:E22"/>
     <mergeCell ref="G8:J9"/>
     <mergeCell ref="L8:O9"/>
     <mergeCell ref="R63:U64"/>
@@ -6671,39 +6707,6 @@
     <mergeCell ref="G35:J36"/>
     <mergeCell ref="R17:U18"/>
     <mergeCell ref="M21:P22"/>
-    <mergeCell ref="G21:J22"/>
-    <mergeCell ref="B35:E36"/>
-    <mergeCell ref="B31:E32"/>
-    <mergeCell ref="J31:M32"/>
-    <mergeCell ref="B21:E22"/>
-    <mergeCell ref="R21:U22"/>
-    <mergeCell ref="L72:O73"/>
-    <mergeCell ref="B59:E60"/>
-    <mergeCell ref="B63:E64"/>
-    <mergeCell ref="G41:J42"/>
-    <mergeCell ref="G45:J46"/>
-    <mergeCell ref="G49:J50"/>
-    <mergeCell ref="B45:E46"/>
-    <mergeCell ref="B49:E50"/>
-    <mergeCell ref="G63:J64"/>
-    <mergeCell ref="M63:P64"/>
-    <mergeCell ref="J59:M60"/>
-    <mergeCell ref="R59:U60"/>
-    <mergeCell ref="R8:U9"/>
-    <mergeCell ref="AB8:AE9"/>
-    <mergeCell ref="B90:E91"/>
-    <mergeCell ref="B76:E77"/>
-    <mergeCell ref="G76:J77"/>
-    <mergeCell ref="L76:O77"/>
-    <mergeCell ref="B86:E87"/>
-    <mergeCell ref="B8:E9"/>
-    <mergeCell ref="G68:J69"/>
-    <mergeCell ref="B82:E83"/>
-    <mergeCell ref="B72:E73"/>
-    <mergeCell ref="G72:J73"/>
-    <mergeCell ref="B17:E18"/>
-    <mergeCell ref="J17:M18"/>
-    <mergeCell ref="M35:P36"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6712,7 +6715,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:O14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6722,18 +6725,18 @@
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="2:15">
-      <c r="G1" s="79" t="s">
+      <c r="G1" s="73" t="s">
         <v>128</v>
       </c>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="81"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="75"/>
     </row>
     <row r="2" spans="2:15">
-      <c r="G2" s="82"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="84"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="78"/>
     </row>
     <row r="3" spans="2:15">
       <c r="D3" s="3"/>
@@ -6753,38 +6756,38 @@
       <c r="M4" s="5"/>
     </row>
     <row r="5" spans="2:15">
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="79" t="s">
         <v>110</v>
       </c>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="75"/>
-      <c r="G5" s="73" t="s">
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="81"/>
+      <c r="G5" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="75"/>
-      <c r="L5" s="73" t="s">
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="81"/>
+      <c r="L5" s="79" t="s">
         <v>112</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="75"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="81"/>
     </row>
     <row r="6" spans="2:15">
-      <c r="B6" s="76"/>
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="78"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="78"/>
-      <c r="L6" s="76"/>
-      <c r="M6" s="77"/>
-      <c r="N6" s="77"/>
-      <c r="O6" s="78"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="84"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="84"/>
+      <c r="L6" s="82"/>
+      <c r="M6" s="83"/>
+      <c r="N6" s="83"/>
+      <c r="O6" s="84"/>
     </row>
     <row r="7" spans="2:15">
       <c r="C7" s="1"/>
@@ -6804,62 +6807,62 @@
       <c r="M8" s="2"/>
     </row>
     <row r="9" spans="2:15">
-      <c r="B9" s="73" t="s">
+      <c r="B9" s="79" t="s">
         <v>115</v>
       </c>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="75"/>
-      <c r="G9" s="73" t="s">
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="81"/>
+      <c r="G9" s="79" t="s">
         <v>114</v>
       </c>
-      <c r="H9" s="74"/>
-      <c r="I9" s="74"/>
-      <c r="J9" s="75"/>
-      <c r="L9" s="73" t="s">
+      <c r="H9" s="80"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="81"/>
+      <c r="L9" s="79" t="s">
         <v>116</v>
       </c>
-      <c r="M9" s="74"/>
-      <c r="N9" s="74"/>
-      <c r="O9" s="75"/>
+      <c r="M9" s="80"/>
+      <c r="N9" s="80"/>
+      <c r="O9" s="81"/>
     </row>
     <row r="10" spans="2:15">
-      <c r="B10" s="76"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="78"/>
-      <c r="G10" s="76"/>
-      <c r="H10" s="77"/>
-      <c r="I10" s="77"/>
-      <c r="J10" s="78"/>
-      <c r="L10" s="76"/>
-      <c r="M10" s="77"/>
-      <c r="N10" s="77"/>
-      <c r="O10" s="78"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="84"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="84"/>
+      <c r="L10" s="82"/>
+      <c r="M10" s="83"/>
+      <c r="N10" s="83"/>
+      <c r="O10" s="84"/>
     </row>
     <row r="13" spans="2:15" ht="18.75" customHeight="1">
-      <c r="G13" s="73" t="s">
+      <c r="G13" s="79" t="s">
         <v>148</v>
       </c>
-      <c r="H13" s="74"/>
-      <c r="I13" s="74"/>
-      <c r="J13" s="75"/>
-      <c r="L13" s="73" t="s">
+      <c r="H13" s="80"/>
+      <c r="I13" s="80"/>
+      <c r="J13" s="81"/>
+      <c r="L13" s="79" t="s">
         <v>149</v>
       </c>
-      <c r="M13" s="74"/>
-      <c r="N13" s="74"/>
-      <c r="O13" s="75"/>
+      <c r="M13" s="80"/>
+      <c r="N13" s="80"/>
+      <c r="O13" s="81"/>
     </row>
     <row r="14" spans="2:15">
-      <c r="G14" s="76"/>
-      <c r="H14" s="77"/>
-      <c r="I14" s="77"/>
-      <c r="J14" s="78"/>
-      <c r="L14" s="76"/>
-      <c r="M14" s="77"/>
-      <c r="N14" s="77"/>
-      <c r="O14" s="78"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="83"/>
+      <c r="J14" s="84"/>
+      <c r="L14" s="82"/>
+      <c r="M14" s="83"/>
+      <c r="N14" s="83"/>
+      <c r="O14" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -6879,7 +6882,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:U22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6889,18 +6892,18 @@
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="2:21">
-      <c r="J1" s="79" t="s">
+      <c r="J1" s="73" t="s">
         <v>104</v>
       </c>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="81"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="75"/>
     </row>
     <row r="2" spans="2:21">
-      <c r="J2" s="82"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="84"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="78"/>
     </row>
     <row r="3" spans="2:21">
       <c r="D3" s="3"/>
@@ -6926,38 +6929,38 @@
       <c r="T4" s="10"/>
     </row>
     <row r="5" spans="2:21">
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="79" t="s">
         <v>110</v>
       </c>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="75"/>
-      <c r="J5" s="73" t="s">
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="81"/>
+      <c r="J5" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="K5" s="74"/>
-      <c r="L5" s="74"/>
-      <c r="M5" s="75"/>
-      <c r="R5" s="73" t="s">
+      <c r="K5" s="80"/>
+      <c r="L5" s="80"/>
+      <c r="M5" s="81"/>
+      <c r="R5" s="79" t="s">
         <v>112</v>
       </c>
-      <c r="S5" s="74"/>
-      <c r="T5" s="74"/>
-      <c r="U5" s="75"/>
+      <c r="S5" s="80"/>
+      <c r="T5" s="80"/>
+      <c r="U5" s="81"/>
     </row>
     <row r="6" spans="2:21">
-      <c r="B6" s="76"/>
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="78"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="77"/>
-      <c r="L6" s="77"/>
-      <c r="M6" s="78"/>
-      <c r="R6" s="76"/>
-      <c r="S6" s="77"/>
-      <c r="T6" s="77"/>
-      <c r="U6" s="78"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="84"/>
+      <c r="J6" s="82"/>
+      <c r="K6" s="83"/>
+      <c r="L6" s="83"/>
+      <c r="M6" s="84"/>
+      <c r="R6" s="82"/>
+      <c r="S6" s="83"/>
+      <c r="T6" s="83"/>
+      <c r="U6" s="84"/>
     </row>
     <row r="7" spans="2:21">
       <c r="C7" s="1"/>
@@ -6976,120 +6979,120 @@
       <c r="S8" s="2"/>
     </row>
     <row r="9" spans="2:21">
-      <c r="B9" s="73" t="s">
+      <c r="B9" s="79" t="s">
         <v>122</v>
       </c>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="75"/>
-      <c r="G9" s="73" t="s">
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="81"/>
+      <c r="G9" s="79" t="s">
         <v>126</v>
       </c>
-      <c r="H9" s="74"/>
-      <c r="I9" s="74"/>
-      <c r="J9" s="75"/>
-      <c r="M9" s="73" t="s">
+      <c r="H9" s="80"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="81"/>
+      <c r="M9" s="79" t="s">
         <v>127</v>
       </c>
-      <c r="N9" s="74"/>
-      <c r="O9" s="74"/>
-      <c r="P9" s="75"/>
-      <c r="R9" s="73" t="s">
+      <c r="N9" s="80"/>
+      <c r="O9" s="80"/>
+      <c r="P9" s="81"/>
+      <c r="R9" s="79" t="s">
         <v>123</v>
       </c>
-      <c r="S9" s="74"/>
-      <c r="T9" s="74"/>
-      <c r="U9" s="75"/>
+      <c r="S9" s="80"/>
+      <c r="T9" s="80"/>
+      <c r="U9" s="81"/>
     </row>
     <row r="10" spans="2:21">
-      <c r="B10" s="76"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="78"/>
-      <c r="G10" s="76"/>
-      <c r="H10" s="77"/>
-      <c r="I10" s="77"/>
-      <c r="J10" s="78"/>
-      <c r="M10" s="76"/>
-      <c r="N10" s="77"/>
-      <c r="O10" s="77"/>
-      <c r="P10" s="78"/>
-      <c r="R10" s="76"/>
-      <c r="S10" s="77"/>
-      <c r="T10" s="77"/>
-      <c r="U10" s="78"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="84"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="84"/>
+      <c r="M10" s="82"/>
+      <c r="N10" s="83"/>
+      <c r="O10" s="83"/>
+      <c r="P10" s="84"/>
+      <c r="R10" s="82"/>
+      <c r="S10" s="83"/>
+      <c r="T10" s="83"/>
+      <c r="U10" s="84"/>
     </row>
     <row r="13" spans="2:21" ht="18.75" customHeight="1">
-      <c r="B13" s="73" t="s">
+      <c r="B13" s="79" t="s">
         <v>143</v>
       </c>
-      <c r="C13" s="74"/>
-      <c r="D13" s="74"/>
-      <c r="E13" s="75"/>
-      <c r="M13" s="73" t="s">
+      <c r="C13" s="80"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="81"/>
+      <c r="M13" s="79" t="s">
         <v>142</v>
       </c>
-      <c r="N13" s="74"/>
-      <c r="O13" s="74"/>
-      <c r="P13" s="75"/>
-      <c r="R13" s="73" t="s">
+      <c r="N13" s="80"/>
+      <c r="O13" s="80"/>
+      <c r="P13" s="81"/>
+      <c r="R13" s="79" t="s">
         <v>145</v>
       </c>
-      <c r="S13" s="74"/>
-      <c r="T13" s="74"/>
-      <c r="U13" s="75"/>
+      <c r="S13" s="80"/>
+      <c r="T13" s="80"/>
+      <c r="U13" s="81"/>
     </row>
     <row r="14" spans="2:21">
-      <c r="B14" s="76"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="78"/>
-      <c r="M14" s="76"/>
-      <c r="N14" s="77"/>
-      <c r="O14" s="77"/>
-      <c r="P14" s="78"/>
-      <c r="R14" s="76"/>
-      <c r="S14" s="77"/>
-      <c r="T14" s="77"/>
-      <c r="U14" s="78"/>
+      <c r="B14" s="82"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="84"/>
+      <c r="M14" s="82"/>
+      <c r="N14" s="83"/>
+      <c r="O14" s="83"/>
+      <c r="P14" s="84"/>
+      <c r="R14" s="82"/>
+      <c r="S14" s="83"/>
+      <c r="T14" s="83"/>
+      <c r="U14" s="84"/>
     </row>
     <row r="17" spans="2:21" ht="18.75" customHeight="1">
-      <c r="B17" s="73" t="s">
+      <c r="B17" s="79" t="s">
         <v>144</v>
       </c>
-      <c r="C17" s="74"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="75"/>
-      <c r="R17" s="73" t="s">
+      <c r="C17" s="80"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="81"/>
+      <c r="R17" s="79" t="s">
         <v>146</v>
       </c>
-      <c r="S17" s="74"/>
-      <c r="T17" s="74"/>
-      <c r="U17" s="75"/>
+      <c r="S17" s="80"/>
+      <c r="T17" s="80"/>
+      <c r="U17" s="81"/>
     </row>
     <row r="18" spans="2:21">
-      <c r="B18" s="76"/>
-      <c r="C18" s="77"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="78"/>
-      <c r="R18" s="76"/>
-      <c r="S18" s="77"/>
-      <c r="T18" s="77"/>
-      <c r="U18" s="78"/>
+      <c r="B18" s="82"/>
+      <c r="C18" s="83"/>
+      <c r="D18" s="83"/>
+      <c r="E18" s="84"/>
+      <c r="R18" s="82"/>
+      <c r="S18" s="83"/>
+      <c r="T18" s="83"/>
+      <c r="U18" s="84"/>
     </row>
     <row r="21" spans="2:21">
-      <c r="R21" s="73" t="s">
+      <c r="R21" s="79" t="s">
         <v>147</v>
       </c>
-      <c r="S21" s="74"/>
-      <c r="T21" s="74"/>
-      <c r="U21" s="75"/>
+      <c r="S21" s="80"/>
+      <c r="T21" s="80"/>
+      <c r="U21" s="81"/>
     </row>
     <row r="22" spans="2:21">
-      <c r="R22" s="76"/>
-      <c r="S22" s="77"/>
-      <c r="T22" s="77"/>
-      <c r="U22" s="78"/>
+      <c r="R22" s="82"/>
+      <c r="S22" s="83"/>
+      <c r="T22" s="83"/>
+      <c r="U22" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -7115,7 +7118,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="C7:AS13"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -7127,90 +7130,90 @@
     <row r="7" spans="3:45" ht="20.100000000000001" customHeight="1">
       <c r="D7" s="3"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="79" t="s">
+      <c r="F7" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="80"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="81"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="75"/>
       <c r="J7" s="10"/>
       <c r="K7" s="2"/>
-      <c r="L7" s="79" t="s">
+      <c r="L7" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="M7" s="80"/>
-      <c r="N7" s="80"/>
-      <c r="O7" s="81"/>
+      <c r="M7" s="74"/>
+      <c r="N7" s="74"/>
+      <c r="O7" s="75"/>
       <c r="P7" s="10"/>
       <c r="Q7" s="2"/>
-      <c r="R7" s="79" t="s">
+      <c r="R7" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="S7" s="80"/>
-      <c r="T7" s="80"/>
-      <c r="U7" s="81"/>
+      <c r="S7" s="74"/>
+      <c r="T7" s="74"/>
+      <c r="U7" s="75"/>
       <c r="V7" s="10"/>
       <c r="W7" s="2"/>
-      <c r="X7" s="79" t="s">
+      <c r="X7" s="73" t="s">
         <v>52</v>
       </c>
-      <c r="Y7" s="80"/>
-      <c r="Z7" s="80"/>
-      <c r="AA7" s="81"/>
+      <c r="Y7" s="74"/>
+      <c r="Z7" s="74"/>
+      <c r="AA7" s="75"/>
       <c r="AB7" s="10"/>
       <c r="AC7" s="2"/>
-      <c r="AD7" s="79" t="s">
+      <c r="AD7" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="AE7" s="80"/>
-      <c r="AF7" s="80"/>
-      <c r="AG7" s="81"/>
+      <c r="AE7" s="74"/>
+      <c r="AF7" s="74"/>
+      <c r="AG7" s="75"/>
       <c r="AH7" s="10"/>
       <c r="AI7" s="2"/>
-      <c r="AJ7" s="79" t="s">
+      <c r="AJ7" s="73" t="s">
         <v>54</v>
       </c>
-      <c r="AK7" s="80"/>
-      <c r="AL7" s="80"/>
-      <c r="AM7" s="81"/>
+      <c r="AK7" s="74"/>
+      <c r="AL7" s="74"/>
+      <c r="AM7" s="75"/>
       <c r="AN7" s="10"/>
       <c r="AO7" s="2"/>
-      <c r="AP7" s="79" t="s">
+      <c r="AP7" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="AQ7" s="80"/>
-      <c r="AR7" s="80"/>
-      <c r="AS7" s="81"/>
+      <c r="AQ7" s="74"/>
+      <c r="AR7" s="74"/>
+      <c r="AS7" s="75"/>
     </row>
     <row r="8" spans="3:45" ht="20.100000000000001" customHeight="1">
-      <c r="F8" s="82"/>
-      <c r="G8" s="83"/>
-      <c r="H8" s="83"/>
-      <c r="I8" s="84"/>
-      <c r="L8" s="82"/>
-      <c r="M8" s="83"/>
-      <c r="N8" s="83"/>
-      <c r="O8" s="84"/>
-      <c r="R8" s="82"/>
-      <c r="S8" s="83"/>
-      <c r="T8" s="83"/>
-      <c r="U8" s="84"/>
-      <c r="X8" s="82"/>
-      <c r="Y8" s="83"/>
-      <c r="Z8" s="83"/>
-      <c r="AA8" s="84"/>
-      <c r="AD8" s="82"/>
-      <c r="AE8" s="83"/>
-      <c r="AF8" s="83"/>
-      <c r="AG8" s="84"/>
-      <c r="AJ8" s="82"/>
-      <c r="AK8" s="83"/>
-      <c r="AL8" s="83"/>
-      <c r="AM8" s="84"/>
-      <c r="AP8" s="82"/>
-      <c r="AQ8" s="83"/>
-      <c r="AR8" s="83"/>
-      <c r="AS8" s="84"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="78"/>
+      <c r="L8" s="76"/>
+      <c r="M8" s="77"/>
+      <c r="N8" s="77"/>
+      <c r="O8" s="78"/>
+      <c r="R8" s="76"/>
+      <c r="S8" s="77"/>
+      <c r="T8" s="77"/>
+      <c r="U8" s="78"/>
+      <c r="X8" s="76"/>
+      <c r="Y8" s="77"/>
+      <c r="Z8" s="77"/>
+      <c r="AA8" s="78"/>
+      <c r="AD8" s="76"/>
+      <c r="AE8" s="77"/>
+      <c r="AF8" s="77"/>
+      <c r="AG8" s="78"/>
+      <c r="AJ8" s="76"/>
+      <c r="AK8" s="77"/>
+      <c r="AL8" s="77"/>
+      <c r="AM8" s="78"/>
+      <c r="AP8" s="76"/>
+      <c r="AQ8" s="77"/>
+      <c r="AR8" s="77"/>
+      <c r="AS8" s="78"/>
     </row>
     <row r="9" spans="3:45" ht="20.100000000000001" customHeight="1">
       <c r="K9" s="4"/>
@@ -7239,11 +7242,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A2:M62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60:B62"/>
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -7953,6 +7956,12 @@
     <row r="44" spans="1:12">
       <c r="B44" s="72" t="s">
         <v>179</v>
+      </c>
+      <c r="C44" t="s">
+        <v>192</v>
+      </c>
+      <c r="D44" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="45" spans="1:12">
